--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C986B5E-5E0C-4CEB-BC7E-B755E7348A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56FB602-C7C9-40AA-9E7E-F3AE2AC6D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2130" windowWidth="19110" windowHeight="12255" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="11505" yWindow="1590" windowWidth="16995" windowHeight="13260" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{10F82F32-850D-41D7-8715-1E80663D28DD}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{191E9634-90C1-41D4-832E-AE9975B94046}">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">exp - </t>
+          <t xml:space="preserve">0 - </t>
         </r>
         <r>
           <rPr>
@@ -116,16 +116,39 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>경험치</t>
-        </r>
-        <r>
-          <rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">없음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 ~ - ItemID
 </t>
         </r>
       </text>
@@ -135,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,11 +204,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#Quest[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급스태미너포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샬라리스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +266,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +308,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,13 +640,16 @@
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -622,14 +669,20 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -648,11 +701,49 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56FB602-C7C9-40AA-9E7E-F3AE2AC6D8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3BD25-68A4-4697-8BF8-9D804D74CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1590" windowWidth="16995" windowHeight="13260" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오리 너구리 5마리 처치하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오리너구리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수련 생활 (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,11 +208,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초급스태미너포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샬라리스킬</t>
+    <t>배를 채울만한 것을 찾아보자&lt;버섯 1개 획득 및 사용&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련 생활 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 둘러보자&lt;이동&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;버섯 1개 획득 및 사용&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;이동&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급체력포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급마력포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,26 +642,26 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -670,42 +682,42 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -714,30 +726,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>1</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3BD25-68A4-4697-8BF8-9D804D74CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C55D2-718F-44E9-8EDE-7D40EA6F6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
@@ -91,7 +91,75 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사용
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
         </r>
       </text>
     </comment>
@@ -240,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +339,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -642,7 +717,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C55D2-718F-44E9-8EDE-7D40EA6F6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52D447-B784-43B7-86E1-7964A970B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="5424" yWindow="144" windowWidth="14244" windowHeight="12096" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D52D447-B784-43B7-86E1-7964A970B95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F56912-2B32-440C-8AEB-676CE3EF5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="144" windowWidth="14244" windowHeight="12096" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>이영선</author>
+    <author>cha</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3956710B-0016-472E-B935-EF9D94E78DCD}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3956710B-0016-472E-B935-EF9D94E78DCD}">
       <text>
         <r>
           <rPr>
@@ -159,11 +160,31 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>획득</t>
+          <t xml:space="preserve">획득
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - NPC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대화</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{191E9634-90C1-41D4-832E-AE9975B94046}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{B2605BAE-0387-4870-A407-7C00C6A3E1D5}">
       <text>
         <r>
           <rPr>
@@ -218,6 +239,2425 @@
           </rPr>
           <t xml:space="preserve">1 ~ - ItemID
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0A58162E-F01B-42A0-9008-8D5BDA911D0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">없음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 ~ - ItemID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{025E56A4-F26F-432D-BAD8-4983BF74E738}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">없음
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 ~ - ItemID
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{D3CD9E48-9A44-46A7-ABA2-91950F20633C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{34653DC5-225F-498A-BB70-F202ED3F8342}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00F4E355-7ACC-4997-8A6A-C14122559ECC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{9DAC789A-BCBA-4292-A708-3CF20AC3BC5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{A4C81C1F-41A1-4ABE-B5F1-D35F825E1B23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
         </r>
       </text>
     </comment>
@@ -226,7 +2666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,7 +2692,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수련 생활 (1)</t>
+    <t>#Quest[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배를 채울만한 것을 찾아보자&lt;버섯 1개 획득 및 사용&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 둘러보자&lt;이동&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;버섯 1개 획득 및 사용&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;이동&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵을 만한 곳을 찾아보자&lt;마을 발견&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 입구 NPC와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장에게&lt;촌장에게 말 걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로에게&lt;게로게로에게 말 걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀롱뽀롱에게&lt;뽀롱뽀롱에게 말 걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리에게&lt;서리서리에게 말 걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리, 뽀롱뽀롱과 대화나누기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리에게&lt;띠리띠리에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리와 마을 순찰하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리와 순찰&lt;퀘스트용 포악해진 몬스터 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장에게&lt;촌장에게 돌아가기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 부꾸부꾸&lt;부꾸부꾸의 애장품 획득&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 부꾸부꾸&lt;부꾸부꾸를 찾아라&gt; 카멜레온 10마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 부꾸부꾸&lt;부꾸부꾸 마을로 데려오기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestSubID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCount4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardItem5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCount5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestItemID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestItemID3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,43 +2840,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#Quest[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;마을 발견&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;촌장에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;게로게로에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;뽀롱뽀롱에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;서리서리에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>QuestItemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배를 채울만한 것을 찾아보자&lt;버섯 1개 획득 및 사용&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수련 생활 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변을 둘러보자&lt;이동&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;버섯 1개 획득 및 사용&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;이동&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급체력포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급마력포션</t>
+    <t>&lt;포악해진 스컹크 1마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;부꾸부꾸의 애착단지 획득&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;카멜레온 10마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalCount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoalCount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장의 이야기&lt;촌장과 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승 찾아 삼만리&lt;스승과 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 1&gt;, &lt;카멜레온 5마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 2&gt;, &lt;오리너구리 7마리, 카멜레온 5마리 처치</t>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 3&gt;, &lt;미어캣 10마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 4&gt;, &lt;고슴도치 10마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 5&gt;, &lt;스컹크 7마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 6 : 스킬 획득&gt;, &lt;늑대 5마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스승과의 수련&lt;강화 수련 최종&gt;, &lt;황소 3마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을에서 생긴 일&lt;촌장과 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 게로게로&lt;서리서리와 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 게로게로&lt;게로게로의 애장품&gt;, 마을 안을 뒤져보자&lt;주머니 찾기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 게로게로&lt;게로게로를 찾아라&gt; &lt;스컹크,늑대 각각 10마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 게로게로&lt;게로게로를 마을로 데려가기&gt;,&lt;서리서리와 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 게로게로&lt;촌장에게 이상한 점 말하기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Npc와 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;띠리띠리에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;포악해진 몬스터 위치로 이동&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;촌장과 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;스승에게 말걸기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;카멜레온 5마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;오리너구리 7, 카멜레온 5 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;미어캣 10마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;고슴도치 10마리 처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;스컹크 7마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;늑대 5마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;황소 3마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;주머니 찾기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;스컹크,늑대 각각 10마리 처치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;띠리띠리와 대화&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,122 +3417,2299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.69921875" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.8984375" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1008</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1009</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1010</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1011</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1012</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1013</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1014</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1015</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1016</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1017</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>1018</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>1019</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>1020</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>1021</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>1022</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>1023</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>1024</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>1025</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>1026</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="O27" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>1027</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>1028</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>1029</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="O30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>1030</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>1031</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>1032</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F56912-2B32-440C-8AEB-676CE3EF5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D01173B-3765-4FB4-BD6B-B355B32D09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="11280" yWindow="360" windowWidth="14160" windowHeight="14805" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2666,7 +2666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3004,6 +3004,22 @@
   </si>
   <si>
     <t>&lt;띠리띠리와 대화&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급 체력 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 체력 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3011,7 +3027,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3055,6 +3071,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3090,7 +3114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3102,6 +3126,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3419,39 +3446,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.69921875" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.3984375" customWidth="1"/>
-    <col min="14" max="14" width="10.8984375" customWidth="1"/>
-    <col min="15" max="15" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="12.375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3537,7 +3563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -3577,8 +3603,8 @@
       <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="P2">
-        <v>1</v>
+      <c r="P2" s="4">
+        <v>24.1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -3605,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1002</v>
       </c>
@@ -3645,8 +3671,8 @@
       <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="P3">
-        <v>1</v>
+      <c r="P3" s="4">
+        <v>27.7</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -3673,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1003</v>
       </c>
@@ -3713,8 +3739,8 @@
       <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="P4">
-        <v>1</v>
+      <c r="P4" s="4">
+        <v>31.9</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3741,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1004</v>
       </c>
@@ -3781,14 +3807,17 @@
       <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="P5">
-        <v>1</v>
+      <c r="P5" s="4">
+        <v>36.700000000000003</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>86</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3809,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1005</v>
       </c>
@@ -3849,8 +3878,8 @@
       <c r="O6" t="s">
         <v>26</v>
       </c>
-      <c r="P6">
-        <v>1</v>
+      <c r="P6" s="4">
+        <v>42.2</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -3877,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1006</v>
       </c>
@@ -3917,8 +3946,8 @@
       <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7">
-        <v>1</v>
+      <c r="P7" s="4">
+        <v>48.5</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3945,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1007</v>
       </c>
@@ -3985,14 +4014,17 @@
       <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="P8">
-        <v>1</v>
+      <c r="P8" s="4">
+        <v>55.8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>86</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -4013,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1008</v>
       </c>
@@ -4053,8 +4085,8 @@
       <c r="O9" t="s">
         <v>26</v>
       </c>
-      <c r="P9">
-        <v>1</v>
+      <c r="P9" s="4">
+        <v>64.2</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4081,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1009</v>
       </c>
@@ -4121,14 +4153,17 @@
       <c r="O10" t="s">
         <v>26</v>
       </c>
-      <c r="P10">
-        <v>1</v>
+      <c r="P10" s="4">
+        <v>73.8</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -4149,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1010</v>
       </c>
@@ -4189,8 +4224,8 @@
       <c r="O11" t="s">
         <v>26</v>
       </c>
-      <c r="P11">
-        <v>1</v>
+      <c r="P11" s="4">
+        <v>84.9</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -4217,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1011</v>
       </c>
@@ -4257,14 +4292,17 @@
       <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="P12">
-        <v>1</v>
+      <c r="P12" s="4">
+        <v>97.6</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>87</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -4285,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1012</v>
       </c>
@@ -4325,14 +4363,17 @@
       <c r="O13" t="s">
         <v>26</v>
       </c>
-      <c r="P13">
-        <v>1</v>
+      <c r="P13" s="4">
+        <v>112.2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>86</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -4353,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1013</v>
       </c>
@@ -4393,8 +4434,8 @@
       <c r="O14" t="s">
         <v>26</v>
       </c>
-      <c r="P14">
-        <v>1</v>
+      <c r="P14" s="4">
+        <v>113.2</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -4421,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1014</v>
       </c>
@@ -4461,8 +4502,8 @@
       <c r="O15" t="s">
         <v>26</v>
       </c>
-      <c r="P15">
-        <v>1</v>
+      <c r="P15" s="4">
+        <v>114.3</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -4489,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1015</v>
       </c>
@@ -4529,14 +4570,17 @@
       <c r="O16" t="s">
         <v>26</v>
       </c>
-      <c r="P16">
-        <v>1</v>
+      <c r="P16" s="4">
+        <v>115.5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="R16" t="s">
+        <v>87</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -4557,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -4597,14 +4641,17 @@
       <c r="O17" t="s">
         <v>26</v>
       </c>
-      <c r="P17">
-        <v>1</v>
+      <c r="P17" s="4">
+        <v>116.6</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>86</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -4625,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -4665,8 +4712,8 @@
       <c r="O18" t="s">
         <v>26</v>
       </c>
-      <c r="P18">
-        <v>1</v>
+      <c r="P18" s="4">
+        <v>117.7</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4693,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -4733,8 +4780,8 @@
       <c r="O19" t="s">
         <v>26</v>
       </c>
-      <c r="P19">
-        <v>1</v>
+      <c r="P19" s="4">
+        <v>118.9</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -4761,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -4801,14 +4848,17 @@
       <c r="O20" t="s">
         <v>26</v>
       </c>
-      <c r="P20">
-        <v>1</v>
+      <c r="P20" s="4">
+        <v>120</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>86</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -4829,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -4869,14 +4919,17 @@
       <c r="O21" t="s">
         <v>26</v>
       </c>
-      <c r="P21">
-        <v>1</v>
+      <c r="P21" s="4">
+        <v>121.2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>86</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -4897,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -4937,14 +4990,17 @@
       <c r="O22" t="s">
         <v>26</v>
       </c>
-      <c r="P22">
-        <v>1</v>
+      <c r="P22" s="4">
+        <v>122.6</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>86</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -4965,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5005,14 +5061,17 @@
       <c r="O23" t="s">
         <v>26</v>
       </c>
-      <c r="P23">
-        <v>1</v>
+      <c r="P23" s="4">
+        <v>200</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>86</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -5033,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5073,14 +5132,17 @@
       <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24">
-        <v>1</v>
+      <c r="P24" s="4">
+        <v>225</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>88</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -5101,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5141,14 +5203,17 @@
       <c r="O25" t="s">
         <v>26</v>
       </c>
-      <c r="P25">
-        <v>1</v>
+      <c r="P25" s="4">
+        <v>250</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R25" t="s">
+        <v>88</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -5169,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5209,14 +5274,17 @@
       <c r="O26" t="s">
         <v>26</v>
       </c>
-      <c r="P26">
-        <v>1</v>
+      <c r="P26" s="4">
+        <v>300</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>88</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -5237,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5277,14 +5345,17 @@
       <c r="O27" t="s">
         <v>26</v>
       </c>
-      <c r="P27">
-        <v>1</v>
+      <c r="P27" s="4">
+        <v>350</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="R27" t="s">
+        <v>85</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -5305,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1027</v>
       </c>
@@ -5345,8 +5416,8 @@
       <c r="O28" t="s">
         <v>26</v>
       </c>
-      <c r="P28">
-        <v>1</v>
+      <c r="P28" s="4">
+        <v>400</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -5373,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1028</v>
       </c>
@@ -5413,14 +5484,17 @@
       <c r="O29" t="s">
         <v>26</v>
       </c>
-      <c r="P29">
-        <v>1</v>
+      <c r="P29" s="4">
+        <v>450</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="R29" t="s">
+        <v>87</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -5441,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1029</v>
       </c>
@@ -5481,8 +5555,8 @@
       <c r="O30" t="s">
         <v>26</v>
       </c>
-      <c r="P30">
-        <v>1</v>
+      <c r="P30" s="4">
+        <v>500</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -5509,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1030</v>
       </c>
@@ -5549,14 +5623,17 @@
       <c r="O31" t="s">
         <v>26</v>
       </c>
-      <c r="P31">
-        <v>1</v>
+      <c r="P31" s="4">
+        <v>550</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>88</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -5577,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1031</v>
       </c>
@@ -5617,8 +5694,8 @@
       <c r="O32" t="s">
         <v>26</v>
       </c>
-      <c r="P32">
-        <v>1</v>
+      <c r="P32" s="4">
+        <v>600</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -5645,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1032</v>
       </c>
@@ -5685,8 +5762,8 @@
       <c r="O33" t="s">
         <v>26</v>
       </c>
-      <c r="P33">
-        <v>1</v>
+      <c r="P33" s="4">
+        <v>800</v>
       </c>
       <c r="Q33">
         <v>0</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D01173B-3765-4FB4-BD6B-B355B32D09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63569803-CE28-4341-979B-34088CEE5F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="360" windowWidth="14160" windowHeight="14805" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3446,38 +3446,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.75" customWidth="1"/>
-    <col min="7" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" hidden="1" customWidth="1"/>
-    <col min="9" max="13" width="12.375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.69921875" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" customWidth="1"/>
+    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="9" max="13" width="12.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.8984375" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1002</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1003</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1004</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1005</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>1006</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1007</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1008</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>1009</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>1010</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1011</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>1012</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>1013</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>1014</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>1015</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>1027</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>1028</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>1029</v>
       </c>
@@ -5532,10 +5532,10 @@
         <v>82</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>1030</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>1031</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>1032</v>
       </c>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63569803-CE28-4341-979B-34088CEE5F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F02979-AE61-4F94-81F3-4880968F3E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="11280" yWindow="360" windowWidth="17190" windowHeight="14805" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2756,18 +2756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사라진 부꾸부꾸&lt;부꾸부꾸의 애장품 획득&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 부꾸부꾸&lt;부꾸부꾸를 찾아라&gt; 카멜레온 10마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 부꾸부꾸&lt;부꾸부꾸 마을로 데려오기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestSubID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3020,6 +3008,18 @@
   </si>
   <si>
     <t>고급 체력 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 부꾸부꾸&lt;카멜레온 주변에 있는 애착단지 찾기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험에 처한 부꾸부꾸&lt;부꾸부꾸 마을로 데려오기&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험에 처한 부꾸부꾸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3446,38 +3446,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.69921875" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
-    <col min="9" max="13" width="12.3984375" customWidth="1"/>
-    <col min="14" max="14" width="10.8984375" customWidth="1"/>
-    <col min="15" max="15" width="17.19921875" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" customWidth="1"/>
-    <col min="17" max="17" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="13" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -3500,70 +3500,70 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P2" s="4">
         <v>24.1</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1002</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4">
         <v>27.7</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1003</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P4" s="4">
         <v>31.9</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1004</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P5" s="4">
         <v>36.700000000000003</v>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1005</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="4">
         <v>42.2</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1006</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P7" s="4">
         <v>48.5</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1007</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P8" s="4">
         <v>55.8</v>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1008</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="4">
         <v>64.2</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1009</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P10" s="4">
         <v>73.8</v>
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1010</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P11" s="4">
         <v>84.9</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1011</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="4">
         <v>97.6</v>
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1012</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P13" s="4">
         <v>112.2</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S13">
         <v>3</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1013</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -4432,7 +4432,7 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P14" s="4">
         <v>113.2</v>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1014</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P15" s="4">
         <v>114.3</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1015</v>
       </c>
@@ -4541,10 +4541,10 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16">
         <v>29</v>
@@ -4568,7 +4568,7 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P16" s="4">
         <v>115.5</v>
@@ -4577,7 +4577,7 @@
         <v>7</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -4612,10 +4612,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P17" s="4">
         <v>116.6</v>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -4683,10 +4683,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P18" s="4">
         <v>117.7</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P19" s="4">
         <v>118.9</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -4819,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P20" s="4">
         <v>120</v>
@@ -4855,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -4890,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P21" s="4">
         <v>121.2</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -4961,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -4988,7 +4988,7 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P22" s="4">
         <v>122.6</v>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S22">
         <v>4</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5032,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -5059,7 +5059,7 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P23" s="4">
         <v>200</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S23">
         <v>4</v>
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5103,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -5130,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P24" s="4">
         <v>225</v>
@@ -5139,7 +5139,7 @@
         <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S24">
         <v>2</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5174,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -5201,7 +5201,7 @@
         <v>100</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P25" s="4">
         <v>250</v>
@@ -5210,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S25">
         <v>3</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5245,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -5272,7 +5272,7 @@
         <v>100</v>
       </c>
       <c r="O26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P26" s="4">
         <v>300</v>
@@ -5281,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S26">
         <v>5</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5316,10 +5316,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -5343,7 +5343,7 @@
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P27" s="4">
         <v>350</v>
@@ -5352,7 +5352,7 @@
         <v>11</v>
       </c>
       <c r="R27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1027</v>
       </c>
@@ -5387,10 +5387,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>100</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P28" s="4">
         <v>400</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1028</v>
       </c>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>100</v>
       </c>
       <c r="O29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P29" s="4">
         <v>450</v>
@@ -5491,7 +5491,7 @@
         <v>7</v>
       </c>
       <c r="R29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1029</v>
       </c>
@@ -5526,10 +5526,10 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H30">
         <v>28</v>
@@ -5553,7 +5553,7 @@
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P30" s="4">
         <v>500</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1030</v>
       </c>
@@ -5594,10 +5594,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -5621,7 +5621,7 @@
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P31" s="4">
         <v>550</v>
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S31">
         <v>2</v>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1031</v>
       </c>
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P32" s="4">
         <v>600</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1032</v>
       </c>
@@ -5733,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -5760,7 +5760,7 @@
         <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P33" s="4">
         <v>800</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F02979-AE61-4F94-81F3-4880968F3E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C0917-A96A-4D55-83E5-79D30031BD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="360" windowWidth="17190" windowHeight="14805" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="13035" yWindow="390" windowWidth="15900" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>cha</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3956710B-0016-472E-B935-EF9D94E78DCD}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3956710B-0016-472E-B935-EF9D94E78DCD}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1 - </t>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기타</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - </t>
         </r>
         <r>
           <rPr>
@@ -170,7 +192,142 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">4 - NPC </t>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처치</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> or </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">후
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     NPC </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">상호작용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5 - NPC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -184,7 +341,170 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{B2605BAE-0387-4870-A407-7C00C6A3E1D5}">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{B2605BAE-0387-4870-A407-7C00C6A3E1D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음
+아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>획득</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - ItemID
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처치</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0A58162E-F01B-42A0-9008-8D5BDA911D0C}">
       <text>
         <r>
           <rPr>
@@ -242,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0A58162E-F01B-42A0-9008-8D5BDA911D0C}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{025E56A4-F26F-432D-BAD8-4983BF74E738}">
       <text>
         <r>
           <rPr>
@@ -300,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{025E56A4-F26F-432D-BAD8-4983BF74E738}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{D3CD9E48-9A44-46A7-ABA2-91950F20633C}">
       <text>
         <r>
           <rPr>
@@ -321,28 +641,92 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>아이템</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">없음
+          <t>보상</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
 </t>
         </r>
         <r>
@@ -353,12 +737,385 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1 ~ - ItemID
+          <t xml:space="preserve">2 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중급</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태미너</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동속도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">포션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경험치</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{D3CD9E48-9A44-46A7-ABA2-91950F20633C}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{34653DC5-225F-498A-BB70-F202ED3F8342}">
       <text>
         <r>
           <rPr>
@@ -368,50 +1125,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">0 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보상</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1 - </t>
+          <t xml:space="preserve">1 - </t>
         </r>
         <r>
           <rPr>
@@ -838,7 +1552,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">100 - </t>
+          <t xml:space="preserve">8 - </t>
         </r>
         <r>
           <rPr>
@@ -853,7 +1567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{34653DC5-225F-498A-BB70-F202ED3F8342}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00F4E355-7ACC-4997-8A6A-C14122559ECC}">
       <text>
         <r>
           <rPr>
@@ -1305,7 +2019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00F4E355-7ACC-4997-8A6A-C14122559ECC}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{9DAC789A-BCBA-4292-A708-3CF20AC3BC5D}">
       <text>
         <r>
           <rPr>
@@ -1757,459 +2471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{9DAC789A-BCBA-4292-A708-3CF20AC3BC5D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>초급</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중급</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>체력</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>초급</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>마력</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">4 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중급</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>마력</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">5 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>초급</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스태미너</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중급</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스태미너</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이동속도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">포션
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">8 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경험치</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{A4C81C1F-41A1-4ABE-B5F1-D35F825E1B23}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{A4C81C1F-41A1-4ABE-B5F1-D35F825E1B23}">
       <text>
         <r>
           <rPr>
@@ -2666,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2696,70 +2958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배를 채울만한 것을 찾아보자&lt;버섯 1개 획득 및 사용&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변을 둘러보자&lt;이동&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;버섯 1개 획득 및 사용&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;이동&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵을 만한 곳을 찾아보자&lt;마을 발견&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 입구 NPC와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>촌장에게&lt;촌장에게 말 걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로에게&lt;게로게로에게 말 걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뽀롱뽀롱에게&lt;뽀롱뽀롱에게 말 걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서리서리에게&lt;서리서리에게 말 걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서리서리, 뽀롱뽀롱과 대화나누기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리에게&lt;띠리띠리에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리와 마을 순찰하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리와 순찰&lt;퀘스트용 포악해진 몬스터 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>촌장에게&lt;촌장에게 돌아가기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestSubID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2832,42 +3030,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;마을 발견&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;촌장에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;게로게로에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;뽀롱뽀롱에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;서리서리에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestItemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;포악해진 스컹크 1마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;부꾸부꾸의 애착단지 획득&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;카멜레온 10마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GoalCount2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2876,129 +3042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>촌장의 이야기&lt;촌장과 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승 찾아 삼만리&lt;스승과 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 1&gt;, &lt;카멜레온 5마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 2&gt;, &lt;오리너구리 7마리, 카멜레온 5마리 처치</t>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 3&gt;, &lt;미어캣 10마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 4&gt;, &lt;고슴도치 10마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 5&gt;, &lt;스컹크 7마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 6 : 스킬 획득&gt;, &lt;늑대 5마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스승과의 수련&lt;강화 수련 최종&gt;, &lt;황소 3마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을에서 생긴 일&lt;촌장과 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 게로게로&lt;서리서리와 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 게로게로&lt;게로게로의 애장품&gt;, 마을 안을 뒤져보자&lt;주머니 찾기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 게로게로&lt;게로게로를 찾아라&gt; &lt;스컹크,늑대 각각 10마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 게로게로&lt;게로게로를 마을로 데려가기&gt;,&lt;서리서리와 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 게로게로&lt;촌장에게 이상한 점 말하기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Npc와 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;띠리띠리에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;포악해진 몬스터 위치로 이동&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;촌장과 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;스승에게 말걸기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;카멜레온 5마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;오리너구리 7, 카멜레온 5 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;미어캣 10마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;고슴도치 10마리 처치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;스컹크 7마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;늑대 5마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;황소 3마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;주머니 찾기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;스컹크,늑대 각각 10마리 처치&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;띠리띠리와 대화&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모험가의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초급 체력 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3011,15 +3054,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사라진 부꾸부꾸&lt;카멜레온 주변에 있는 애착단지 찾기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험에 처한 부꾸부꾸&lt;부꾸부꾸 마을로 데려오기&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위험에 처한 부꾸부꾸</t>
+    <t>여긴 어디지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 수색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 주인과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뽀롱뽀롱과 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민 (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 주인에게 감사 인사를 표하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입구에 있는 띠리띠리와 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 개구리 부꾸부꾸에게 인사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 중심에 있는 뽀롱뽀롱에게 인사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화가 난 서리서리와 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두색 개구리 게로게로에게 인사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 촌장님에게 찾아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵을 만한 곳을 찾아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 둘러보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주운 버섯을 사용하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배를 채울만한 것을 찾아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 순찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리와 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리와 함께 마을을 순찰하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리를 공격하는 포악한 스컹크를 처치하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 순찰에 대한 보고를 구리구리에게 하러가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 부꾸부꾸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온 주변에 있는 부꾸부꾸의 애착단지 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온을 무서워하는 부꾸부꾸를 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸의 애착단지 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포악한 스컹크 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 부꾸부꾸를 데리고 마을로 복귀하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 부꾸부꾸 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 부꾸부꾸 버리기 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸의 복귀 사실을 구리구리에게 말하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수련 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 숨은 고수 뚜쉬뚜쉬 찾아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수련 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯 $개 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯 $개 사용 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 카멜레온을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수련 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 미어캣을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미어캣 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수련 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 위험한 늑대를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 획득 &gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 난이도의 황소를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황소 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬의 혼잣말 들어주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어수선한 마을에서 무슨일이 있는지 구리구리에게 물어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로의 마지막 흔적을 서리서리에게 물어보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3444,212 +3739,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="13" width="12.375" customWidth="1"/>
-    <col min="14" max="14" width="10.875" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
-    <col min="17" max="17" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1001</v>
       </c>
-      <c r="C2">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="O2" s="4">
         <v>24.1</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
+      <c r="AA2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1002</v>
       </c>
-      <c r="C3">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -3663,57 +3951,28 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
         <v>100</v>
       </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="4">
-        <v>27.7</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1003</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3731,57 +3990,54 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
         <v>100</v>
       </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="4">
-        <v>31.9</v>
-      </c>
-      <c r="Q4">
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="AA4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1004</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3799,128 +4055,122 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
         <v>100</v>
       </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="4">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>83</v>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1005</v>
       </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="4">
-        <v>42.2</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1006</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3938,57 +4188,54 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
         <v>100</v>
       </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="4">
-        <v>48.5</v>
-      </c>
-      <c r="Q7">
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
+      <c r="AA7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1007</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4006,60 +4253,27 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
         <v>100</v>
       </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="4">
-        <v>55.8</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>83</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
+      <c r="N8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1008</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4077,128 +4291,122 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
         <v>100</v>
       </c>
-      <c r="O9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="4">
-        <v>64.2</v>
-      </c>
-      <c r="Q9">
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
+      <c r="AA9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1009</v>
       </c>
-      <c r="C10">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4">
+        <v>55.8</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10">
         <v>1</v>
       </c>
-      <c r="R10" t="s">
-        <v>83</v>
-      </c>
       <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AA10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1010</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4216,128 +4424,122 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
         <v>100</v>
       </c>
-      <c r="O11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="4">
-        <v>84.9</v>
-      </c>
-      <c r="Q11">
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="4">
+        <v>64.2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
+      <c r="AA11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1011</v>
       </c>
-      <c r="C12">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="4">
+        <v>73.8</v>
+      </c>
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-      <c r="O12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="4">
-        <v>97.6</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-      <c r="R12" t="s">
-        <v>84</v>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
+      <c r="AA12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1012</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4355,202 +4557,196 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
         <v>100</v>
       </c>
-      <c r="O13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="4">
-        <v>112.2</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
-        <v>83</v>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="4">
+        <v>84.9</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
+      <c r="AA13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1013</v>
       </c>
-      <c r="C14">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="O14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="4">
-        <v>113.2</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
+      <c r="AA14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1014</v>
       </c>
-      <c r="C15">
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="4">
+        <v>112.2</v>
+      </c>
+      <c r="P15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>100</v>
-      </c>
-      <c r="O15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="4">
-        <v>114.3</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
+      <c r="AA15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1015</v>
       </c>
-      <c r="C16">
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16">
-        <v>29</v>
-      </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4562,66 +4758,60 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
         <v>100</v>
       </c>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="4">
-        <v>115.5</v>
-      </c>
-      <c r="Q16">
+      <c r="N16" t="s">
         <v>7</v>
       </c>
-      <c r="R16" t="s">
-        <v>84</v>
+      <c r="O16" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
+      <c r="AA16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1016</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4633,64 +4823,58 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
         <v>100</v>
       </c>
-      <c r="O17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="4">
-        <v>116.6</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
-        <v>83</v>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="4">
+        <v>114.3</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
+      <c r="AA17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1017</v>
       </c>
-      <c r="C18">
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
@@ -4704,129 +4888,129 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
         <v>100</v>
       </c>
-      <c r="O18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="4">
-        <v>117.7</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
+      <c r="AA18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1018</v>
       </c>
-      <c r="C19">
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="4">
-        <v>118.9</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
+      <c r="AA19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1019</v>
       </c>
-      <c r="C20">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
@@ -4840,66 +5024,60 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
         <v>100</v>
       </c>
-      <c r="O20" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="4">
-        <v>120</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s">
-        <v>83</v>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="4">
+        <v>117.7</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
+      <c r="AA20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1020</v>
       </c>
-      <c r="C21">
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
       <c r="I21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4911,486 +5089,405 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
         <v>100</v>
       </c>
-      <c r="O21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="4">
-        <v>121.2</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
+      <c r="N21" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1021</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
         <v>7</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="4">
-        <v>122.6</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" t="s">
-        <v>83</v>
+      <c r="O22" s="4">
+        <v>118.9</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>4</v>
-      </c>
-      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
+      <c r="AA22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1022</v>
       </c>
-      <c r="C23">
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="4">
+        <v>120</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>100</v>
-      </c>
-      <c r="O23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="4">
-        <v>200</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
-        <v>83</v>
-      </c>
       <c r="S23">
-        <v>4</v>
-      </c>
-      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
+      <c r="AA23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1023</v>
       </c>
-      <c r="C24">
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="4">
+        <v>121.2</v>
+      </c>
+      <c r="P24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>100</v>
-      </c>
-      <c r="O24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="4">
-        <v>225</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24" t="s">
-        <v>85</v>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
+      <c r="AA24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1024</v>
       </c>
-      <c r="C25">
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="P25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>100</v>
-      </c>
-      <c r="O25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="4">
-        <v>250</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25" t="s">
-        <v>85</v>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
+      <c r="AA25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
       <c r="B26">
         <v>1025</v>
       </c>
-      <c r="C26">
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="4">
+        <v>200</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>100</v>
-      </c>
-      <c r="O26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" s="4">
-        <v>300</v>
-      </c>
-      <c r="Q26">
-        <v>2</v>
-      </c>
-      <c r="R26" t="s">
-        <v>85</v>
+      <c r="Q26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>5</v>
-      </c>
-      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
+      <c r="AA26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1026</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
       </c>
       <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
         <v>7</v>
       </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>100</v>
-      </c>
-      <c r="O27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="4">
-        <v>350</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-      <c r="R27" t="s">
-        <v>82</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1027</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -5408,57 +5505,57 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
         <v>100</v>
       </c>
-      <c r="O28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28" s="4">
-        <v>400</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="4">
+        <v>225</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
+      <c r="AA28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1028</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -5476,66 +5573,63 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
         <v>100</v>
       </c>
-      <c r="O29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="4">
-        <v>450</v>
-      </c>
-      <c r="Q29">
+      <c r="N29" t="s">
         <v>7</v>
       </c>
-      <c r="R29" t="s">
-        <v>84</v>
+      <c r="O29" s="4">
+        <v>250</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
       </c>
       <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
+      <c r="AA29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1029</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5547,246 +5641,39 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
         <v>100</v>
       </c>
-      <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" s="4">
-        <v>500</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="4">
+        <v>300</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>1030</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>6</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>100</v>
-      </c>
-      <c r="O31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" s="4">
-        <v>550</v>
-      </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
-      <c r="R31" t="s">
-        <v>85</v>
-      </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>1031</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>100</v>
-      </c>
-      <c r="O32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" s="4">
-        <v>600</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>1032</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>100</v>
-      </c>
-      <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" s="4">
-        <v>800</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
+      <c r="AA30">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C0917-A96A-4D55-83E5-79D30031BD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB3657-D5AA-4179-B2EA-1F135F0A9693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="390" windowWidth="15900" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3287,10 +3287,6 @@
   </si>
   <si>
     <t>늑대 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 획득 &gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3741,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3956,7 +3952,33 @@
       <c r="N3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -4258,6 +4280,33 @@
       <c r="N8" t="s">
         <v>7</v>
       </c>
+      <c r="O8" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -4791,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -4856,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -4924,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -4992,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -5057,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -5094,8 +5143,35 @@
       <c r="N21" t="s">
         <v>7</v>
       </c>
+      <c r="O21" s="4">
+        <v>117.7</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -5160,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5228,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5296,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5364,10 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5435,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5443,10 +5516,10 @@
         <v>87</v>
       </c>
       <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
         <v>91</v>
-      </c>
-      <c r="F27" t="s">
-        <v>92</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5472,16 +5545,43 @@
       <c r="N27" t="s">
         <v>7</v>
       </c>
+      <c r="O27" s="4">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1027</v>
       </c>
       <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
         <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
       </c>
       <c r="F28" t="s">
         <v>77</v>
@@ -5541,15 +5641,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1028</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
@@ -5609,15 +5709,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1029</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
         <v>43</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DB3657-D5AA-4179-B2EA-1F135F0A9693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E50E6-7608-4E44-9067-10EAF1AB70EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="300" yWindow="675" windowWidth="15225" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3737,14 +3737,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
@@ -3854,6 +3854,9 @@
       <c r="B2">
         <v>1001</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
@@ -3919,6 +3922,9 @@
       <c r="B3">
         <v>1002</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
@@ -3984,6 +3990,9 @@
       <c r="B4">
         <v>1003</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
@@ -4049,6 +4058,9 @@
       <c r="B5">
         <v>1004</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
@@ -4114,6 +4126,9 @@
       <c r="B6">
         <v>1005</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
@@ -4182,6 +4197,9 @@
       <c r="B7">
         <v>1006</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -4247,6 +4265,9 @@
       <c r="B8">
         <v>1007</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
@@ -4312,6 +4333,9 @@
       <c r="B9">
         <v>1008</v>
       </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
@@ -4377,6 +4401,9 @@
       <c r="B10">
         <v>1009</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
       <c r="D10" t="s">
         <v>41</v>
       </c>
@@ -4445,6 +4472,9 @@
       <c r="B11">
         <v>1010</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
@@ -4510,6 +4540,9 @@
       <c r="B12">
         <v>1011</v>
       </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
@@ -4578,6 +4611,9 @@
       <c r="B13">
         <v>1012</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -4643,6 +4679,9 @@
       <c r="B14">
         <v>1013</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
@@ -4711,6 +4750,9 @@
       <c r="B15">
         <v>1014</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
         <v>62</v>
       </c>
@@ -4779,6 +4821,9 @@
       <c r="B16">
         <v>1015</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
@@ -4844,6 +4889,9 @@
       <c r="B17">
         <v>1016</v>
       </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
       <c r="D17" t="s">
         <v>62</v>
       </c>
@@ -4909,6 +4957,9 @@
       <c r="B18">
         <v>1017</v>
       </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
@@ -4977,6 +5028,9 @@
       <c r="B19">
         <v>1018</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>67</v>
       </c>
@@ -5045,6 +5099,9 @@
       <c r="B20">
         <v>1019</v>
       </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
       <c r="D20" t="s">
         <v>67</v>
       </c>
@@ -5110,6 +5167,9 @@
       <c r="B21">
         <v>1020</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21" t="s">
         <v>67</v>
       </c>
@@ -5175,6 +5235,9 @@
       <c r="B22">
         <v>1021</v>
       </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
       <c r="D22" t="s">
         <v>67</v>
       </c>
@@ -5240,6 +5303,9 @@
       <c r="B23">
         <v>1022</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23" t="s">
         <v>76</v>
       </c>
@@ -5308,6 +5374,9 @@
       <c r="B24">
         <v>1023</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>76</v>
       </c>
@@ -5376,6 +5445,9 @@
       <c r="B25">
         <v>1024</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
         <v>79</v>
       </c>
@@ -5444,6 +5516,9 @@
       <c r="B26">
         <v>1025</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" t="s">
         <v>84</v>
       </c>
@@ -5512,6 +5587,9 @@
       <c r="B27">
         <v>1026</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27" t="s">
         <v>87</v>
       </c>
@@ -5577,6 +5655,9 @@
       <c r="B28">
         <v>1027</v>
       </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
       <c r="D28" t="s">
         <v>92</v>
       </c>
@@ -5645,6 +5726,9 @@
       <c r="B29">
         <v>1028</v>
       </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
       <c r="D29" t="s">
         <v>92</v>
       </c>
@@ -5712,6 +5796,9 @@
     <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1029</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>92</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E50E6-7608-4E44-9067-10EAF1AB70EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243F833D-3A38-4BE6-9D82-86EF54BDEF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="675" windowWidth="15225" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3050,10 +3050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고급 체력 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여긴 어디지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3266,51 +3262,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강화 수련 (3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수련을 위해 미어캣을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미어캣 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 수련 (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수련을 위해 위험한 늑대를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 난이도의 황소를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황소 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭풍우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚜쉬뚜쉬의 혼잣말 들어주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어수선한 마을에서 무슨일이 있는지 구리구리에게 물어보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로의 마지막 흔적을 서리서리에게 물어보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3405,7 +3361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3419,6 +3375,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3735,10 +3697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3855,16 +3817,16 @@
         <v>1001</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -3923,16 +3885,16 @@
         <v>1002</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3994,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4054,1813 +4016,1461 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="5" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
         <v>1004</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>100</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>100</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="5">
+        <v>3</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>100</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <v>100</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="4">
-        <v>31.9</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+      <c r="O8" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1005</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+    <row r="9" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
         <v>100</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="4">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="P6">
+      <c r="O9" s="6">
+        <v>48.5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="6">
+        <v>55.8</v>
+      </c>
+      <c r="P10" s="5">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R6">
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="6">
+        <v>64.2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>100</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="6">
+        <v>73.8</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>100</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="6">
+        <v>84.9</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>100</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="6">
+        <v>97.6</v>
+      </c>
+      <c r="P14" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>100</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="6">
+        <v>112.2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="5">
         <v>3</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1006</v>
-      </c>
-      <c r="C7">
+    <row r="16" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>100</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="6">
+        <v>113.2</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>1016</v>
+      </c>
+      <c r="C17" s="5">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
         <v>100</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="4">
-        <v>42.2</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="O17" s="6">
+        <v>114.3</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>1007</v>
-      </c>
-      <c r="C8">
+    <row r="18" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>1017</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="5">
+        <v>29</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>100</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="6">
+        <v>115.5</v>
+      </c>
+      <c r="P18" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>1018</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
         <v>100</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="4">
-        <v>42.2</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="O19" s="6">
+        <v>116.6</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1008</v>
-      </c>
-      <c r="C9">
+    <row r="20" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>1019</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="5">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>100</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="6">
+        <v>117.7</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="5">
+        <v>30</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>100</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="6">
+        <v>117.7</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>1021</v>
+      </c>
+      <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="4">
-        <v>48.5</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
+      <c r="O22" s="6">
+        <v>118.9</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1009</v>
-      </c>
-      <c r="C10">
+    <row r="23" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
         <v>100</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="4">
-        <v>55.8</v>
-      </c>
-      <c r="P10">
+      <c r="O23" s="6">
+        <v>120</v>
+      </c>
+      <c r="P23" s="5">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R10">
+      <c r="R23" s="5">
         <v>1</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>1010</v>
-      </c>
-      <c r="C11">
+    <row r="24" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
         <v>100</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="4">
-        <v>64.2</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
+      <c r="O24" s="6">
+        <v>121.2</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="5">
+        <v>3</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>1011</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+    <row r="25" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
         <v>100</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="P12">
+      <c r="O25" s="6">
+        <v>122.6</v>
+      </c>
+      <c r="P25" s="5">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>1012</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>100</v>
-      </c>
-      <c r="N13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="4">
-        <v>84.9</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>1013</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
-      </c>
-      <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="4">
-        <v>97.6</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>1014</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="4">
-        <v>112.2</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>1015</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>100</v>
-      </c>
-      <c r="N16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="4">
-        <v>113.2</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1016</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="4">
-        <v>114.3</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1017</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18">
-        <v>29</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>100</v>
-      </c>
-      <c r="N18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="4">
-        <v>115.5</v>
-      </c>
-      <c r="P18">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>1018</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>100</v>
-      </c>
-      <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="4">
-        <v>116.6</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>1019</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="4">
-        <v>117.7</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>1020</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>100</v>
-      </c>
-      <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="4">
-        <v>117.7</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>1021</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>100</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="4">
-        <v>118.9</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>1022</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>100</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="4">
-        <v>120</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>1023</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>100</v>
-      </c>
-      <c r="N24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="4">
-        <v>121.2</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>1024</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>100</v>
-      </c>
-      <c r="N25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="4">
-        <v>122.6</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25">
+      <c r="R25" s="5">
         <v>4</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>1025</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>100</v>
-      </c>
-      <c r="N26" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="4">
-        <v>200</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>1026</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27">
-        <v>7</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>100</v>
-      </c>
-      <c r="N27" t="s">
-        <v>7</v>
-      </c>
-      <c r="O27" s="4">
-        <v>200</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>1027</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>100</v>
-      </c>
-      <c r="N28" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="4">
-        <v>225</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>1028</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
-      </c>
-      <c r="N29" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29" s="4">
-        <v>250</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>1029</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
-      </c>
-      <c r="N30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="4">
-        <v>300</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30">
-        <v>5</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243F833D-3A38-4BE6-9D82-86EF54BDEF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7081AD-DCA1-43DD-AFED-5022B168A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="2730" yWindow="795" windowWidth="17820" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3050,6 +3050,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>고급 체력 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>여긴 어디지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3262,11 +3266,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>강화 수련 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수련을 위해 미어캣을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미어캣 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 수련 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 위험한 늑대를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 난이도의 황소를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황소 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭풍우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬의 혼잣말 들어주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어수선한 마을에서 무슨일이 있는지 구리구리에게 물어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로의 마지막 흔적을 서리서리에게 물어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 게로게로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 안에서 게로게로가 흘린 주머니를 발견하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로의 주머니 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로를 찾아 마을 밖으로 이동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 밖으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대를 무서워하는 게로게로를 구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 게로게로를 데리고 마을로 복귀하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 게로게로 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 게로게로 버리기 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로를 찾은 것을 서리서리에게 말하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라지는 주민들에 대한 이상한 점을 구리구리에게 말하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 띠리띠리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 현상에 대해서 구리구리와 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리에게로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리에게 무슨 일이 있는지 확인 해보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3327,7 +3431,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3343,6 +3447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3377,10 +3487,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3697,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3820,13 +3930,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -3888,13 +3998,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3956,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4016,1461 +4126,2452 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>1004</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1008</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1009</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4">
+        <v>55.8</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1010</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="4">
+        <v>64.2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1011</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="4">
+        <v>73.8</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1012</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="4">
+        <v>84.9</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1013</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1014</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="4">
+        <v>112.2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1015</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1016</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="4">
+        <v>114.3</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1017</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="4">
+        <v>115.5</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1018</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1019</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="4">
+        <v>117.7</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1020</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="4">
+        <v>117.7</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1021</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="4">
+        <v>118.9</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1022</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="4">
+        <v>120</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1023</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>100</v>
+      </c>
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="4">
+        <v>121.2</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1024</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1025</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>100</v>
+      </c>
+      <c r="N26" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="4">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1026</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>100</v>
+      </c>
+      <c r="N27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="4">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1027</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>100</v>
+      </c>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="4">
+        <v>225</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1028</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="4">
+        <v>250</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1029</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="4">
+        <v>300</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1030</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31">
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="4">
+        <v>400</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1031</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="4">
+        <v>400</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1032</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+      <c r="N33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="4">
+        <v>400</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1033</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>100</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N34" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="6">
-        <v>31.9</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="O34" s="4">
+        <v>400</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1034</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>100</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N35" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="O35" s="4">
+        <v>400</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35">
         <v>1</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="5">
-        <v>3</v>
-      </c>
-      <c r="S6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>1006</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1035</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>100</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N36" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="6">
-        <v>42.2</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="O36" s="4">
+        <v>400</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>1007</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1036</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>100</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N37" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="6">
-        <v>42.2</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="O37" s="4">
+        <v>400</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>1008</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1037</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>100</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N38" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="6">
-        <v>48.5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="O38" s="4">
+        <v>400</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>1009</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
+    <row r="39" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>1038</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
         <v>100</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="6">
-        <v>55.8</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="O39" s="6">
+        <v>400</v>
+      </c>
+      <c r="P39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="5">
         <v>1</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="5">
-        <v>1</v>
-      </c>
-      <c r="S10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0</v>
-      </c>
-      <c r="V10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>1010</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>100</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="6">
-        <v>64.2</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>1011</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>100</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="6">
-        <v>73.8</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>1012</v>
-      </c>
-      <c r="C13" s="5">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>100</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="6">
-        <v>84.9</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>1013</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>100</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="6">
-        <v>97.6</v>
-      </c>
-      <c r="P14" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>1014</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>100</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="6">
-        <v>112.2</v>
-      </c>
-      <c r="P15" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="5">
-        <v>3</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>1015</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="5">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>100</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="6">
-        <v>113.2</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>1016</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>100</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="6">
-        <v>114.3</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>1017</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="5">
-        <v>29</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <v>100</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="6">
-        <v>115.5</v>
-      </c>
-      <c r="P18" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="5">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>1018</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>100</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="6">
-        <v>116.6</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="5">
-        <v>1</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>1019</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="5">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>100</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="6">
-        <v>117.7</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5">
-        <v>0</v>
-      </c>
-      <c r="X20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>1020</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="5">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>100</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="6">
-        <v>117.7</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0</v>
-      </c>
-      <c r="V21" s="5">
-        <v>0</v>
-      </c>
-      <c r="X21" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>1021</v>
-      </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
-        <v>0</v>
-      </c>
-      <c r="M22" s="5">
-        <v>100</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="6">
-        <v>118.9</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
-        <v>1022</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5">
-        <v>100</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="6">
-        <v>120</v>
-      </c>
-      <c r="P23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="5">
-        <v>1</v>
-      </c>
-      <c r="S23" s="5">
-        <v>0</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
-        <v>1023</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="5">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5">
-        <v>100</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="6">
-        <v>121.2</v>
-      </c>
-      <c r="P24" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="5">
-        <v>3</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
-        <v>1024</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="5">
-        <v>3</v>
-      </c>
-      <c r="H25" s="5">
-        <v>10</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="5">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
-        <v>100</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="6">
-        <v>122.6</v>
-      </c>
-      <c r="P25" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="5">
-        <v>4</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0</v>
-      </c>
-      <c r="V25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="5">
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="5">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7081AD-DCA1-43DD-AFED-5022B168A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99E253-46EC-4094-9146-72DFBDB3D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="795" windowWidth="17820" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="14025" yWindow="390" windowWidth="13575" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3371,6 +3371,115 @@
   </si>
   <si>
     <t>띠리띠리에게 무슨 일이 있는지 확인 해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 비밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 현상에 대해서 뚜쉬뚜쉬에게 물어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 현상에 대해서 구리구리에게 물어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리를 위해 땔감과 음료수를 구해오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수 $개 획득 ( * / $ )
+나무 $개 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리에게 마을의 비밀 단서를 획득하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이에게 마을의 비밀 단서를 획득하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이와 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이의 의뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁식사에 사용할 재료를 구해 하이하이에게 전달하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선 $개 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이와 저녁 식사 함께하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이에게 인사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리에게 마을의 비밀 단서를 획득하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 하이하이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에는 무슨일이?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다급하게 달려온 구리구리와 대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컹크 주변에서 하이하이의 주방 그릇 획득하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이의 주방 그릇 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 하이하이를 데리고 마을로 복귀하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 하이하이 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 하이하이 버리기 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리에게 마을의 비밀 단서를 획득하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 서리서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 공격해오는 서리서리를 막아라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리와 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 비밀 단서를 조합하여 구리구리에게 말하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3431,7 +3540,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3450,12 +3559,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3471,7 +3574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3487,10 +3590,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3807,10 +3913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3818,7 +3925,7 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="12" width="12.375" customWidth="1"/>
@@ -6504,74 +6611,1258 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
+    <row r="39" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
         <v>1038</v>
       </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
         <v>100</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="7">
         <v>400</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="6">
         <v>2</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="6">
         <v>1</v>
       </c>
-      <c r="S39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="5">
+      <c r="S39" s="6">
+        <v>0</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0</v>
+      </c>
+      <c r="V39" s="6">
+        <v>0</v>
+      </c>
+      <c r="X39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1039</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>100</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="7">
+        <v>400</v>
+      </c>
+      <c r="P40" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="6">
+        <v>1</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6">
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <v>0</v>
+      </c>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1040</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>100</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="7">
+        <v>400</v>
+      </c>
+      <c r="P41" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="6">
+        <v>1</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6">
+        <v>0</v>
+      </c>
+      <c r="V41" s="6">
+        <v>0</v>
+      </c>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1041</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>100</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O42" s="7">
+        <v>400</v>
+      </c>
+      <c r="P42" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R42" s="6">
+        <v>1</v>
+      </c>
+      <c r="S42" s="6">
+        <v>0</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6">
+        <v>0</v>
+      </c>
+      <c r="V42" s="6">
+        <v>0</v>
+      </c>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1042</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>100</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="7">
+        <v>400</v>
+      </c>
+      <c r="P43" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" s="6">
+        <v>1</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6">
+        <v>0</v>
+      </c>
+      <c r="V43" s="6">
+        <v>0</v>
+      </c>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1043</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>100</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O44" s="7">
+        <v>400</v>
+      </c>
+      <c r="P44" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="6">
+        <v>1</v>
+      </c>
+      <c r="S44" s="6">
+        <v>0</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6">
+        <v>0</v>
+      </c>
+      <c r="V44" s="6">
+        <v>0</v>
+      </c>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1044</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>100</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="7">
+        <v>400</v>
+      </c>
+      <c r="P45" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" s="6">
+        <v>1</v>
+      </c>
+      <c r="S45" s="6">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6">
+        <v>0</v>
+      </c>
+      <c r="V45" s="6">
+        <v>0</v>
+      </c>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1045</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>100</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46" s="7">
+        <v>400</v>
+      </c>
+      <c r="P46" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="6">
+        <v>1</v>
+      </c>
+      <c r="S46" s="6">
+        <v>0</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6">
+        <v>0</v>
+      </c>
+      <c r="V46" s="6">
+        <v>0</v>
+      </c>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1046</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>100</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O47" s="7">
+        <v>400</v>
+      </c>
+      <c r="P47" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="6">
+        <v>1</v>
+      </c>
+      <c r="S47" s="6">
+        <v>0</v>
+      </c>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6">
+        <v>0</v>
+      </c>
+      <c r="V47" s="6">
+        <v>0</v>
+      </c>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1047</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>100</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48" s="7">
+        <v>400</v>
+      </c>
+      <c r="P48" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="6">
+        <v>1</v>
+      </c>
+      <c r="S48" s="6">
+        <v>0</v>
+      </c>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6">
+        <v>0</v>
+      </c>
+      <c r="V48" s="6">
+        <v>0</v>
+      </c>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1048</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>100</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O49" s="7">
+        <v>400</v>
+      </c>
+      <c r="P49" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" s="6">
+        <v>1</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6">
+        <v>0</v>
+      </c>
+      <c r="V49" s="6">
+        <v>0</v>
+      </c>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1049</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>100</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="7">
+        <v>400</v>
+      </c>
+      <c r="P50" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" s="6">
+        <v>1</v>
+      </c>
+      <c r="S50" s="6">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6">
+        <v>0</v>
+      </c>
+      <c r="V50" s="6">
+        <v>0</v>
+      </c>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1050</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51">
+        <v>32</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>100</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" s="7">
+        <v>400</v>
+      </c>
+      <c r="P51" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" s="6">
+        <v>1</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6">
+        <v>0</v>
+      </c>
+      <c r="V51" s="6">
+        <v>0</v>
+      </c>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1051</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>100</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="7">
+        <v>400</v>
+      </c>
+      <c r="P52" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" s="6">
+        <v>1</v>
+      </c>
+      <c r="S52" s="6">
+        <v>0</v>
+      </c>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6">
+        <v>0</v>
+      </c>
+      <c r="V52" s="6">
+        <v>0</v>
+      </c>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>1052</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>100</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" s="7">
+        <v>400</v>
+      </c>
+      <c r="P53" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" s="6">
+        <v>1</v>
+      </c>
+      <c r="S53" s="6">
+        <v>0</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6">
+        <v>0</v>
+      </c>
+      <c r="V53" s="6">
+        <v>0</v>
+      </c>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1053</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>100</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O54" s="7">
+        <v>400</v>
+      </c>
+      <c r="P54" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" s="6">
+        <v>1</v>
+      </c>
+      <c r="S54" s="6">
+        <v>0</v>
+      </c>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
+      <c r="V54" s="6">
+        <v>0</v>
+      </c>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1054</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>100</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O55" s="7">
+        <v>400</v>
+      </c>
+      <c r="P55" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="6">
+        <v>1</v>
+      </c>
+      <c r="S55" s="6">
+        <v>0</v>
+      </c>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6">
+        <v>0</v>
+      </c>
+      <c r="V55" s="6">
+        <v>0</v>
+      </c>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99E253-46EC-4094-9146-72DFBDB3D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7C4E86-F0AA-4241-9AE7-D1290B8AD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="390" windowWidth="13575" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="5415" yWindow="435" windowWidth="14130" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3039,18 +3039,6 @@
   </si>
   <si>
     <t>GoalCount3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초급 체력 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급 체력 포션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3480,6 +3468,25 @@
   </si>
   <si>
     <t>마을의 비밀 단서를 조합하여 구리구리에게 말하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 포션</t>
+  </si>
+  <si>
+    <t>골드</t>
+  </si>
+  <si>
+    <t>이동 속도 포션</t>
+  </si>
+  <si>
+    <t>중급 회복 포션</t>
+  </si>
+  <si>
+    <t>모험가의 검</t>
+  </si>
+  <si>
+    <t>골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3574,7 +3581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3593,11 +3600,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3915,9 +3940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3933,8 +3958,8 @@
     <col min="14" max="14" width="17.25" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
     <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="9" customWidth="1"/>
     <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
@@ -3995,10 +4020,10 @@
       <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -4037,13 +4062,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4075,9 +4100,8 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2">
         <v>0</v>
       </c>
@@ -4105,13 +4129,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -4143,9 +4167,8 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3">
         <v>0</v>
       </c>
@@ -4173,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4211,9 +4234,8 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4">
         <v>0</v>
       </c>
@@ -4241,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4279,8 +4301,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <v>0</v>
+      <c r="Q5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R5" s="8">
+        <v>3</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4309,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4347,12 +4372,8 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6">
         <v>0</v>
       </c>
@@ -4380,13 +4401,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4418,9 +4439,8 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7">
         <v>0</v>
       </c>
@@ -4448,13 +4468,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4486,8 +4506,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="R8">
-        <v>0</v>
+      <c r="Q8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -4516,13 +4539,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4554,9 +4577,8 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="S9">
         <v>0</v>
       </c>
@@ -4584,13 +4606,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4622,10 +4644,10 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10">
+      <c r="Q10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="8">
         <v>1</v>
       </c>
       <c r="S10">
@@ -4655,13 +4677,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4693,8 +4715,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="R11">
-        <v>0</v>
+      <c r="Q11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="8">
+        <v>10</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -4723,13 +4748,13 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4761,10 +4786,10 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" s="8">
         <v>1</v>
       </c>
       <c r="S12">
@@ -4794,13 +4819,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4832,8 +4857,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="R13">
-        <v>0</v>
+      <c r="Q13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" s="8">
+        <v>3</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -4862,13 +4890,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4900,11 +4928,11 @@
       <c r="P14">
         <v>7</v>
       </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
+      <c r="Q14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="8">
+        <v>10</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -4933,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4971,11 +4999,11 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
+      <c r="Q15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="8">
+        <v>10</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -5004,13 +5032,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -5042,8 +5070,11 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
+      <c r="Q16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -5072,13 +5103,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -5110,8 +5141,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="R17">
-        <v>0</v>
+      <c r="Q17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -5140,13 +5174,13 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
       </c>
       <c r="G18">
         <v>29</v>
@@ -5178,11 +5212,11 @@
       <c r="P18">
         <v>7</v>
       </c>
-      <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
+      <c r="Q18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="8">
+        <v>10</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -5211,13 +5245,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5249,11 +5283,11 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
+      <c r="Q19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R19" s="8">
+        <v>10</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -5282,13 +5316,13 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -5320,8 +5354,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>0</v>
+      <c r="Q20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5350,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G21">
         <v>30</v>
@@ -5388,8 +5425,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>0</v>
+      <c r="Q21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" s="8">
+        <v>3</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -5418,13 +5458,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5456,8 +5496,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="Q22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="8">
+        <v>4</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -5486,13 +5529,13 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5524,11 +5567,11 @@
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
+      <c r="Q23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="8">
+        <v>4</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -5557,13 +5600,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -5595,11 +5638,11 @@
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
+      <c r="Q24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" s="8">
+        <v>2</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -5628,13 +5671,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -5666,11 +5709,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25">
-        <v>4</v>
+      <c r="Q25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="8">
+        <v>3</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -5699,13 +5742,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -5737,11 +5780,11 @@
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
+      <c r="Q26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="8">
+        <v>5</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -5770,13 +5813,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5808,8 +5851,11 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>0</v>
+      <c r="Q27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="R27" s="8">
+        <v>1</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -5838,13 +5884,13 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5876,11 +5922,11 @@
       <c r="P28">
         <v>2</v>
       </c>
-      <c r="Q28" t="s">
-        <v>30</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
+      <c r="Q28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R28" s="8">
+        <v>15</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -5909,13 +5955,13 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5947,11 +5993,11 @@
       <c r="P29">
         <v>2</v>
       </c>
-      <c r="Q29" t="s">
-        <v>30</v>
-      </c>
-      <c r="R29">
-        <v>3</v>
+      <c r="Q29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -5980,13 +6026,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -6018,11 +6064,11 @@
       <c r="P30">
         <v>2</v>
       </c>
-      <c r="Q30" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30">
-        <v>5</v>
+      <c r="Q30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="8">
+        <v>15</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -6051,13 +6097,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <v>28</v>
@@ -6089,11 +6135,11 @@
       <c r="P31">
         <v>2</v>
       </c>
-      <c r="Q31" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
+      <c r="Q31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R31" s="8">
+        <v>2</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -6122,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
         <v>96</v>
       </c>
-      <c r="E32" t="s">
-        <v>99</v>
-      </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6160,11 +6206,11 @@
       <c r="P32">
         <v>2</v>
       </c>
-      <c r="Q32" t="s">
-        <v>30</v>
-      </c>
-      <c r="R32">
-        <v>1</v>
+      <c r="Q32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R32" s="8">
+        <v>15</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -6193,13 +6239,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -6231,11 +6277,11 @@
       <c r="P33">
         <v>2</v>
       </c>
-      <c r="Q33" t="s">
-        <v>30</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
+      <c r="Q33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R33" s="8">
+        <v>2</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -6264,13 +6310,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>31</v>
@@ -6302,11 +6348,11 @@
       <c r="P34">
         <v>2</v>
       </c>
-      <c r="Q34" t="s">
-        <v>30</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
+      <c r="Q34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="8">
+        <v>15</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -6335,13 +6381,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G35">
         <v>31</v>
@@ -6373,11 +6419,11 @@
       <c r="P35">
         <v>2</v>
       </c>
-      <c r="Q35" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35">
-        <v>1</v>
+      <c r="Q35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R35" s="8">
+        <v>15</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -6406,13 +6452,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6444,11 +6490,11 @@
       <c r="P36">
         <v>2</v>
       </c>
-      <c r="Q36" t="s">
-        <v>30</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
+      <c r="Q36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R36" s="8">
+        <v>15</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -6477,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6515,10 +6561,10 @@
       <c r="P37">
         <v>2</v>
       </c>
-      <c r="Q37" t="s">
-        <v>30</v>
-      </c>
-      <c r="R37">
+      <c r="Q37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R37" s="8">
         <v>1</v>
       </c>
       <c r="S37">
@@ -6548,13 +6594,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -6586,11 +6632,11 @@
       <c r="P38">
         <v>2</v>
       </c>
-      <c r="Q38" t="s">
-        <v>30</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
+      <c r="Q38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R38" s="8">
+        <v>15</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -6611,74 +6657,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>1038</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>100</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" t="s">
         <v>7</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="4">
         <v>400</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39">
         <v>2</v>
       </c>
-      <c r="Q39" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R39" s="6">
-        <v>1</v>
-      </c>
-      <c r="S39" s="6">
-        <v>0</v>
-      </c>
-      <c r="U39" s="6">
-        <v>0</v>
-      </c>
-      <c r="V39" s="6">
-        <v>0</v>
-      </c>
-      <c r="X39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="6">
+      <c r="Q39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R39" s="8">
+        <v>15</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <v>0</v>
       </c>
     </row>
@@ -6690,13 +6736,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -6716,43 +6762,40 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40">
         <v>100</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N40" t="s">
         <v>7</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="4">
         <v>400</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40">
         <v>2</v>
       </c>
-      <c r="Q40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R40" s="6">
-        <v>1</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0</v>
-      </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6">
-        <v>0</v>
-      </c>
-      <c r="V40" s="6">
-        <v>0</v>
-      </c>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6">
+      <c r="Q40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R40" s="8">
+        <v>15</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
         <v>0</v>
       </c>
     </row>
@@ -6764,13 +6807,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -6790,43 +6833,40 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41">
         <v>100</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" t="s">
         <v>7</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="4">
         <v>400</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41">
         <v>2</v>
       </c>
-      <c r="Q41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R41" s="6">
-        <v>1</v>
-      </c>
-      <c r="S41" s="6">
-        <v>0</v>
-      </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6">
-        <v>0</v>
-      </c>
-      <c r="V41" s="6">
-        <v>0</v>
-      </c>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6">
+      <c r="Q41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R41" s="8">
+        <v>20</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
         <v>0</v>
       </c>
     </row>
@@ -6838,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
         <v>111</v>
       </c>
-      <c r="E42" t="s">
-        <v>114</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G42">
         <v>26</v>
@@ -6864,43 +6904,40 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42">
         <v>100</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="10">
         <v>400</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42" s="11">
         <v>2</v>
       </c>
-      <c r="Q42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R42" s="6">
-        <v>1</v>
-      </c>
-      <c r="S42" s="6">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6">
-        <v>0</v>
-      </c>
-      <c r="V42" s="6">
-        <v>0</v>
-      </c>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6">
+      <c r="Q42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="R42" s="13">
+        <v>20</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
         <v>0</v>
       </c>
     </row>
@@ -6912,13 +6949,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6938,43 +6975,40 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43">
         <v>100</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="4">
         <v>400</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43">
         <v>2</v>
       </c>
-      <c r="Q43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R43" s="6">
-        <v>1</v>
-      </c>
-      <c r="S43" s="6">
-        <v>0</v>
-      </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6">
-        <v>0</v>
-      </c>
-      <c r="V43" s="6">
-        <v>0</v>
-      </c>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6">
+      <c r="Q43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R43" s="8">
+        <v>20</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
         <v>0</v>
       </c>
     </row>
@@ -6986,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7012,43 +7046,40 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44">
         <v>100</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" t="s">
         <v>7</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="4">
         <v>400</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44">
         <v>2</v>
       </c>
-      <c r="Q44" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R44" s="6">
+      <c r="Q44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R44" s="8">
         <v>1</v>
       </c>
-      <c r="S44" s="6">
-        <v>0</v>
-      </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6">
-        <v>0</v>
-      </c>
-      <c r="V44" s="6">
-        <v>0</v>
-      </c>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6">
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
         <v>0</v>
       </c>
     </row>
@@ -7060,13 +7091,13 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G45">
         <v>17</v>
@@ -7086,43 +7117,40 @@
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45">
         <v>100</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" t="s">
         <v>7</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="4">
         <v>400</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45">
         <v>2</v>
       </c>
-      <c r="Q45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R45" s="6">
-        <v>1</v>
-      </c>
-      <c r="S45" s="6">
-        <v>0</v>
-      </c>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6">
-        <v>0</v>
-      </c>
-      <c r="V45" s="6">
-        <v>0</v>
-      </c>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6">
+      <c r="Q45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R45" s="8">
+        <v>20</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
         <v>0</v>
       </c>
     </row>
@@ -7134,13 +7162,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7160,43 +7188,40 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46">
         <v>100</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N46" t="s">
         <v>7</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="4">
         <v>400</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46">
         <v>2</v>
       </c>
-      <c r="Q46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R46" s="6">
-        <v>1</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6">
-        <v>0</v>
-      </c>
-      <c r="V46" s="6">
-        <v>0</v>
-      </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6">
+      <c r="Q46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R46" s="8">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
         <v>0</v>
       </c>
     </row>
@@ -7208,13 +7233,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7234,43 +7259,40 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47">
         <v>100</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="N47" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="4">
         <v>400</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47">
         <v>2</v>
       </c>
-      <c r="Q47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R47" s="6">
-        <v>1</v>
-      </c>
-      <c r="S47" s="6">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6">
-        <v>0</v>
-      </c>
-      <c r="V47" s="6">
-        <v>0</v>
-      </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6">
+      <c r="Q47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R47" s="8">
+        <v>20</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
         <v>0</v>
       </c>
     </row>
@@ -7282,13 +7304,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7308,43 +7330,40 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48">
         <v>100</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="N48" t="s">
         <v>7</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="4">
         <v>400</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48">
         <v>2</v>
       </c>
-      <c r="Q48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R48" s="6">
-        <v>1</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6">
-        <v>0</v>
-      </c>
-      <c r="V48" s="6">
-        <v>0</v>
-      </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6">
+      <c r="Q48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R48" s="8">
+        <v>20</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
         <v>0</v>
       </c>
     </row>
@@ -7356,13 +7375,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -7382,43 +7401,40 @@
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49">
         <v>100</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="N49" t="s">
         <v>7</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="4">
         <v>400</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49">
         <v>2</v>
       </c>
-      <c r="Q49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R49" s="6">
-        <v>1</v>
-      </c>
-      <c r="S49" s="6">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6">
-        <v>0</v>
-      </c>
-      <c r="V49" s="6">
-        <v>0</v>
-      </c>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6">
+      <c r="Q49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R49" s="8">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
         <v>0</v>
       </c>
     </row>
@@ -7430,13 +7446,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
         <v>125</v>
       </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -7456,43 +7472,40 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50">
         <v>100</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="N50" t="s">
         <v>7</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="4">
         <v>400</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50">
         <v>2</v>
       </c>
-      <c r="Q50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="6">
-        <v>1</v>
-      </c>
-      <c r="S50" s="6">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6">
-        <v>0</v>
-      </c>
-      <c r="V50" s="6">
-        <v>0</v>
-      </c>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6">
+      <c r="Q50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R50" s="8">
+        <v>20</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
         <v>0</v>
       </c>
     </row>
@@ -7504,13 +7517,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G51">
         <v>32</v>
@@ -7530,43 +7543,40 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51">
         <v>100</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="N51" t="s">
         <v>7</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="4">
         <v>400</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51">
         <v>2</v>
       </c>
-      <c r="Q51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R51" s="6">
-        <v>1</v>
-      </c>
-      <c r="S51" s="6">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6">
-        <v>0</v>
-      </c>
-      <c r="V51" s="6">
-        <v>0</v>
-      </c>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6">
+      <c r="Q51" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R51" s="8">
+        <v>20</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
         <v>0</v>
       </c>
     </row>
@@ -7578,13 +7588,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G52">
         <v>32</v>
@@ -7604,43 +7614,40 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52">
         <v>100</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N52" t="s">
         <v>7</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="4">
         <v>400</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52">
         <v>2</v>
       </c>
-      <c r="Q52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R52" s="6">
-        <v>1</v>
-      </c>
-      <c r="S52" s="6">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6">
-        <v>0</v>
-      </c>
-      <c r="V52" s="6">
-        <v>0</v>
-      </c>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6">
+      <c r="Q52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="R52" s="8">
+        <v>5</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
         <v>0</v>
       </c>
     </row>
@@ -7652,13 +7659,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -7678,43 +7685,40 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53">
         <v>100</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="N53" t="s">
         <v>7</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="4">
         <v>400</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53">
         <v>2</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="6">
-        <v>1</v>
-      </c>
-      <c r="S53" s="6">
-        <v>0</v>
-      </c>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6">
-        <v>0</v>
-      </c>
-      <c r="V53" s="6">
-        <v>0</v>
-      </c>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6">
+      <c r="Q53" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R53" s="8">
+        <v>25</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
         <v>0</v>
       </c>
     </row>
@@ -7726,69 +7730,66 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54" t="s">
+        <v>7</v>
+      </c>
+      <c r="O54" s="4">
+        <v>400</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
+      <c r="R54" s="8">
         <v>100</v>
       </c>
-      <c r="N54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O54" s="7">
-        <v>400</v>
-      </c>
-      <c r="P54" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R54" s="6">
-        <v>1</v>
-      </c>
-      <c r="S54" s="6">
-        <v>0</v>
-      </c>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6">
-        <v>0</v>
-      </c>
-      <c r="V54" s="6">
-        <v>0</v>
-      </c>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6">
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
         <v>0</v>
       </c>
     </row>
@@ -7800,13 +7801,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7826,43 +7827,40 @@
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55">
         <v>100</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="N55" t="s">
         <v>7</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="4">
         <v>400</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55">
         <v>2</v>
       </c>
-      <c r="Q55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R55" s="6">
-        <v>1</v>
-      </c>
-      <c r="S55" s="6">
-        <v>0</v>
-      </c>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6">
-        <v>0</v>
-      </c>
-      <c r="V55" s="6">
-        <v>0</v>
-      </c>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6">
+      <c r="Q55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R55" s="8">
+        <v>25</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7C4E86-F0AA-4241-9AE7-D1290B8AD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635F9B8-491A-4A67-9DBF-E15AA4D0A2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="435" windowWidth="14130" windowHeight="14685" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3581,7 +3581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3600,29 +3600,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3940,38 +3925,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="14.375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.09765625" customWidth="1"/>
+    <col min="8" max="12" width="12.3984375" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="17.19921875" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.09765625" customWidth="1"/>
+    <col min="18" max="18" width="14.3984375" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4020,10 +4005,10 @@
       <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -4054,7 +4039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -4100,8 +4085,8 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
       <c r="S2">
         <v>0</v>
       </c>
@@ -4121,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1002</v>
       </c>
@@ -4167,8 +4152,8 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
       <c r="S3">
         <v>0</v>
       </c>
@@ -4188,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1003</v>
       </c>
@@ -4234,8 +4219,8 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
       <c r="S4">
         <v>0</v>
       </c>
@@ -4255,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1004</v>
       </c>
@@ -4299,12 +4284,12 @@
         <v>31.9</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="4">
         <v>3</v>
       </c>
       <c r="S5">
@@ -4326,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>1005</v>
       </c>
@@ -4370,10 +4355,10 @@
         <v>36.700000000000003</v>
       </c>
       <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
       <c r="S6">
         <v>0</v>
       </c>
@@ -4393,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>1006</v>
       </c>
@@ -4439,8 +4424,8 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
       <c r="S7">
         <v>0</v>
       </c>
@@ -4460,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1007</v>
       </c>
@@ -4504,12 +4489,12 @@
         <v>42.2</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="4">
         <v>1</v>
       </c>
       <c r="S8">
@@ -4531,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1008</v>
       </c>
@@ -4577,8 +4562,8 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
       <c r="S9">
         <v>0</v>
       </c>
@@ -4598,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>1009</v>
       </c>
@@ -4644,10 +4629,10 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="4">
         <v>1</v>
       </c>
       <c r="S10">
@@ -4669,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>1010</v>
       </c>
@@ -4713,12 +4698,12 @@
         <v>64.2</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="4">
         <v>10</v>
       </c>
       <c r="S11">
@@ -4740,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1011</v>
       </c>
@@ -4784,14 +4769,14 @@
         <v>73.8</v>
       </c>
       <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R12" s="4">
         <v>1</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1</v>
-      </c>
       <c r="S12">
         <v>0</v>
       </c>
@@ -4811,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>1012</v>
       </c>
@@ -4855,12 +4840,12 @@
         <v>84.9</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="4">
         <v>3</v>
       </c>
       <c r="S13">
@@ -4882,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>1013</v>
       </c>
@@ -4926,12 +4911,12 @@
         <v>97.6</v>
       </c>
       <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="4">
         <v>10</v>
       </c>
       <c r="S14">
@@ -4953,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>1014</v>
       </c>
@@ -4997,12 +4982,12 @@
         <v>112.2</v>
       </c>
       <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="4">
         <v>10</v>
       </c>
       <c r="S15">
@@ -5024,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>1015</v>
       </c>
@@ -5068,12 +5053,12 @@
         <v>113.2</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="4">
         <v>1</v>
       </c>
       <c r="S16">
@@ -5095,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -5139,12 +5124,12 @@
         <v>114.3</v>
       </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="4">
         <v>1</v>
       </c>
       <c r="S17">
@@ -5166,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -5210,12 +5195,12 @@
         <v>115.5</v>
       </c>
       <c r="P18">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="4">
         <v>10</v>
       </c>
       <c r="S18">
@@ -5237,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -5281,12 +5266,12 @@
         <v>116.6</v>
       </c>
       <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="4">
         <v>10</v>
       </c>
       <c r="S19">
@@ -5308,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -5352,12 +5337,12 @@
         <v>117.7</v>
       </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="4">
         <v>1</v>
       </c>
       <c r="S20">
@@ -5379,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -5423,12 +5408,12 @@
         <v>117.7</v>
       </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="4">
         <v>3</v>
       </c>
       <c r="S21">
@@ -5450,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -5494,12 +5479,12 @@
         <v>118.9</v>
       </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="4">
         <v>4</v>
       </c>
       <c r="S22">
@@ -5521,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5567,10 +5552,10 @@
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="4">
         <v>4</v>
       </c>
       <c r="S23">
@@ -5592,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5636,12 +5621,12 @@
         <v>121.2</v>
       </c>
       <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="4">
         <v>2</v>
       </c>
       <c r="S24">
@@ -5663,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5707,12 +5692,12 @@
         <v>122.6</v>
       </c>
       <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="4">
         <v>3</v>
       </c>
       <c r="S25">
@@ -5734,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5778,12 +5763,12 @@
         <v>200</v>
       </c>
       <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="4">
         <v>5</v>
       </c>
       <c r="S26">
@@ -5805,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5849,12 +5834,12 @@
         <v>200</v>
       </c>
       <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="4">
         <v>1</v>
       </c>
       <c r="S27">
@@ -5876,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>1027</v>
       </c>
@@ -5920,12 +5905,12 @@
         <v>225</v>
       </c>
       <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="4">
         <v>15</v>
       </c>
       <c r="S28">
@@ -5947,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>1028</v>
       </c>
@@ -5991,12 +5976,12 @@
         <v>250</v>
       </c>
       <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="4">
         <v>1</v>
       </c>
       <c r="S29">
@@ -6018,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>1029</v>
       </c>
@@ -6062,12 +6047,12 @@
         <v>300</v>
       </c>
       <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="4">
         <v>15</v>
       </c>
       <c r="S30">
@@ -6089,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>1030</v>
       </c>
@@ -6135,10 +6120,10 @@
       <c r="P31">
         <v>2</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R31" s="8">
+      <c r="R31" s="4">
         <v>2</v>
       </c>
       <c r="S31">
@@ -6160,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>1031</v>
       </c>
@@ -6204,12 +6189,12 @@
         <v>400</v>
       </c>
       <c r="P32">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="4">
         <v>15</v>
       </c>
       <c r="S32">
@@ -6231,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>1032</v>
       </c>
@@ -6275,14 +6260,14 @@
         <v>400</v>
       </c>
       <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R33" s="4">
         <v>2</v>
       </c>
-      <c r="Q33" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="R33" s="8">
-        <v>2</v>
-      </c>
       <c r="S33">
         <v>0</v>
       </c>
@@ -6302,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>1033</v>
       </c>
@@ -6346,12 +6331,12 @@
         <v>400</v>
       </c>
       <c r="P34">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R34" s="8">
+      <c r="R34" s="4">
         <v>15</v>
       </c>
       <c r="S34">
@@ -6373,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>1034</v>
       </c>
@@ -6417,12 +6402,12 @@
         <v>400</v>
       </c>
       <c r="P35">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R35" s="8">
+      <c r="R35" s="4">
         <v>15</v>
       </c>
       <c r="S35">
@@ -6444,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>1035</v>
       </c>
@@ -6488,12 +6473,12 @@
         <v>400</v>
       </c>
       <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="4">
         <v>15</v>
       </c>
       <c r="S36">
@@ -6515,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>1036</v>
       </c>
@@ -6561,10 +6546,10 @@
       <c r="P37">
         <v>2</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="4">
         <v>1</v>
       </c>
       <c r="S37">
@@ -6586,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>1037</v>
       </c>
@@ -6630,12 +6615,12 @@
         <v>400</v>
       </c>
       <c r="P38">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R38" s="8">
+      <c r="R38" s="4">
         <v>15</v>
       </c>
       <c r="S38">
@@ -6657,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>1038</v>
       </c>
@@ -6701,12 +6686,12 @@
         <v>400</v>
       </c>
       <c r="P39">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R39" s="8">
+      <c r="R39" s="4">
         <v>15</v>
       </c>
       <c r="S39">
@@ -6728,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>1039</v>
       </c>
@@ -6772,12 +6757,12 @@
         <v>400</v>
       </c>
       <c r="P40">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="4">
         <v>15</v>
       </c>
       <c r="S40">
@@ -6799,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>1040</v>
       </c>
@@ -6843,12 +6828,12 @@
         <v>400</v>
       </c>
       <c r="P41">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R41" s="8">
+      <c r="R41" s="4">
         <v>20</v>
       </c>
       <c r="S41">
@@ -6870,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>1041</v>
       </c>
@@ -6910,16 +6895,16 @@
       <c r="N42" t="s">
         <v>7</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="7">
         <v>400</v>
       </c>
-      <c r="P42" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="12" t="s">
+      <c r="P42">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="R42" s="13">
+      <c r="R42" s="7">
         <v>20</v>
       </c>
       <c r="S42">
@@ -6941,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>1042</v>
       </c>
@@ -6985,12 +6970,12 @@
         <v>400</v>
       </c>
       <c r="P43">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R43" s="8">
+      <c r="R43" s="4">
         <v>20</v>
       </c>
       <c r="S43">
@@ -7012,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>1043</v>
       </c>
@@ -7058,10 +7043,10 @@
       <c r="P44">
         <v>2</v>
       </c>
-      <c r="Q44" s="7" t="s">
+      <c r="Q44" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="8">
+      <c r="R44" s="4">
         <v>1</v>
       </c>
       <c r="S44">
@@ -7083,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>1044</v>
       </c>
@@ -7127,12 +7112,12 @@
         <v>400</v>
       </c>
       <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R45" s="8">
+      <c r="R45" s="4">
         <v>20</v>
       </c>
       <c r="S45">
@@ -7154,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>1045</v>
       </c>
@@ -7200,10 +7185,10 @@
       <c r="P46">
         <v>2</v>
       </c>
-      <c r="Q46" s="7" t="s">
+      <c r="Q46" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="4">
         <v>3</v>
       </c>
       <c r="S46">
@@ -7225,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>1046</v>
       </c>
@@ -7269,12 +7254,12 @@
         <v>400</v>
       </c>
       <c r="P47">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R47" s="8">
+      <c r="R47" s="4">
         <v>20</v>
       </c>
       <c r="S47">
@@ -7296,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>1047</v>
       </c>
@@ -7340,12 +7325,12 @@
         <v>400</v>
       </c>
       <c r="P48">
-        <v>2</v>
-      </c>
-      <c r="Q48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R48" s="8">
+      <c r="R48" s="4">
         <v>20</v>
       </c>
       <c r="S48">
@@ -7367,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>1048</v>
       </c>
@@ -7411,14 +7396,14 @@
         <v>400</v>
       </c>
       <c r="P49">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="R49" s="4">
         <v>2</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="R49" s="8">
-        <v>2</v>
-      </c>
       <c r="S49">
         <v>0</v>
       </c>
@@ -7438,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>1049</v>
       </c>
@@ -7482,12 +7467,12 @@
         <v>400</v>
       </c>
       <c r="P50">
-        <v>2</v>
-      </c>
-      <c r="Q50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R50" s="8">
+      <c r="R50" s="4">
         <v>20</v>
       </c>
       <c r="S50">
@@ -7509,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>1050</v>
       </c>
@@ -7553,12 +7538,12 @@
         <v>400</v>
       </c>
       <c r="P51">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R51" s="8">
+      <c r="R51" s="4">
         <v>20</v>
       </c>
       <c r="S51">
@@ -7580,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>1051</v>
       </c>
@@ -7626,10 +7611,10 @@
       <c r="P52">
         <v>2</v>
       </c>
-      <c r="Q52" s="7" t="s">
+      <c r="Q52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="R52" s="8">
+      <c r="R52" s="4">
         <v>5</v>
       </c>
       <c r="S52">
@@ -7651,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>1052</v>
       </c>
@@ -7695,12 +7680,12 @@
         <v>400</v>
       </c>
       <c r="P53">
-        <v>2</v>
-      </c>
-      <c r="Q53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R53" s="4">
         <v>25</v>
       </c>
       <c r="S53">
@@ -7722,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>1053</v>
       </c>
@@ -7766,12 +7751,12 @@
         <v>400</v>
       </c>
       <c r="P54">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R54" s="8">
+      <c r="R54" s="4">
         <v>100</v>
       </c>
       <c r="S54">
@@ -7793,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>1054</v>
       </c>
@@ -7837,12 +7822,12 @@
         <v>400</v>
       </c>
       <c r="P55">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R55" s="4">
         <v>25</v>
       </c>
       <c r="S55">

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9635F9B8-491A-4A67-9DBF-E15AA4D0A2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B62C9C-BE64-4428-892F-14EB31BAD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="140">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3054,10 +3054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여관 주인과 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마을로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3066,10 +3062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을 주민 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마을 주민 (2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3099,10 +3091,6 @@
   </si>
   <si>
     <t>마을 주민 (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여관 주인에게 감사 인사를 표하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3487,6 +3475,14 @@
   </si>
   <si>
     <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리 제압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;연출&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3923,11 +3919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P58" sqref="P58"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4050,10 +4046,10 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4117,10 +4113,10 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -4184,10 +4180,10 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4251,10 +4247,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4287,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R5" s="4">
         <v>3</v>
@@ -4322,10 +4318,10 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4386,13 +4382,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4422,10 +4418,14 @@
         <v>42.2</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
       <c r="S7">
         <v>0</v>
       </c>
@@ -4453,13 +4453,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4489,14 +4489,10 @@
         <v>42.2</v>
       </c>
       <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
       <c r="S8">
         <v>0</v>
       </c>
@@ -4527,7 +4523,7 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -4560,10 +4556,14 @@
         <v>48.5</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
       <c r="S9">
         <v>0</v>
       </c>
@@ -4591,13 +4591,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4627,13 +4627,13 @@
         <v>55.8</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R10" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4662,13 +4662,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4698,13 +4698,13 @@
         <v>64.2</v>
       </c>
       <c r="P11">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R11" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
@@ -4769,13 +4769,13 @@
         <v>73.8</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -4804,13 +4804,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4840,13 +4840,13 @@
         <v>84.9</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R13" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -4872,16 +4872,16 @@
         <v>1013</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R14" s="4">
         <v>10</v>
@@ -4943,22 +4943,22 @@
         <v>1014</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4982,13 +4982,13 @@
         <v>112.2</v>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -5014,22 +5014,22 @@
         <v>1015</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>113.2</v>
       </c>
       <c r="P16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R16" s="4">
         <v>1</v>
@@ -5085,22 +5085,22 @@
         <v>1016</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5124,13 +5124,13 @@
         <v>114.3</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R17" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -5156,22 +5156,22 @@
         <v>1017</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R18" s="4">
         <v>10</v>
@@ -5227,22 +5227,22 @@
         <v>1018</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5266,13 +5266,13 @@
         <v>116.6</v>
       </c>
       <c r="P19">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R19" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -5298,16 +5298,16 @@
         <v>1019</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -5340,10 +5340,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R20" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5369,22 +5369,22 @@
         <v>1020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5411,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R21" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -5443,13 +5443,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R22" s="4">
         <v>4</v>
@@ -5511,22 +5511,22 @@
         <v>1022</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
         <v>74</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5550,13 +5550,13 @@
         <v>120</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>135</v>
       </c>
       <c r="R23" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -5588,16 +5588,16 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
         <v>80</v>
       </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5624,10 +5624,10 @@
         <v>2</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R24" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
         <v>82</v>
@@ -5665,10 +5665,10 @@
         <v>83</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>2</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R25" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -5730,16 +5730,16 @@
         <v>81</v>
       </c>
       <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
       <c r="G26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5763,13 +5763,13 @@
         <v>200</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R26" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -5795,22 +5795,22 @@
         <v>1026</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
         <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5834,13 +5834,13 @@
         <v>200</v>
       </c>
       <c r="P27">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="R27" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -5869,13 +5869,13 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         <v>225</v>
       </c>
       <c r="P28">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R28" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -5940,13 +5940,13 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5976,13 +5976,13 @@
         <v>250</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R29" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -6008,22 +6008,22 @@
         <v>1029</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
         <v>92</v>
       </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
       <c r="G30">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6047,13 +6047,13 @@
         <v>300</v>
       </c>
       <c r="P30">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R30" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -6079,22 +6079,22 @@
         <v>1030</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
         <v>93</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
       <c r="G31">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -6118,13 +6118,13 @@
         <v>400</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R31" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -6150,22 +6150,22 @@
         <v>1031</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6189,13 +6189,13 @@
         <v>400</v>
       </c>
       <c r="P32">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R32" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -6221,22 +6221,22 @@
         <v>1032</v>
       </c>
       <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
         <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -6260,13 +6260,13 @@
         <v>400</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R33" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -6292,16 +6292,16 @@
         <v>1033</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G34">
         <v>31</v>
@@ -6334,7 +6334,7 @@
         <v>33</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R34" s="4">
         <v>15</v>
@@ -6366,19 +6366,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
         <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G35">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -6405,7 +6405,7 @@
         <v>33</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R35" s="4">
         <v>15</v>
@@ -6437,13 +6437,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>400</v>
       </c>
       <c r="P36">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R36" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -6508,13 +6508,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6544,13 +6544,13 @@
         <v>400</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R37" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -6579,13 +6579,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
         <v>104</v>
       </c>
-      <c r="E38" t="s">
-        <v>105</v>
-      </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -6618,7 +6618,7 @@
         <v>33</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R38" s="4">
         <v>15</v>
@@ -6650,13 +6650,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>33</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R39" s="4">
         <v>15</v>
@@ -6721,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>33</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R40" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>1040</v>
       </c>
@@ -6792,25 +6792,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
         <v>108</v>
       </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
+      <c r="F41" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -6830,10 +6830,10 @@
       <c r="P41">
         <v>33</v>
       </c>
-      <c r="Q41" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" s="4">
+      <c r="Q41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="R41" s="7">
         <v>20</v>
       </c>
       <c r="S41">
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>1041</v>
       </c>
@@ -6863,25 +6863,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
       </c>
       <c r="G42">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -6901,10 +6901,10 @@
       <c r="P42">
         <v>33</v>
       </c>
-      <c r="Q42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R42" s="7">
+      <c r="Q42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R42" s="4">
         <v>20</v>
       </c>
       <c r="S42">
@@ -6934,13 +6934,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6970,13 +6970,13 @@
         <v>400</v>
       </c>
       <c r="P43">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R43" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -7002,10 +7002,10 @@
         <v>1043</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>114</v>
@@ -7014,10 +7014,10 @@
         <v>115</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -7041,13 +7041,13 @@
         <v>400</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R44" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -7073,22 +7073,22 @@
         <v>1044</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" t="s">
         <v>116</v>
       </c>
-      <c r="E45" t="s">
-        <v>117</v>
-      </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G45">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -7112,13 +7112,13 @@
         <v>400</v>
       </c>
       <c r="P45">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R45" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -7147,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>400</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R46" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -7218,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7257,7 +7257,7 @@
         <v>33</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R47" s="4">
         <v>20</v>
@@ -7289,13 +7289,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>121</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7325,13 +7325,13 @@
         <v>400</v>
       </c>
       <c r="P48">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R48" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -7357,22 +7357,22 @@
         <v>1048</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" t="s">
         <v>123</v>
       </c>
-      <c r="E49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" t="s">
-        <v>47</v>
-      </c>
       <c r="G49">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -7396,13 +7396,13 @@
         <v>400</v>
       </c>
       <c r="P49">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R49" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -7431,16 +7431,16 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
         <v>125</v>
       </c>
-      <c r="F50" t="s">
-        <v>126</v>
-      </c>
       <c r="G50">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -7470,7 +7470,7 @@
         <v>33</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R50" s="4">
         <v>20</v>
@@ -7499,16 +7499,16 @@
         <v>1050</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G51">
         <v>32</v>
@@ -7538,13 +7538,13 @@
         <v>400</v>
       </c>
       <c r="P51">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R51" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -7573,19 +7573,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>127</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="G52">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -7609,13 +7609,13 @@
         <v>400</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R52" s="4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -7644,13 +7644,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>33</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R53" s="4">
         <v>25</v>
@@ -7715,13 +7715,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>33</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R54" s="4">
         <v>100</v>
@@ -7786,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>33</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R55" s="4">
         <v>25</v>
@@ -7846,6 +7846,77 @@
         <v>0</v>
       </c>
       <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>1055</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>100</v>
+      </c>
+      <c r="N56" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" s="4">
+        <v>400</v>
+      </c>
+      <c r="P56">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R56" s="4">
+        <v>25</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B62C9C-BE64-4428-892F-14EB31BAD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DFD9B-12F8-4BEC-8752-203719098D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="34464" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3922,8 +3922,8 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DFD9B-12F8-4BEC-8752-203719098D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0127E0D-22E4-415D-A7F5-010E3301137C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34464" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3366,11 +3366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음료수 $개 획득 ( * / $ )
-나무 $개 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구리구리에게 마을의 비밀 단서를 획득하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3483,6 +3478,10 @@
   </si>
   <si>
     <t>&lt;연출&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3922,8 +3921,8 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3932,7 +3931,7 @@
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.59765625" customWidth="1"/>
     <col min="7" max="7" width="12.09765625" customWidth="1"/>
     <col min="8" max="12" width="12.3984375" customWidth="1"/>
     <col min="13" max="13" width="10.8984375" customWidth="1"/>
@@ -4283,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R5" s="4">
         <v>3</v>
@@ -4421,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R7" s="4">
         <v>1</v>
@@ -4559,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R9" s="4">
         <v>1</v>
@@ -4630,7 +4629,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R10" s="4">
         <v>10</v>
@@ -4701,7 +4700,7 @@
         <v>7</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R11" s="4">
         <v>1</v>
@@ -4772,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R12" s="4">
         <v>3</v>
@@ -4843,7 +4842,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R13" s="4">
         <v>10</v>
@@ -4914,7 +4913,7 @@
         <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R14" s="4">
         <v>10</v>
@@ -4985,7 +4984,7 @@
         <v>7</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
@@ -5056,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R16" s="4">
         <v>1</v>
@@ -5127,7 +5126,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R17" s="4">
         <v>10</v>
@@ -5198,7 +5197,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R18" s="4">
         <v>10</v>
@@ -5269,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R19" s="4">
         <v>1</v>
@@ -5340,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R20" s="4">
         <v>3</v>
@@ -5411,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R21" s="4">
         <v>4</v>
@@ -5482,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R22" s="4">
         <v>4</v>
@@ -5553,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R23" s="4">
         <v>2</v>
@@ -5624,7 +5623,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R24" s="4">
         <v>3</v>
@@ -5695,7 +5694,7 @@
         <v>2</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R25" s="4">
         <v>5</v>
@@ -5766,7 +5765,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R26" s="4">
         <v>1</v>
@@ -5837,7 +5836,7 @@
         <v>33</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R27" s="4">
         <v>15</v>
@@ -5908,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R28" s="4">
         <v>1</v>
@@ -5979,7 +5978,7 @@
         <v>33</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R29" s="4">
         <v>15</v>
@@ -6050,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R30" s="4">
         <v>2</v>
@@ -6121,7 +6120,7 @@
         <v>33</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R31" s="4">
         <v>15</v>
@@ -6192,7 +6191,7 @@
         <v>7</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R32" s="4">
         <v>2</v>
@@ -6263,7 +6262,7 @@
         <v>33</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R33" s="4">
         <v>15</v>
@@ -6334,7 +6333,7 @@
         <v>33</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R34" s="4">
         <v>15</v>
@@ -6405,7 +6404,7 @@
         <v>33</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R35" s="4">
         <v>15</v>
@@ -6476,7 +6475,7 @@
         <v>2</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -6547,7 +6546,7 @@
         <v>33</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R37" s="4">
         <v>15</v>
@@ -6618,7 +6617,7 @@
         <v>33</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R38" s="4">
         <v>15</v>
@@ -6689,7 +6688,7 @@
         <v>33</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R39" s="4">
         <v>15</v>
@@ -6760,7 +6759,7 @@
         <v>33</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R40" s="4">
         <v>20</v>
@@ -6784,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>1040</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>108</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -6831,7 +6830,7 @@
         <v>33</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R41" s="7">
         <v>20</v>
@@ -6866,7 +6865,7 @@
         <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
         <v>44</v>
@@ -6902,7 +6901,7 @@
         <v>33</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R42" s="4">
         <v>20</v>
@@ -6937,10 +6936,10 @@
         <v>105</v>
       </c>
       <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s">
         <v>111</v>
-      </c>
-      <c r="F43" t="s">
-        <v>112</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6973,7 +6972,7 @@
         <v>2</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R43" s="4">
         <v>1</v>
@@ -7005,13 +7004,13 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
         <v>113</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>114</v>
-      </c>
-      <c r="F44" t="s">
-        <v>115</v>
       </c>
       <c r="G44">
         <v>17</v>
@@ -7044,7 +7043,7 @@
         <v>33</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R44" s="4">
         <v>20</v>
@@ -7079,10 +7078,10 @@
         <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7115,7 +7114,7 @@
         <v>2</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R45" s="4">
         <v>3</v>
@@ -7150,10 +7149,10 @@
         <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7186,7 +7185,7 @@
         <v>33</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R46" s="4">
         <v>20</v>
@@ -7221,7 +7220,7 @@
         <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
@@ -7257,7 +7256,7 @@
         <v>33</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R47" s="4">
         <v>20</v>
@@ -7289,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
         <v>120</v>
-      </c>
-      <c r="E48" t="s">
-        <v>121</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
@@ -7328,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R48" s="4">
         <v>2</v>
@@ -7360,13 +7359,13 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" t="s">
         <v>122</v>
-      </c>
-      <c r="F49" t="s">
-        <v>123</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -7399,7 +7398,7 @@
         <v>33</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R49" s="4">
         <v>20</v>
@@ -7431,13 +7430,13 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
         <v>124</v>
-      </c>
-      <c r="F50" t="s">
-        <v>125</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -7470,7 +7469,7 @@
         <v>33</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R50" s="4">
         <v>20</v>
@@ -7502,13 +7501,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G51">
         <v>32</v>
@@ -7541,7 +7540,7 @@
         <v>2</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R51" s="4">
         <v>5</v>
@@ -7576,7 +7575,7 @@
         <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
         <v>38</v>
@@ -7612,7 +7611,7 @@
         <v>33</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R52" s="4">
         <v>25</v>
@@ -7647,7 +7646,7 @@
         <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" t="s">
         <v>38</v>
@@ -7683,7 +7682,7 @@
         <v>33</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R53" s="4">
         <v>25</v>
@@ -7715,13 +7714,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" t="s">
         <v>128</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>129</v>
-      </c>
-      <c r="F54" t="s">
-        <v>130</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7754,7 +7753,7 @@
         <v>33</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R54" s="4">
         <v>100</v>
@@ -7786,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
         <v>138</v>
-      </c>
-      <c r="F55" t="s">
-        <v>139</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7825,7 +7824,7 @@
         <v>33</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R55" s="4">
         <v>25</v>
@@ -7860,7 +7859,7 @@
         <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F56" t="s">
         <v>44</v>
@@ -7896,7 +7895,7 @@
         <v>33</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R56" s="4">
         <v>25</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0127E0D-22E4-415D-A7F5-010E3301137C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D1642-A7C1-4804-8F21-930903559C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3473,16 +3473,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>음료수 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 서리서리</t>
+  </si>
+  <si>
     <t>서리서리 제압</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;연출&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료수 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
   </si>
 </sst>
 </file>
@@ -3921,8 +3925,8 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6797,7 +6801,7 @@
         <v>108</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -7785,13 +7789,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7815,18 +7819,18 @@
         <v>100</v>
       </c>
       <c r="N55" t="s">
-        <v>7</v>
-      </c>
-      <c r="O55" s="4">
+        <v>141</v>
+      </c>
+      <c r="O55">
         <v>400</v>
       </c>
       <c r="P55">
         <v>33</v>
       </c>
-      <c r="Q55" s="6" t="s">
+      <c r="Q55" t="s">
         <v>132</v>
       </c>
-      <c r="R55" s="4">
+      <c r="R55">
         <v>25</v>
       </c>
       <c r="S55">

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D1642-A7C1-4804-8F21-930903559C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE64682-2C24-48BC-8EC7-5D92FDD4EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3450,10 +3450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마을의 비밀 단서를 조합하여 구리구리에게 말하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력 회복 포션</t>
   </si>
   <si>
@@ -3487,6 +3483,94 @@
   </si>
   <si>
     <t>경험치</t>
+  </si>
+  <si>
+    <t>마을의 비밀 단서들을 곰곰히 생각해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 비밀 단서들을 조합하여 구리구리에게 말하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬를 찾아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬의 행방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 뚜쉬뚜쉬를 찾아보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컹크 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사라진 뚜쉬뚜쉬의 행방을 찾기 위해 마을로 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬가 사라진 사실을 구리구리에게 알리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리가 좋아하는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수 $개 획득 ( * / $ ) , 맥주컵 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리에게 준비한 선물을 전달하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리의 호감을 사기 위한 선물을 준비하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포이즌머쉬 $마리 처치 ( * / $ ) , 크랩스피어 $마리 처치 ( * / $ ) , 글루멀쳐 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은 숲에 있는 난폭한 동물들 진정시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은 숲에 있는 강력한 몬스터들 진정시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이스트우드 $마리 처치 ( * / $ ) , 트롤릭우드 $마리 처치 ( * / $ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 구리구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리 제압</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;연출&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문의 아티펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아티펙트 획득하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 회복 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3580,7 +3664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3607,6 +3691,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3922,40 +4009,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="12" width="12.3984375" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.09765625" customWidth="1"/>
-    <col min="18" max="18" width="14.3984375" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4038,7 +4125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -4105,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1002</v>
       </c>
@@ -4172,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1003</v>
       </c>
@@ -4239,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1004</v>
       </c>
@@ -4286,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R5" s="4">
         <v>3</v>
@@ -4310,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1005</v>
       </c>
@@ -4377,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1006</v>
       </c>
@@ -4424,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R7" s="4">
         <v>1</v>
@@ -4448,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1007</v>
       </c>
@@ -4515,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1008</v>
       </c>
@@ -4562,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R9" s="4">
         <v>1</v>
@@ -4586,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1009</v>
       </c>
@@ -4633,7 +4720,7 @@
         <v>33</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R10" s="4">
         <v>10</v>
@@ -4657,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1010</v>
       </c>
@@ -4704,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R11" s="4">
         <v>1</v>
@@ -4728,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1011</v>
       </c>
@@ -4775,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R12" s="4">
         <v>3</v>
@@ -4799,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1012</v>
       </c>
@@ -4846,7 +4933,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R13" s="4">
         <v>10</v>
@@ -4870,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1013</v>
       </c>
@@ -4917,7 +5004,7 @@
         <v>33</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R14" s="4">
         <v>10</v>
@@ -4941,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1014</v>
       </c>
@@ -4988,7 +5075,7 @@
         <v>7</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
@@ -5012,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1015</v>
       </c>
@@ -5059,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R16" s="4">
         <v>1</v>
@@ -5083,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -5130,7 +5217,7 @@
         <v>33</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R17" s="4">
         <v>10</v>
@@ -5154,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -5201,7 +5288,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R18" s="4">
         <v>10</v>
@@ -5225,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -5272,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R19" s="4">
         <v>1</v>
@@ -5296,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -5343,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R20" s="4">
         <v>3</v>
@@ -5367,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -5414,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R21" s="4">
         <v>4</v>
@@ -5438,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -5485,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R22" s="4">
         <v>4</v>
@@ -5509,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5556,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R23" s="4">
         <v>2</v>
@@ -5580,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5627,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R24" s="4">
         <v>3</v>
@@ -5651,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5698,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R25" s="4">
         <v>5</v>
@@ -5722,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5769,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R26" s="4">
         <v>1</v>
@@ -5793,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5840,7 +5927,7 @@
         <v>33</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R27" s="4">
         <v>15</v>
@@ -5864,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1027</v>
       </c>
@@ -5911,7 +5998,7 @@
         <v>7</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R28" s="4">
         <v>1</v>
@@ -5935,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1028</v>
       </c>
@@ -5982,7 +6069,7 @@
         <v>33</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R29" s="4">
         <v>15</v>
@@ -6006,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1029</v>
       </c>
@@ -6053,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R30" s="4">
         <v>2</v>
@@ -6077,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1030</v>
       </c>
@@ -6124,7 +6211,7 @@
         <v>33</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R31" s="4">
         <v>15</v>
@@ -6148,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1031</v>
       </c>
@@ -6195,7 +6282,7 @@
         <v>7</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R32" s="4">
         <v>2</v>
@@ -6219,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1032</v>
       </c>
@@ -6266,7 +6353,7 @@
         <v>33</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R33" s="4">
         <v>15</v>
@@ -6290,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1033</v>
       </c>
@@ -6337,7 +6424,7 @@
         <v>33</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R34" s="4">
         <v>15</v>
@@ -6361,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1034</v>
       </c>
@@ -6408,7 +6495,7 @@
         <v>33</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R35" s="4">
         <v>15</v>
@@ -6432,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1035</v>
       </c>
@@ -6479,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R36" s="4">
         <v>1</v>
@@ -6503,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1036</v>
       </c>
@@ -6550,7 +6637,7 @@
         <v>33</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R37" s="4">
         <v>15</v>
@@ -6574,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>1037</v>
       </c>
@@ -6621,7 +6708,7 @@
         <v>33</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R38" s="4">
         <v>15</v>
@@ -6645,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>1038</v>
       </c>
@@ -6692,7 +6779,7 @@
         <v>33</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R39" s="4">
         <v>15</v>
@@ -6716,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1039</v>
       </c>
@@ -6763,7 +6850,7 @@
         <v>33</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R40" s="4">
         <v>20</v>
@@ -6787,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1040</v>
       </c>
@@ -6801,7 +6888,7 @@
         <v>108</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -6834,7 +6921,7 @@
         <v>33</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R41" s="7">
         <v>20</v>
@@ -6858,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1041</v>
       </c>
@@ -6905,7 +6992,7 @@
         <v>33</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R42" s="4">
         <v>20</v>
@@ -6929,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1042</v>
       </c>
@@ -6976,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R43" s="4">
         <v>1</v>
@@ -7000,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>1043</v>
       </c>
@@ -7047,7 +7134,7 @@
         <v>33</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R44" s="4">
         <v>20</v>
@@ -7071,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1044</v>
       </c>
@@ -7118,7 +7205,7 @@
         <v>2</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R45" s="4">
         <v>3</v>
@@ -7142,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1045</v>
       </c>
@@ -7189,7 +7276,7 @@
         <v>33</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R46" s="4">
         <v>20</v>
@@ -7213,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>1046</v>
       </c>
@@ -7260,7 +7347,7 @@
         <v>33</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R47" s="4">
         <v>20</v>
@@ -7284,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1047</v>
       </c>
@@ -7331,7 +7418,7 @@
         <v>7</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R48" s="4">
         <v>2</v>
@@ -7355,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>1048</v>
       </c>
@@ -7402,7 +7489,7 @@
         <v>33</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R49" s="4">
         <v>20</v>
@@ -7426,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>1049</v>
       </c>
@@ -7473,7 +7560,7 @@
         <v>33</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R50" s="4">
         <v>20</v>
@@ -7497,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1050</v>
       </c>
@@ -7544,7 +7631,7 @@
         <v>2</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R51" s="4">
         <v>5</v>
@@ -7568,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>1051</v>
       </c>
@@ -7615,7 +7702,7 @@
         <v>33</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R52" s="4">
         <v>25</v>
@@ -7639,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>1052</v>
       </c>
@@ -7686,7 +7773,7 @@
         <v>33</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R53" s="4">
         <v>25</v>
@@ -7710,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>1053</v>
       </c>
@@ -7757,7 +7844,7 @@
         <v>33</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R54" s="4">
         <v>100</v>
@@ -7781,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>1054</v>
       </c>
@@ -7789,13 +7876,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
         <v>138</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>139</v>
-      </c>
-      <c r="F55" t="s">
-        <v>140</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7819,7 +7906,7 @@
         <v>100</v>
       </c>
       <c r="N55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O55">
         <v>400</v>
@@ -7828,7 +7915,7 @@
         <v>33</v>
       </c>
       <c r="Q55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R55">
         <v>25</v>
@@ -7852,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>1055</v>
       </c>
@@ -7863,7 +7950,7 @@
         <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
         <v>44</v>
@@ -7899,7 +7986,7 @@
         <v>33</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R56" s="4">
         <v>25</v>
@@ -7922,6 +8009,790 @@
       <c r="AA56">
         <v>0</v>
       </c>
+    </row>
+    <row r="57" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="9">
+        <v>1056</v>
+      </c>
+      <c r="C57" s="9">
+        <v>5</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>100</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O57" s="9">
+        <v>400</v>
+      </c>
+      <c r="P57" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R57" s="9">
+        <v>1</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
+      <c r="U57" s="9">
+        <v>0</v>
+      </c>
+      <c r="V57" s="9">
+        <v>0</v>
+      </c>
+      <c r="X57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="9">
+        <v>1057</v>
+      </c>
+      <c r="C58" s="9">
+        <v>5</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>100</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="9">
+        <v>400</v>
+      </c>
+      <c r="P58" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R58" s="9">
+        <v>1</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="U58" s="9">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9">
+        <v>0</v>
+      </c>
+      <c r="X58" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="9">
+        <v>1058</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="9">
+        <v>5</v>
+      </c>
+      <c r="H59" s="9">
+        <v>10</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>100</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O59" s="9">
+        <v>400</v>
+      </c>
+      <c r="P59" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R59" s="9">
+        <v>1</v>
+      </c>
+      <c r="S59" s="9">
+        <v>0</v>
+      </c>
+      <c r="U59" s="9">
+        <v>0</v>
+      </c>
+      <c r="V59" s="9">
+        <v>0</v>
+      </c>
+      <c r="X59" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9">
+        <v>1059</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>100</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O60" s="9">
+        <v>400</v>
+      </c>
+      <c r="P60" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R60" s="9">
+        <v>1</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="U60" s="9">
+        <v>0</v>
+      </c>
+      <c r="V60" s="9">
+        <v>0</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>1060</v>
+      </c>
+      <c r="C61" s="9">
+        <v>5</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>100</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O61" s="9">
+        <v>400</v>
+      </c>
+      <c r="P61" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R61" s="9">
+        <v>1</v>
+      </c>
+      <c r="S61" s="9">
+        <v>0</v>
+      </c>
+      <c r="U61" s="9">
+        <v>0</v>
+      </c>
+      <c r="V61" s="9">
+        <v>0</v>
+      </c>
+      <c r="X61" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="9">
+        <v>1061</v>
+      </c>
+      <c r="C62" s="9">
+        <v>3</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="9">
+        <v>26</v>
+      </c>
+      <c r="H62" s="9">
+        <v>10</v>
+      </c>
+      <c r="I62" s="9">
+        <v>19</v>
+      </c>
+      <c r="J62" s="9">
+        <v>1</v>
+      </c>
+      <c r="K62" s="9">
+        <v>20</v>
+      </c>
+      <c r="L62" s="9">
+        <v>5</v>
+      </c>
+      <c r="M62" s="9">
+        <v>100</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O62" s="9">
+        <v>400</v>
+      </c>
+      <c r="P62" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R62" s="9">
+        <v>1</v>
+      </c>
+      <c r="S62" s="9">
+        <v>0</v>
+      </c>
+      <c r="U62" s="9">
+        <v>0</v>
+      </c>
+      <c r="V62" s="9">
+        <v>0</v>
+      </c>
+      <c r="X62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>1062</v>
+      </c>
+      <c r="C63" s="9">
+        <v>5</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="9">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9">
+        <v>100</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O63" s="9">
+        <v>400</v>
+      </c>
+      <c r="P63" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R63" s="9">
+        <v>1</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0</v>
+      </c>
+      <c r="U63" s="9">
+        <v>0</v>
+      </c>
+      <c r="V63" s="9">
+        <v>0</v>
+      </c>
+      <c r="X63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>1063</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="9">
+        <v>13</v>
+      </c>
+      <c r="H64" s="9">
+        <v>10</v>
+      </c>
+      <c r="I64" s="9">
+        <v>12</v>
+      </c>
+      <c r="J64" s="9">
+        <v>7</v>
+      </c>
+      <c r="K64" s="9">
+        <v>16</v>
+      </c>
+      <c r="L64" s="9">
+        <v>7</v>
+      </c>
+      <c r="M64" s="9">
+        <v>100</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O64" s="9">
+        <v>400</v>
+      </c>
+      <c r="P64" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R64" s="9">
+        <v>1</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64" s="9">
+        <v>0</v>
+      </c>
+      <c r="V64" s="9">
+        <v>0</v>
+      </c>
+      <c r="X64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="9">
+        <v>1064</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="9">
+        <v>14</v>
+      </c>
+      <c r="H65" s="9">
+        <v>10</v>
+      </c>
+      <c r="I65" s="9">
+        <v>15</v>
+      </c>
+      <c r="J65" s="9">
+        <v>10</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9">
+        <v>100</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O65" s="9">
+        <v>400</v>
+      </c>
+      <c r="P65" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R65" s="9">
+        <v>1</v>
+      </c>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
+      <c r="U65" s="9">
+        <v>0</v>
+      </c>
+      <c r="V65" s="9">
+        <v>0</v>
+      </c>
+      <c r="X65" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="9">
+        <v>1065</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>100</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O66" s="9">
+        <v>400</v>
+      </c>
+      <c r="P66" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R66" s="9">
+        <v>1</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="U66" s="9">
+        <v>0</v>
+      </c>
+      <c r="V66" s="9">
+        <v>0</v>
+      </c>
+      <c r="X66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="9">
+        <v>1066</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9">
+        <v>100</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O67" s="9">
+        <v>400</v>
+      </c>
+      <c r="P67" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R67" s="9">
+        <v>1</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="U67" s="9">
+        <v>0</v>
+      </c>
+      <c r="V67" s="9">
+        <v>0</v>
+      </c>
+      <c r="X67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G70" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D1642-A7C1-4804-8F21-930903559C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E4C8E-1BF3-4E59-9292-F3671FFAD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="147">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3487,13 +3487,30 @@
   </si>
   <si>
     <t>경험치</t>
+  </si>
+  <si>
+    <t>ChapterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Chapter #1] 이상한 마을의 발견</t>
+  </si>
+  <si>
+    <t>튜토리얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Chapter #2] 이상한 마을의 소문</t>
+  </si>
+  <si>
+    <t>[Chapter #3] 이상한 마을의 진실</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3545,6 +3562,26 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3580,7 +3617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3608,6 +3645,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3626,9 +3672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3666,7 +3712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3772,7 +3818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3914,7 +3960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3922,14 +3968,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
@@ -3955,7 +4001,7 @@
     <col min="27" max="27" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4037,8 +4083,11 @@
       <c r="AA1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28">
       <c r="B2">
         <v>1001</v>
       </c>
@@ -4104,8 +4153,11 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="B3">
         <v>1002</v>
       </c>
@@ -4171,8 +4223,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="B4">
         <v>1003</v>
       </c>
@@ -4238,8 +4293,11 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="B5">
         <v>1004</v>
       </c>
@@ -4309,8 +4367,11 @@
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AB5" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="B6">
         <v>1005</v>
       </c>
@@ -4376,8 +4437,11 @@
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AB6" s="10" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="B7">
         <v>1006</v>
       </c>
@@ -4447,8 +4511,11 @@
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AB7" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="B8">
         <v>1007</v>
       </c>
@@ -4514,8 +4581,11 @@
       <c r="AA8">
         <v>0</v>
       </c>
+      <c r="AB8" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="B9">
         <v>1008</v>
       </c>
@@ -4585,8 +4655,11 @@
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="B10">
         <v>1009</v>
       </c>
@@ -4656,8 +4729,11 @@
       <c r="AA10">
         <v>0</v>
       </c>
+      <c r="AB10" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="B11">
         <v>1010</v>
       </c>
@@ -4727,8 +4803,11 @@
       <c r="AA11">
         <v>0</v>
       </c>
+      <c r="AB11" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="B12">
         <v>1011</v>
       </c>
@@ -4798,8 +4877,11 @@
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AB12" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="B13">
         <v>1012</v>
       </c>
@@ -4869,8 +4951,11 @@
       <c r="AA13">
         <v>0</v>
       </c>
+      <c r="AB13" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="B14">
         <v>1013</v>
       </c>
@@ -4940,8 +5025,11 @@
       <c r="AA14">
         <v>0</v>
       </c>
+      <c r="AB14" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="B15">
         <v>1014</v>
       </c>
@@ -5011,8 +5099,11 @@
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="B16">
         <v>1015</v>
       </c>
@@ -5082,8 +5173,11 @@
       <c r="AA16">
         <v>0</v>
       </c>
+      <c r="AB16" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28">
       <c r="B17">
         <v>1016</v>
       </c>
@@ -5153,8 +5247,11 @@
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28">
       <c r="B18">
         <v>1017</v>
       </c>
@@ -5224,8 +5321,11 @@
       <c r="AA18">
         <v>0</v>
       </c>
+      <c r="AB18" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28">
       <c r="B19">
         <v>1018</v>
       </c>
@@ -5295,8 +5395,11 @@
       <c r="AA19">
         <v>0</v>
       </c>
+      <c r="AB19" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28">
       <c r="B20">
         <v>1019</v>
       </c>
@@ -5366,8 +5469,11 @@
       <c r="AA20">
         <v>0</v>
       </c>
+      <c r="AB20" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28">
       <c r="B21">
         <v>1020</v>
       </c>
@@ -5437,8 +5543,11 @@
       <c r="AA21">
         <v>0</v>
       </c>
+      <c r="AB21" s="9" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:28">
       <c r="B22">
         <v>1021</v>
       </c>
@@ -5508,8 +5617,11 @@
       <c r="AA22">
         <v>0</v>
       </c>
+      <c r="AB22" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:28">
       <c r="B23">
         <v>1022</v>
       </c>
@@ -5579,8 +5691,11 @@
       <c r="AA23">
         <v>0</v>
       </c>
+      <c r="AB23" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:28">
       <c r="B24">
         <v>1023</v>
       </c>
@@ -5650,8 +5765,11 @@
       <c r="AA24">
         <v>0</v>
       </c>
+      <c r="AB24" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:28">
       <c r="B25">
         <v>1024</v>
       </c>
@@ -5721,8 +5839,11 @@
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AB25" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:28">
       <c r="B26">
         <v>1025</v>
       </c>
@@ -5792,8 +5913,11 @@
       <c r="AA26">
         <v>0</v>
       </c>
+      <c r="AB26" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:28">
       <c r="B27">
         <v>1026</v>
       </c>
@@ -5863,8 +5987,11 @@
       <c r="AA27">
         <v>0</v>
       </c>
+      <c r="AB27" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:28">
       <c r="B28">
         <v>1027</v>
       </c>
@@ -5934,8 +6061,11 @@
       <c r="AA28">
         <v>0</v>
       </c>
+      <c r="AB28" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:28">
       <c r="B29">
         <v>1028</v>
       </c>
@@ -6005,8 +6135,11 @@
       <c r="AA29">
         <v>0</v>
       </c>
+      <c r="AB29" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:28">
       <c r="B30">
         <v>1029</v>
       </c>
@@ -6076,8 +6209,11 @@
       <c r="AA30">
         <v>0</v>
       </c>
+      <c r="AB30" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:28">
       <c r="B31">
         <v>1030</v>
       </c>
@@ -6147,8 +6283,11 @@
       <c r="AA31">
         <v>0</v>
       </c>
+      <c r="AB31" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:28">
       <c r="B32">
         <v>1031</v>
       </c>
@@ -6218,8 +6357,11 @@
       <c r="AA32">
         <v>0</v>
       </c>
+      <c r="AB32" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28">
       <c r="B33">
         <v>1032</v>
       </c>
@@ -6289,8 +6431,11 @@
       <c r="AA33">
         <v>0</v>
       </c>
+      <c r="AB33" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:28">
       <c r="B34">
         <v>1033</v>
       </c>
@@ -6360,8 +6505,11 @@
       <c r="AA34">
         <v>0</v>
       </c>
+      <c r="AB34" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:28">
       <c r="B35">
         <v>1034</v>
       </c>
@@ -6431,8 +6579,11 @@
       <c r="AA35">
         <v>0</v>
       </c>
+      <c r="AB35" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:28">
       <c r="B36">
         <v>1035</v>
       </c>
@@ -6502,8 +6653,11 @@
       <c r="AA36">
         <v>0</v>
       </c>
+      <c r="AB36" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:28">
       <c r="B37">
         <v>1036</v>
       </c>
@@ -6573,8 +6727,11 @@
       <c r="AA37">
         <v>0</v>
       </c>
+      <c r="AB37" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:28">
       <c r="B38">
         <v>1037</v>
       </c>
@@ -6644,8 +6801,11 @@
       <c r="AA38">
         <v>0</v>
       </c>
+      <c r="AB38" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:28">
       <c r="B39">
         <v>1038</v>
       </c>
@@ -6715,8 +6875,11 @@
       <c r="AA39">
         <v>0</v>
       </c>
+      <c r="AB39" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28">
       <c r="B40">
         <v>1039</v>
       </c>
@@ -6786,8 +6949,11 @@
       <c r="AA40">
         <v>0</v>
       </c>
+      <c r="AB40" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:28">
       <c r="B41">
         <v>1040</v>
       </c>
@@ -6857,8 +7023,11 @@
       <c r="AA41">
         <v>0</v>
       </c>
+      <c r="AB41" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:28">
       <c r="B42">
         <v>1041</v>
       </c>
@@ -6928,8 +7097,11 @@
       <c r="AA42">
         <v>0</v>
       </c>
+      <c r="AB42" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:28">
       <c r="B43">
         <v>1042</v>
       </c>
@@ -6999,8 +7171,11 @@
       <c r="AA43">
         <v>0</v>
       </c>
+      <c r="AB43" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:28">
       <c r="B44">
         <v>1043</v>
       </c>
@@ -7070,8 +7245,11 @@
       <c r="AA44">
         <v>0</v>
       </c>
+      <c r="AB44" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:28">
       <c r="B45">
         <v>1044</v>
       </c>
@@ -7141,8 +7319,11 @@
       <c r="AA45">
         <v>0</v>
       </c>
+      <c r="AB45" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:28">
       <c r="B46">
         <v>1045</v>
       </c>
@@ -7212,8 +7393,11 @@
       <c r="AA46">
         <v>0</v>
       </c>
+      <c r="AB46" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:28">
       <c r="B47">
         <v>1046</v>
       </c>
@@ -7283,8 +7467,11 @@
       <c r="AA47">
         <v>0</v>
       </c>
+      <c r="AB47" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:28">
       <c r="B48">
         <v>1047</v>
       </c>
@@ -7354,8 +7541,11 @@
       <c r="AA48">
         <v>0</v>
       </c>
+      <c r="AB48" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:28">
       <c r="B49">
         <v>1048</v>
       </c>
@@ -7425,8 +7615,11 @@
       <c r="AA49">
         <v>0</v>
       </c>
+      <c r="AB49" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:28">
       <c r="B50">
         <v>1049</v>
       </c>
@@ -7496,8 +7689,11 @@
       <c r="AA50">
         <v>0</v>
       </c>
+      <c r="AB50" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:28">
       <c r="B51">
         <v>1050</v>
       </c>
@@ -7567,8 +7763,11 @@
       <c r="AA51">
         <v>0</v>
       </c>
+      <c r="AB51" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:28">
       <c r="B52">
         <v>1051</v>
       </c>
@@ -7638,8 +7837,11 @@
       <c r="AA52">
         <v>0</v>
       </c>
+      <c r="AB52" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:28">
       <c r="B53">
         <v>1052</v>
       </c>
@@ -7709,8 +7911,11 @@
       <c r="AA53">
         <v>0</v>
       </c>
+      <c r="AB53" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:28">
       <c r="B54">
         <v>1053</v>
       </c>
@@ -7780,8 +7985,11 @@
       <c r="AA54">
         <v>0</v>
       </c>
+      <c r="AB54" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:28">
       <c r="B55">
         <v>1054</v>
       </c>
@@ -7851,8 +8059,11 @@
       <c r="AA55">
         <v>0</v>
       </c>
+      <c r="AB55" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:28">
       <c r="B56">
         <v>1055</v>
       </c>
@@ -7921,6 +8132,9 @@
       </c>
       <c r="AA56">
         <v>0</v>
+      </c>
+      <c r="AB56" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8E4C8E-1BF3-4E59-9292-F3671FFAD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCFB5DA-444C-4490-807B-54E111F5ABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="176">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3504,13 +3504,100 @@
   </si>
   <si>
     <t>[Chapter #3] 이상한 마을의 진실</t>
+  </si>
+  <si>
+    <t>[Chapter #4] 이상한 마을을 위해</t>
+  </si>
+  <si>
+    <t>- 마을의 비밀 -</t>
+  </si>
+  <si>
+    <t>마을의 비밀 단서들을 조합하여 구리구리에게 말하기</t>
+  </si>
+  <si>
+    <t>&lt;구리구리와 대화&gt;</t>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬를 찾아가기</t>
+  </si>
+  <si>
+    <t>&lt;뚜쉬뚜쉬와 대화&gt;</t>
+  </si>
+  <si>
+    <t>- 뚜쉬뚜쉬의 행방 -</t>
+  </si>
+  <si>
+    <t>사라진 뚜쉬뚜쉬를 찾아보자</t>
+  </si>
+  <si>
+    <t>&lt;스컹크 $마리 처치 ( * / $ )&gt;</t>
+  </si>
+  <si>
+    <t>사라진 뚜쉬뚜쉬의 행방을 찾기 위해 마을로 돌아가기</t>
+  </si>
+  <si>
+    <t>&lt;마을로 이동&gt;</t>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬가 사라진 사실을 구리구리에게 알리기</t>
+  </si>
+  <si>
+    <t>- 구리구리가 좋아하는 것 -</t>
+  </si>
+  <si>
+    <t>구리구리의 호감을 사기 위한 선물을 준비하기</t>
+  </si>
+  <si>
+    <t>&lt;음료수 $개 획득 ( * / $ ) , 맥주컵 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )&gt;</t>
+  </si>
+  <si>
+    <t>구리구리에게 준비한 선물을 전달하기</t>
+  </si>
+  <si>
+    <t>깊은 숲에 있는 난폭한 동물들 진정시키기</t>
+  </si>
+  <si>
+    <t>&lt;포이즌머쉬 $마리 처치 ( * / $ ) , 크랩스피어 $마리 처치 ( * / $ ) , 글루멀쳐 $마리 처치 ( * / $ )&gt;</t>
+  </si>
+  <si>
+    <t>깊은 숲에 있는 강력한 몬스터들 진정시키기</t>
+  </si>
+  <si>
+    <t>&lt;가이스트우드 $마리 처치 ( * / $ ) , 트롤릭우드 $마리 처치 ( * / $ )&gt;</t>
+  </si>
+  <si>
+    <t>- 이상한 구리구리 -</t>
+  </si>
+  <si>
+    <t>구리구리 제압</t>
+  </si>
+  <si>
+    <t>- 의문의 아티펙트 -</t>
+  </si>
+  <si>
+    <t>아티펙트 획득하기</t>
+  </si>
+  <si>
+    <t>- 비밀스러운 포탈 -</t>
+  </si>
+  <si>
+    <t>포탈 너머의 비밀을 파헤쳐 보기</t>
+  </si>
+  <si>
+    <t>&lt;포탈로 진입하기&gt;</t>
+  </si>
+  <si>
+    <t>- 스승의 정체 -</t>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬 제압</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3582,6 +3669,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3612,12 +3712,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3654,12 +3757,245 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{946FA90B-7949-496F-AD03-48510FC2C8F2}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF94A5DF"/>
+          <bgColor rgb="FF94A5DF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7DFF4"/>
+          <bgColor rgb="FFD7DFF4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{177B60B6-8305-4B16-92CB-148FBB0BBC1D}">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{09B7BD5D-87FA-430C-93F0-EDA0E67FA7B9}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3968,11 +4304,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8137,6 +8473,1003 @@
         <v>146</v>
       </c>
     </row>
+    <row r="57" spans="2:28">
+      <c r="B57" s="12">
+        <v>1056</v>
+      </c>
+      <c r="C57" s="12">
+        <v>5</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0</v>
+      </c>
+      <c r="I57" s="12">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12">
+        <v>100</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O57" s="18">
+        <v>9499.2999999999993</v>
+      </c>
+      <c r="P57" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R57" s="18">
+        <v>90</v>
+      </c>
+      <c r="S57" s="12">
+        <v>0</v>
+      </c>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22">
+        <v>0</v>
+      </c>
+      <c r="V57" s="22">
+        <v>0</v>
+      </c>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58" s="12">
+        <v>1057</v>
+      </c>
+      <c r="C58" s="12">
+        <v>5</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12">
+        <v>0</v>
+      </c>
+      <c r="I58" s="12">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="12">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12">
+        <v>0</v>
+      </c>
+      <c r="M58" s="12">
+        <v>100</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O58" s="18">
+        <v>10354.200000000001</v>
+      </c>
+      <c r="P58" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R58" s="18">
+        <v>5</v>
+      </c>
+      <c r="S58" s="12">
+        <v>0</v>
+      </c>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22">
+        <v>0</v>
+      </c>
+      <c r="V58" s="22">
+        <v>0</v>
+      </c>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
+      <c r="B59" s="12">
+        <v>1058</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="12">
+        <v>5</v>
+      </c>
+      <c r="H59" s="12">
+        <v>10</v>
+      </c>
+      <c r="I59" s="12">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12">
+        <v>0</v>
+      </c>
+      <c r="M59" s="12">
+        <v>100</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O59" s="18">
+        <v>11079</v>
+      </c>
+      <c r="P59" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R59" s="18">
+        <v>100</v>
+      </c>
+      <c r="S59" s="12">
+        <v>0</v>
+      </c>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22">
+        <v>0</v>
+      </c>
+      <c r="V59" s="22">
+        <v>0</v>
+      </c>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
+      <c r="B60" s="12">
+        <v>1059</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="12">
+        <v>0</v>
+      </c>
+      <c r="L60" s="12">
+        <v>0</v>
+      </c>
+      <c r="M60" s="12">
+        <v>100</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O60" s="18">
+        <v>12186.9</v>
+      </c>
+      <c r="P60" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R60" s="18">
+        <v>100</v>
+      </c>
+      <c r="S60" s="12">
+        <v>0</v>
+      </c>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22">
+        <v>0</v>
+      </c>
+      <c r="V60" s="22">
+        <v>0</v>
+      </c>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
+      <c r="B61" s="12">
+        <v>1060</v>
+      </c>
+      <c r="C61" s="12">
+        <v>5</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12">
+        <v>100</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O61" s="18">
+        <v>13405.6</v>
+      </c>
+      <c r="P61" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R61" s="18">
+        <v>5</v>
+      </c>
+      <c r="S61" s="12">
+        <v>0</v>
+      </c>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22">
+        <v>0</v>
+      </c>
+      <c r="V61" s="22">
+        <v>0</v>
+      </c>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
+      <c r="B62" s="12">
+        <v>1061</v>
+      </c>
+      <c r="C62" s="12">
+        <v>3</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="12">
+        <v>26</v>
+      </c>
+      <c r="H62" s="12">
+        <v>10</v>
+      </c>
+      <c r="I62" s="12">
+        <v>19</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+      <c r="K62" s="12">
+        <v>20</v>
+      </c>
+      <c r="L62" s="12">
+        <v>5</v>
+      </c>
+      <c r="M62" s="12">
+        <v>100</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O62" s="18">
+        <v>14746.1</v>
+      </c>
+      <c r="P62" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R62" s="18">
+        <v>5</v>
+      </c>
+      <c r="S62" s="12">
+        <v>0</v>
+      </c>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22">
+        <v>0</v>
+      </c>
+      <c r="V62" s="22">
+        <v>0</v>
+      </c>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
+      <c r="B63" s="12">
+        <v>1062</v>
+      </c>
+      <c r="C63" s="12">
+        <v>5</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="12">
+        <v>0</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0</v>
+      </c>
+      <c r="M63" s="12">
+        <v>100</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O63" s="18">
+        <v>16220.8</v>
+      </c>
+      <c r="P63" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R63" s="18">
+        <v>7</v>
+      </c>
+      <c r="S63" s="12">
+        <v>0</v>
+      </c>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22">
+        <v>0</v>
+      </c>
+      <c r="V63" s="22">
+        <v>0</v>
+      </c>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28">
+      <c r="B64" s="12">
+        <v>1063</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="12">
+        <v>13</v>
+      </c>
+      <c r="H64" s="12">
+        <v>10</v>
+      </c>
+      <c r="I64" s="12">
+        <v>12</v>
+      </c>
+      <c r="J64" s="12">
+        <v>7</v>
+      </c>
+      <c r="K64" s="12">
+        <v>16</v>
+      </c>
+      <c r="L64" s="12">
+        <v>7</v>
+      </c>
+      <c r="M64" s="12">
+        <v>100</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O64" s="18">
+        <v>17842.8</v>
+      </c>
+      <c r="P64" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q64" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R64" s="18">
+        <v>100</v>
+      </c>
+      <c r="S64" s="12">
+        <v>0</v>
+      </c>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22">
+        <v>0</v>
+      </c>
+      <c r="V64" s="22">
+        <v>0</v>
+      </c>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28">
+      <c r="B65" s="12">
+        <v>1064</v>
+      </c>
+      <c r="C65" s="12">
+        <v>1</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="12">
+        <v>14</v>
+      </c>
+      <c r="H65" s="12">
+        <v>10</v>
+      </c>
+      <c r="I65" s="12">
+        <v>15</v>
+      </c>
+      <c r="J65" s="12">
+        <v>10</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12">
+        <v>100</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O65" s="18">
+        <v>19805.5</v>
+      </c>
+      <c r="P65" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q65" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R65" s="18">
+        <v>200</v>
+      </c>
+      <c r="S65" s="12">
+        <v>0</v>
+      </c>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22">
+        <v>0</v>
+      </c>
+      <c r="V65" s="22">
+        <v>0</v>
+      </c>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28">
+      <c r="B66" s="12">
+        <v>1065</v>
+      </c>
+      <c r="C66" s="12">
+        <v>0</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12">
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="12">
+        <v>0</v>
+      </c>
+      <c r="L66" s="12">
+        <v>0</v>
+      </c>
+      <c r="M66" s="12">
+        <v>100</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O66" s="18">
+        <v>21984.2</v>
+      </c>
+      <c r="P66" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="R66" s="18">
+        <v>200</v>
+      </c>
+      <c r="S66" s="12">
+        <v>0</v>
+      </c>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22">
+        <v>0</v>
+      </c>
+      <c r="V66" s="22">
+        <v>0</v>
+      </c>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28">
+      <c r="B67" s="12">
+        <v>1066</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <v>0</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0</v>
+      </c>
+      <c r="M67" s="12">
+        <v>100</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O67" s="18">
+        <v>24402.400000000001</v>
+      </c>
+      <c r="P67" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R67" s="18">
+        <v>5</v>
+      </c>
+      <c r="S67" s="12">
+        <v>0</v>
+      </c>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22">
+        <v>0</v>
+      </c>
+      <c r="V67" s="22">
+        <v>0</v>
+      </c>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28">
+      <c r="B68" s="13">
+        <v>1067</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="13">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="13">
+        <v>0</v>
+      </c>
+      <c r="M68" s="13">
+        <v>100</v>
+      </c>
+      <c r="N68" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O68" s="20">
+        <v>27086.7</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="13">
+        <v>0</v>
+      </c>
+      <c r="S68" s="13">
+        <v>0</v>
+      </c>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23">
+        <v>0</v>
+      </c>
+      <c r="V68" s="23">
+        <v>0</v>
+      </c>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
+      <c r="B69" s="13">
+        <v>1068</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G69" s="13">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13">
+        <v>0</v>
+      </c>
+      <c r="J69" s="13">
+        <v>0</v>
+      </c>
+      <c r="K69" s="13">
+        <v>0</v>
+      </c>
+      <c r="L69" s="13">
+        <v>0</v>
+      </c>
+      <c r="M69" s="13">
+        <v>100</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O69" s="20">
+        <v>30066.2</v>
+      </c>
+      <c r="P69" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="13">
+        <v>0</v>
+      </c>
+      <c r="S69" s="13">
+        <v>0</v>
+      </c>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23">
+        <v>0</v>
+      </c>
+      <c r="V69" s="23">
+        <v>0</v>
+      </c>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCFB5DA-444C-4490-807B-54E111F5ABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA309B-6187-4A98-B09D-FEBAEA6F5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
   <si>
     <t>QuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2958,10 +2958,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RewardID2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3042,418 +3038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여긴 어디지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 수색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>촌장과 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앞으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 주민 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 주민 (3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 주민 (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뽀롱뽀롱과 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서리서리와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 주민 (5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 주민 (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부꾸부꾸와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 마을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리구리에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리구리와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입구에 있는 띠리띠리와 대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란색 개구리 부꾸부꾸에게 인사하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 중심에 있는 뽀롱뽀롱에게 인사하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화가 난 서리서리와 대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연두색 개구리 게로게로에게 인사하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을의 촌장님에게 찾아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵을 만한 곳을 찾아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변을 둘러보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주운 버섯을 사용하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배를 채울만한 것을 찾아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 순찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리와 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리와 함께 마을을 순찰하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리를 공격하는 포악한 스컹크를 처치하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 순찰에 대한 보고를 구리구리에게 하러가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 부꾸부꾸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카멜레온 주변에 있는 부꾸부꾸의 애착단지 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카멜레온을 무서워하는 부꾸부꾸를 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부꾸부꾸의 애착단지 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포악한 스컹크 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 부꾸부꾸를 데리고 마을로 복귀하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 부꾸부꾸 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 부꾸부꾸 버리기 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부꾸부꾸의 복귀 사실을 구리구리에게 말하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 수련 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚜쉬뚜쉬와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을의 숨은 고수 뚜쉬뚜쉬 찾아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 수련 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카멜레온 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯 $개 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버섯 $개 사용 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수련을 위해 카멜레온을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 수련 (3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수련을 위해 미어캣을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미어캣 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화 수련 (4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수련을 위해 위험한 늑대를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고 난이도의 황소를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황소 $마리 처치 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭풍우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚜쉬뚜쉬의 혼잣말 들어주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어수선한 마을에서 무슨일이 있는지 구리구리에게 물어보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로의 마지막 흔적을 서리서리에게 물어보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 게로게로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 안에서 게로게로가 흘린 주머니를 발견하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로의 주머니 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로를 찾아 마을 밖으로 이동하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 밖으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>늑대를 무서워하는 게로게로를 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 게로게로를 데리고 마을로 복귀하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 게로게로 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 게로게로 버리기 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게로게로를 찾은 것을 서리서리에게 말하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라지는 주민들에 대한 이상한 점을 구리구리에게 말하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 띠리띠리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 현상에 대해서 구리구리와 대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리에게로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리에게 무슨 일이 있는지 확인 해보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을의 비밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 현상에 대해서 뚜쉬뚜쉬에게 물어보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 현상에 대해서 구리구리에게 물어보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리구리를 위해 땔감과 음료수를 구해오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구리구리에게 마을의 비밀 단서를 획득하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이하이에게 마을의 비밀 단서를 획득하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이하이와 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이하이의 의뢰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁식사에 사용할 재료를 구해 하이하이에게 전달하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생선 $개 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이하이와 저녁 식사 함께하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이하이에게 인사하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>띠리띠리에게 마을의 비밀 단서를 획득하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사라진 하이하이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에는 무슨일이?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다급하게 달려온 구리구리와 대화하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스컹크 주변에서 하이하이의 주방 그릇 획득하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이하이의 주방 그릇 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 하이하이를 데리고 마을로 복귀하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 하이하이 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰러진 하이하이 버리기 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서리서리에게 마을의 비밀 단서를 획득하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 서리서리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑자기 공격해오는 서리서리를 막아라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서리서리와 전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을의 비밀 단서를 조합하여 구리구리에게 말하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력 회복 포션</t>
   </si>
   <si>
@@ -3467,17 +3051,6 @@
   </si>
   <si>
     <t>모험가의 검</t>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음료수 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상한 서리서리</t>
   </si>
   <si>
     <t>서리서리 제압</t>
@@ -3509,88 +3082,464 @@
     <t>[Chapter #4] 이상한 마을을 위해</t>
   </si>
   <si>
+    <t>마을의 비밀 단서들을 조합하여 구리구리에게 말하기</t>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬를 찾아가기</t>
+  </si>
+  <si>
+    <t>사라진 뚜쉬뚜쉬를 찾아보자</t>
+  </si>
+  <si>
+    <t>사라진 뚜쉬뚜쉬의 행방을 찾기 위해 마을로 돌아가기</t>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬가 사라진 사실을 구리구리에게 알리기</t>
+  </si>
+  <si>
+    <t>구리구리의 호감을 사기 위한 선물을 준비하기</t>
+  </si>
+  <si>
+    <t>구리구리에게 준비한 선물을 전달하기</t>
+  </si>
+  <si>
+    <t>깊은 숲에 있는 난폭한 동물들 진정시키기</t>
+  </si>
+  <si>
+    <t>깊은 숲에 있는 강력한 몬스터들 진정시키기</t>
+  </si>
+  <si>
+    <t>구리구리 제압</t>
+  </si>
+  <si>
+    <t>아티펙트 획득하기</t>
+  </si>
+  <si>
+    <t>- 여긴 어디지? -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>배를 채울만한 것을 찾아보기</t>
+  </si>
+  <si>
+    <t>&lt;버섯 $개 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주운 버섯을 사용하기</t>
+  </si>
+  <si>
+    <t>&lt;버섯 $개 사용 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 주변 수색 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 둘러보기</t>
+  </si>
+  <si>
+    <t>&lt;앞으로 이동&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵을 만한 곳을 찾아보기</t>
+  </si>
+  <si>
+    <t>&lt;마을로 이동&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마을 주민 (2) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 촌장님에게 찾아가기</t>
+  </si>
+  <si>
+    <t>&lt;촌장과 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마을 주민 (3) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>연두색 개구리 게로게로에게 인사하기</t>
+  </si>
+  <si>
+    <t>&lt;게로게로와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마을 주민 (4) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 중심에 있는 뽀롱뽀롱에게 인사하기</t>
+  </si>
+  <si>
+    <t>&lt;뽀롱뽀롱과 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마을 주민 (5) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>화가 난 서리서리와 대화하기</t>
+  </si>
+  <si>
+    <t>&lt;서리서리와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마을 주민 (6) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색 개구리 부꾸부꾸에게 인사하기</t>
+  </si>
+  <si>
+    <t>&lt;부꾸부꾸와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이상한 마을 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리에게 돌아가기</t>
+  </si>
+  <si>
+    <t>&lt;구리구리와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>입구에 있는 띠리띠리와 대화하기</t>
+  </si>
+  <si>
+    <t>&lt;띠리띠리와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 마을 순찰 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리와 함께 마을을 순찰하기</t>
+  </si>
+  <si>
+    <t>&lt;띠리띠리와 이동&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>띠리띠리를 공격하는 포악한 스컹크를 처치하기</t>
+  </si>
+  <si>
+    <t>&lt;포악한 스컹크 처치 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 순찰에 대한 보고를 구리구리에게 하러가기</t>
+  </si>
+  <si>
+    <t>- 사라진 부꾸부꾸 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온 주변에 있는 부꾸부꾸의 애착단지 찾기</t>
+  </si>
+  <si>
+    <t>&lt;부꾸부꾸의 애착단지 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카멜레온을 무서워하는 부꾸부꾸를 구하기</t>
+  </si>
+  <si>
+    <t>&lt;카멜레온 $마리 처치 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 부꾸부꾸를 데리고 마을로 복귀하기</t>
+  </si>
+  <si>
+    <t>&lt;쓰러진 부꾸부꾸 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;쓰러진 부꾸부꾸 버리기 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부꾸부꾸의 복귀 사실을 구리구리에게 말하기</t>
+  </si>
+  <si>
+    <t>- 강화 수련 (1) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 숨은 고수 뚜쉬뚜쉬 찾아가기</t>
+  </si>
+  <si>
+    <t>&lt;뚜쉬뚜쉬와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 카멜레온을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+  </si>
+  <si>
+    <t>- 강화 수련 (2) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 미어캣을 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+  </si>
+  <si>
+    <t>&lt;미어캣 $마리 처치 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 강화 수련 (3) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련을 위해 위험한 늑대를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+  </si>
+  <si>
+    <t>&lt;늑대 $마리 처치 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 강화 수련 (4) -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고 난이도의 황소를 처치하고 뚜쉬뚜쉬에게 돌아가기</t>
+  </si>
+  <si>
+    <t>&lt;황소 $마리 처치 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 폭풍우 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜쉬뚜쉬의 혼잣말 들어주기</t>
+  </si>
+  <si>
+    <t>어수선한 마을에서 무슨일이 있는지 구리구리에게 물어보기</t>
+  </si>
+  <si>
+    <t>게로게로의 마지막 흔적을 서리서리에게 물어보기</t>
+  </si>
+  <si>
+    <t>- 사라진 게로게로 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 안에서 게로게로가 흘린 주머니를 발견하기</t>
+  </si>
+  <si>
+    <t>&lt;게로게로의 주머니 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로를 찾아 마을 밖으로 이동하기</t>
+  </si>
+  <si>
+    <t>&lt;마을 밖으로 이동&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대를 무서워하는 게로게로를 구하기</t>
+  </si>
+  <si>
+    <t>쓰러진 게로게로를 데리고 마을로 복귀하기</t>
+  </si>
+  <si>
+    <t>&lt;쓰러진 게로게로 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;쓰러진 게로게로 버리기 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>게로게로를 찾은 것을 서리서리에게 말하기</t>
+  </si>
+  <si>
+    <t>사라지는 주민들에 대한 이상한 점을 구리구리에게 말하기</t>
+  </si>
+  <si>
+    <t>- 이상한 띠리띠리 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 현상에 대해서 구리구리와 대화하기</t>
+  </si>
+  <si>
+    <t>띠리띠리에게 무슨 일이 있는지 확인 해보기</t>
+  </si>
+  <si>
+    <t>&lt;띠리띠리에게로 이동&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>- 마을의 비밀 -</t>
-  </si>
-  <si>
-    <t>마을의 비밀 단서들을 조합하여 구리구리에게 말하기</t>
-  </si>
-  <si>
-    <t>&lt;구리구리와 대화&gt;</t>
-  </si>
-  <si>
-    <t>뚜쉬뚜쉬를 찾아가기</t>
-  </si>
-  <si>
-    <t>&lt;뚜쉬뚜쉬와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 현상에 대해서 뚜쉬뚜쉬에게 물어보기</t>
+  </si>
+  <si>
+    <t>이상한 현상에 대해서 구리구리에게 물어보기</t>
+  </si>
+  <si>
+    <t>구리구리를 위해 땔감과 음료수를 구해오기</t>
+  </si>
+  <si>
+    <t>&lt;음료수 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리구리에게 마을의 비밀 단서를 획득하기</t>
+  </si>
+  <si>
+    <t>하이하이에게 마을의 비밀 단서를 획득하기</t>
+  </si>
+  <si>
+    <t>&lt;하이하이와 대화&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 하이하이의 의뢰 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁식사에 사용할 재료를 구해 하이하이에게 전달하기</t>
+  </si>
+  <si>
+    <t>&lt;생선 $개 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이하이와 저녁 식사 함께하기</t>
+  </si>
+  <si>
+    <t>하이하이에게 인사하기</t>
+  </si>
+  <si>
+    <t>띠리띠리에게 마을의 비밀 단서를 획득하기</t>
+  </si>
+  <si>
+    <t>- 이번에는 무슨일이? -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>다급하게 달려온 구리구리와 대화하기</t>
+  </si>
+  <si>
+    <t>- 사라진 하이하이 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컹크 주변에서 하이하이의 주방 그릇 획득하기</t>
+  </si>
+  <si>
+    <t>&lt;하이하이의 주방 그릇 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러진 하이하이를 데리고 마을로 복귀하기</t>
+  </si>
+  <si>
+    <t>&lt;쓰러진 하이하이 획득 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;쓰러진 하이하이 버리기 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리서리에게 마을의 비밀 단서를 획득하기</t>
+  </si>
+  <si>
+    <t>- 이상한 서리서리 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 공격해오는 서리서리를 막아라</t>
+  </si>
+  <si>
+    <t>&lt;서리서리와 전투&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을의 비밀 단서들을 곰곰히 생각해보기</t>
   </si>
   <si>
     <t>- 뚜쉬뚜쉬의 행방 -</t>
-  </si>
-  <si>
-    <t>사라진 뚜쉬뚜쉬를 찾아보자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;스컹크 $마리 처치 ( * / $ )&gt;</t>
-  </si>
-  <si>
-    <t>사라진 뚜쉬뚜쉬의 행방을 찾기 위해 마을로 돌아가기</t>
-  </si>
-  <si>
-    <t>&lt;마을로 이동&gt;</t>
-  </si>
-  <si>
-    <t>뚜쉬뚜쉬가 사라진 사실을 구리구리에게 알리기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>- 구리구리가 좋아하는 것 -</t>
-  </si>
-  <si>
-    <t>구리구리의 호감을 사기 위한 선물을 준비하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;음료수 $개 획득 ( * / $ ) , 맥주컵 $개 획득 ( * / $ ) , 나무 $개 획득 ( * / $ )&gt;</t>
-  </si>
-  <si>
-    <t>구리구리에게 준비한 선물을 전달하기</t>
-  </si>
-  <si>
-    <t>깊은 숲에 있는 난폭한 동물들 진정시키기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;포이즌머쉬 $마리 처치 ( * / $ ) , 크랩스피어 $마리 처치 ( * / $ ) , 글루멀쳐 $마리 처치 ( * / $ )&gt;</t>
-  </si>
-  <si>
-    <t>깊은 숲에 있는 강력한 몬스터들 진정시키기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;가이스트우드 $마리 처치 ( * / $ ) , 트롤릭우드 $마리 처치 ( * / $ )&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>- 이상한 구리구리 -</t>
-  </si>
-  <si>
-    <t>구리구리 제압</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>- 의문의 아티펙트 -</t>
-  </si>
-  <si>
-    <t>아티펙트 획득하기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>- 비밀스러운 포탈 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>포탈 너머의 비밀을 파헤쳐 보기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&lt;포탈로 진입하기&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>- 스승의 정체 -</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>뚜쉬뚜쉬 제압</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;연출&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3642,14 +3591,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
@@ -3682,8 +3623,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3702,6 +3649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3716,11 +3669,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3733,20 +3686,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3754,44 +3695,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4008,9 +3946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4048,7 +3986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4154,7 +4092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4296,7 +4234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4306,35 +4244,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450F23A-DDCD-4531-84F1-C9A87D28DD5C}">
   <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="12" width="12.3984375" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.09765625" customWidth="1"/>
-    <col min="18" max="18" width="14.3984375" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -4357,70 +4295,70 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AB1" s="3" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -4430,14 +4368,14 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
       </c>
       <c r="G2">
         <v>16</v>
@@ -4461,16 +4399,16 @@
         <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4">
+        <v>34</v>
+      </c>
+      <c r="O2" s="9">
         <v>24.1</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
       <c r="S2">
         <v>0</v>
       </c>
@@ -4489,8 +4427,8 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>144</v>
+      <c r="AB2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4500,14 +4438,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -4531,16 +4469,16 @@
         <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="4">
-        <v>24.1</v>
+        <v>34</v>
+      </c>
+      <c r="O3" s="9">
+        <v>26.5</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
       <c r="S3">
         <v>0</v>
       </c>
@@ -4559,8 +4497,8 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="10" t="s">
-        <v>144</v>
+      <c r="AB3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4570,14 +4508,14 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
+      <c r="D4" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4601,16 +4539,16 @@
         <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="4">
-        <v>27.7</v>
+        <v>34</v>
+      </c>
+      <c r="O4" s="9">
+        <v>29.2</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
       <c r="S4">
         <v>0</v>
       </c>
@@ -4629,8 +4567,8 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" s="10" t="s">
-        <v>144</v>
+      <c r="AB4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4640,14 +4578,14 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4671,18 +4609,18 @@
         <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="4">
-        <v>31.9</v>
+        <v>34</v>
+      </c>
+      <c r="O5" s="9">
+        <v>32.1</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="Q5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="9">
         <v>3</v>
       </c>
       <c r="S5">
@@ -4703,8 +4641,8 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" s="10" t="s">
-        <v>144</v>
+      <c r="AB5" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4714,14 +4652,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="D6" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4745,16 +4683,16 @@
         <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="4">
-        <v>36.700000000000003</v>
+        <v>34</v>
+      </c>
+      <c r="O6" s="9">
+        <v>35.299999999999997</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
       <c r="S6">
         <v>0</v>
       </c>
@@ -4773,8 +4711,8 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>144</v>
+      <c r="AB6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4784,14 +4722,14 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4815,20 +4753,16 @@
         <v>100</v>
       </c>
       <c r="N7" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="4">
-        <v>42.2</v>
+        <v>34</v>
+      </c>
+      <c r="O7" s="9">
+        <v>38.799999999999997</v>
       </c>
       <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
       <c r="S7">
         <v>0</v>
       </c>
@@ -4847,8 +4781,8 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>143</v>
+      <c r="AB7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4858,14 +4792,14 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
+      <c r="D8" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4889,16 +4823,20 @@
         <v>100</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="4">
-        <v>42.2</v>
+        <v>34</v>
+      </c>
+      <c r="O8" s="9">
+        <v>46.6</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
       <c r="S8">
         <v>0</v>
       </c>
@@ -4917,8 +4855,8 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8" s="9" t="s">
-        <v>143</v>
+      <c r="AB8" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4928,14 +4866,14 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
+      <c r="D9" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4959,20 +4897,16 @@
         <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="4">
-        <v>48.5</v>
+        <v>34</v>
+      </c>
+      <c r="O9" s="9">
+        <v>55.9</v>
       </c>
       <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
       <c r="S9">
         <v>0</v>
       </c>
@@ -4991,8 +4925,8 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9" s="9" t="s">
-        <v>143</v>
+      <c r="AB9" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -5002,14 +4936,14 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
+      <c r="D10" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
+        <v>72</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5033,19 +4967,19 @@
         <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="4">
-        <v>55.8</v>
+        <v>34</v>
+      </c>
+      <c r="O10" s="9">
+        <v>67.099999999999994</v>
       </c>
       <c r="P10">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R10" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -5065,8 +4999,8 @@
       <c r="AA10">
         <v>0</v>
       </c>
-      <c r="AB10" s="9" t="s">
-        <v>143</v>
+      <c r="AB10" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -5076,14 +5010,14 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
+      <c r="D11" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
+        <v>75</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5107,19 +5041,19 @@
         <v>100</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="4">
-        <v>64.2</v>
+        <v>34</v>
+      </c>
+      <c r="O11" s="9">
+        <v>80.5</v>
       </c>
       <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="9">
+        <v>10</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5139,8 +5073,8 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AB11" s="9" t="s">
-        <v>143</v>
+      <c r="AB11" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -5150,14 +5084,14 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>42</v>
+      <c r="D12" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -5181,20 +5115,20 @@
         <v>100</v>
       </c>
       <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="9">
+        <v>96.6</v>
+      </c>
+      <c r="P12">
         <v>7</v>
       </c>
-      <c r="O12" s="4">
-        <v>73.8</v>
-      </c>
-      <c r="P12">
+      <c r="Q12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="9">
         <v>1</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R12" s="4">
-        <v>3</v>
-      </c>
       <c r="S12">
         <v>0</v>
       </c>
@@ -5213,8 +5147,8 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" s="9" t="s">
-        <v>143</v>
+      <c r="AB12" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -5224,14 +5158,14 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
+      <c r="D13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5255,19 +5189,19 @@
         <v>100</v>
       </c>
       <c r="N13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="4">
-        <v>84.9</v>
+        <v>34</v>
+      </c>
+      <c r="O13" s="9">
+        <v>125.6</v>
       </c>
       <c r="P13">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R13" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="9">
+        <v>3</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -5287,8 +5221,8 @@
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13" s="9" t="s">
-        <v>143</v>
+      <c r="AB13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -5298,14 +5232,14 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>56</v>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -5329,18 +5263,18 @@
         <v>100</v>
       </c>
       <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="4">
-        <v>97.6</v>
+        <v>34</v>
+      </c>
+      <c r="O14" s="9">
+        <v>163.19999999999999</v>
       </c>
       <c r="P14">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="9">
         <v>10</v>
       </c>
       <c r="S14">
@@ -5361,8 +5295,8 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14" s="9" t="s">
-        <v>143</v>
+      <c r="AB14" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -5372,14 +5306,14 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>56</v>
+      <c r="D15" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -5403,19 +5337,19 @@
         <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="4">
-        <v>112.2</v>
+        <v>34</v>
+      </c>
+      <c r="O15" s="9">
+        <v>212.2</v>
       </c>
       <c r="P15">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R15" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="9">
+        <v>10</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -5435,8 +5369,8 @@
       <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15" s="9" t="s">
-        <v>143</v>
+      <c r="AB15" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -5446,14 +5380,14 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>56</v>
+      <c r="D16" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
+        <v>87</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -5477,20 +5411,20 @@
         <v>100</v>
       </c>
       <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="9">
+        <v>275.8</v>
+      </c>
+      <c r="P16">
         <v>7</v>
       </c>
-      <c r="O16" s="4">
-        <v>113.2</v>
-      </c>
-      <c r="P16">
+      <c r="Q16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="9">
         <v>1</v>
       </c>
-      <c r="Q16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -5509,8 +5443,8 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" s="9" t="s">
-        <v>143</v>
+      <c r="AB16" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:28">
@@ -5520,14 +5454,14 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>61</v>
+      <c r="D17" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
+        <v>89</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="G17">
         <v>29</v>
@@ -5551,19 +5485,19 @@
         <v>100</v>
       </c>
       <c r="N17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="4">
-        <v>114.3</v>
+        <v>34</v>
+      </c>
+      <c r="O17" s="9">
+        <v>358.6</v>
       </c>
       <c r="P17">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R17" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -5583,8 +5517,8 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" s="9" t="s">
-        <v>143</v>
+      <c r="AB17" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:28">
@@ -5594,14 +5528,14 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>61</v>
+      <c r="D18" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5625,19 +5559,19 @@
         <v>100</v>
       </c>
       <c r="N18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="4">
-        <v>115.5</v>
+        <v>34</v>
+      </c>
+      <c r="O18" s="9">
+        <v>466.2</v>
       </c>
       <c r="P18">
         <v>33</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="4">
-        <v>10</v>
+      <c r="Q18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="9">
+        <v>20</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -5657,8 +5591,8 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" s="9" t="s">
-        <v>143</v>
+      <c r="AB18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:28">
@@ -5668,14 +5602,14 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>61</v>
+      <c r="D19" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
+        <v>93</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="G19">
         <v>30</v>
@@ -5699,19 +5633,19 @@
         <v>100</v>
       </c>
       <c r="N19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="4">
-        <v>116.6</v>
+        <v>34</v>
+      </c>
+      <c r="O19" s="9">
+        <v>512.79999999999995</v>
       </c>
       <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R19" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="9">
+        <v>20</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -5731,8 +5665,8 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" s="9" t="s">
-        <v>143</v>
+      <c r="AB19" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:28">
@@ -5742,14 +5676,14 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
+      <c r="D20" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -5773,19 +5707,19 @@
         <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O20" s="4">
-        <v>117.7</v>
+        <v>34</v>
+      </c>
+      <c r="O20" s="9">
+        <v>564.1</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R20" s="4">
-        <v>3</v>
+      <c r="Q20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5805,8 +5739,8 @@
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" s="9" t="s">
-        <v>143</v>
+      <c r="AB20" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:28">
@@ -5816,14 +5750,14 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
-        <v>61</v>
+      <c r="D21" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
+        <v>96</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5847,19 +5781,19 @@
         <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="4">
-        <v>117.7</v>
+        <v>34</v>
+      </c>
+      <c r="O21" s="9">
+        <v>620.5</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R21" s="4">
-        <v>4</v>
+      <c r="Q21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="9">
+        <v>3</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -5879,8 +5813,8 @@
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" s="9" t="s">
-        <v>143</v>
+      <c r="AB21" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:28">
@@ -5890,14 +5824,14 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" t="s">
-        <v>70</v>
+      <c r="D22" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5921,18 +5855,18 @@
         <v>100</v>
       </c>
       <c r="N22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="4">
-        <v>118.9</v>
+        <v>34</v>
+      </c>
+      <c r="O22" s="9">
+        <v>682.5</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="R22" s="4">
+      <c r="Q22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="9">
         <v>4</v>
       </c>
       <c r="S22">
@@ -5953,8 +5887,8 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AB22" s="11" t="s">
-        <v>145</v>
+      <c r="AB22" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:28">
@@ -5964,14 +5898,14 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>70</v>
+      <c r="D23" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
+        <v>100</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -5995,19 +5929,19 @@
         <v>100</v>
       </c>
       <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="4">
-        <v>120</v>
+        <v>34</v>
+      </c>
+      <c r="O23" s="9">
+        <v>750.8</v>
       </c>
       <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R23" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="9">
+        <v>4</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -6027,8 +5961,8 @@
       <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AB23" s="11" t="s">
-        <v>145</v>
+      <c r="AB23" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:28">
@@ -6038,14 +5972,14 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>73</v>
+      <c r="D24" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6069,19 +6003,19 @@
         <v>100</v>
       </c>
       <c r="N24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O24" s="4">
-        <v>121.2</v>
+        <v>34</v>
+      </c>
+      <c r="O24" s="11">
+        <v>825.9</v>
       </c>
       <c r="P24">
         <v>2</v>
       </c>
-      <c r="Q24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R24" s="4">
-        <v>3</v>
+      <c r="Q24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -6101,8 +6035,8 @@
       <c r="AA24">
         <v>0</v>
       </c>
-      <c r="AB24" s="11" t="s">
-        <v>145</v>
+      <c r="AB24" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:28">
@@ -6112,14 +6046,14 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>78</v>
+      <c r="D25" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G25">
         <v>6</v>
@@ -6143,19 +6077,19 @@
         <v>100</v>
       </c>
       <c r="N25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" s="4">
-        <v>122.6</v>
+        <v>34</v>
+      </c>
+      <c r="O25" s="11">
+        <v>908.5</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" s="4">
-        <v>5</v>
+      <c r="Q25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="11">
+        <v>3</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -6175,8 +6109,8 @@
       <c r="AA25">
         <v>0</v>
       </c>
-      <c r="AB25" s="11" t="s">
-        <v>145</v>
+      <c r="AB25" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:28">
@@ -6186,14 +6120,14 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>81</v>
+      <c r="D26" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>85</v>
+        <v>108</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -6217,19 +6151,19 @@
         <v>100</v>
       </c>
       <c r="N26" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="4">
-        <v>200</v>
+        <v>34</v>
+      </c>
+      <c r="O26" s="11">
+        <v>999.3</v>
       </c>
       <c r="P26">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="R26" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="11">
+        <v>5</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -6249,8 +6183,8 @@
       <c r="AA26">
         <v>0</v>
       </c>
-      <c r="AB26" s="11" t="s">
-        <v>145</v>
+      <c r="AB26" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:28">
@@ -6260,14 +6194,14 @@
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" t="s">
-        <v>86</v>
+      <c r="D27" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
+        <v>111</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -6291,19 +6225,19 @@
         <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>7</v>
-      </c>
-      <c r="O27" s="4">
-        <v>200</v>
+        <v>34</v>
+      </c>
+      <c r="O27" s="11">
+        <v>1099.2</v>
       </c>
       <c r="P27">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R27" s="4">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="11">
+        <v>1</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -6323,8 +6257,8 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AB27" s="11" t="s">
-        <v>145</v>
+      <c r="AB27" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:28">
@@ -6334,14 +6268,14 @@
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>86</v>
+      <c r="D28" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
+        <v>112</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -6365,19 +6299,19 @@
         <v>100</v>
       </c>
       <c r="N28" t="s">
-        <v>7</v>
-      </c>
-      <c r="O28" s="4">
-        <v>225</v>
+        <v>34</v>
+      </c>
+      <c r="O28" s="11">
+        <v>1209.2</v>
       </c>
       <c r="P28">
-        <v>7</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="11">
+        <v>20</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -6397,8 +6331,8 @@
       <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AB28" s="11" t="s">
-        <v>145</v>
+      <c r="AB28" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:28">
@@ -6408,14 +6342,14 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>86</v>
+      <c r="D29" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
+        <v>113</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -6439,19 +6373,19 @@
         <v>100</v>
       </c>
       <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="11">
+        <v>1330.1</v>
+      </c>
+      <c r="P29">
         <v>7</v>
       </c>
-      <c r="O29" s="4">
-        <v>250</v>
-      </c>
-      <c r="P29">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R29" s="4">
-        <v>15</v>
+      <c r="Q29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="11">
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -6471,8 +6405,8 @@
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29" s="11" t="s">
-        <v>145</v>
+      <c r="AB29" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:28">
@@ -6482,14 +6416,14 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>90</v>
+      <c r="D30" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" t="s">
-        <v>92</v>
+        <v>115</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="G30">
         <v>28</v>
@@ -6513,19 +6447,19 @@
         <v>100</v>
       </c>
       <c r="N30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="4">
-        <v>300</v>
+        <v>34</v>
+      </c>
+      <c r="O30" s="11">
+        <v>1463.1</v>
       </c>
       <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R30" s="4">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="11">
+        <v>30</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -6545,8 +6479,8 @@
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AB30" s="11" t="s">
-        <v>145</v>
+      <c r="AB30" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:28">
@@ -6556,14 +6490,14 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>90</v>
+      <c r="D31" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
+        <v>117</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6587,19 +6521,19 @@
         <v>100</v>
       </c>
       <c r="N31" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O31" s="11">
+        <v>1609.4</v>
       </c>
       <c r="P31">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R31" s="4">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="11">
+        <v>2</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -6619,8 +6553,8 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>145</v>
+      <c r="AB31" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:28">
@@ -6630,14 +6564,14 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>90</v>
+      <c r="D32" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
+        <v>119</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -6661,19 +6595,19 @@
         <v>100</v>
       </c>
       <c r="N32" t="s">
-        <v>7</v>
-      </c>
-      <c r="O32" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O32" s="11">
+        <v>1770.3</v>
       </c>
       <c r="P32">
-        <v>7</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R32" s="4">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="11">
+        <v>30</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -6693,8 +6627,8 @@
       <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AB32" s="11" t="s">
-        <v>145</v>
+      <c r="AB32" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:28">
@@ -6704,14 +6638,14 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
-        <v>90</v>
+      <c r="D33" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" t="s">
-        <v>97</v>
+        <v>120</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="G33">
         <v>31</v>
@@ -6735,19 +6669,19 @@
         <v>100</v>
       </c>
       <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1858.8</v>
+      </c>
+      <c r="P33">
         <v>7</v>
       </c>
-      <c r="O33" s="4">
-        <v>400</v>
-      </c>
-      <c r="P33">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R33" s="4">
-        <v>15</v>
+      <c r="Q33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="11">
+        <v>2</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -6767,8 +6701,8 @@
       <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>145</v>
+      <c r="AB33" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:28">
@@ -6778,14 +6712,14 @@
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
-        <v>90</v>
+      <c r="D34" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
+        <v>120</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="G34">
         <v>31</v>
@@ -6809,19 +6743,19 @@
         <v>100</v>
       </c>
       <c r="N34" t="s">
-        <v>7</v>
-      </c>
-      <c r="O34" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O34" s="9">
+        <v>1951.8</v>
       </c>
       <c r="P34">
         <v>33</v>
       </c>
-      <c r="Q34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R34" s="4">
-        <v>15</v>
+      <c r="Q34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" s="9">
+        <v>30</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -6841,8 +6775,8 @@
       <c r="AA34">
         <v>0</v>
       </c>
-      <c r="AB34" s="11" t="s">
-        <v>145</v>
+      <c r="AB34" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:28">
@@ -6852,14 +6786,14 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
-        <v>90</v>
+      <c r="D35" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
+        <v>123</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6883,19 +6817,19 @@
         <v>100</v>
       </c>
       <c r="N35" t="s">
-        <v>7</v>
-      </c>
-      <c r="O35" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O35" s="9">
+        <v>2049.3000000000002</v>
       </c>
       <c r="P35">
         <v>33</v>
       </c>
-      <c r="Q35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R35" s="4">
-        <v>15</v>
+      <c r="Q35" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="9">
+        <v>40</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -6915,8 +6849,8 @@
       <c r="AA35">
         <v>0</v>
       </c>
-      <c r="AB35" s="11" t="s">
-        <v>145</v>
+      <c r="AB35" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:28">
@@ -6926,14 +6860,14 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" t="s">
-        <v>90</v>
+      <c r="D36" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" t="s">
-        <v>44</v>
+        <v>124</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6957,19 +6891,19 @@
         <v>100</v>
       </c>
       <c r="N36" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O36" s="9">
+        <v>2151.8000000000002</v>
       </c>
       <c r="P36">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R36" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R36" s="9">
+        <v>40</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -6989,8 +6923,8 @@
       <c r="AA36">
         <v>0</v>
       </c>
-      <c r="AB36" s="11" t="s">
-        <v>145</v>
+      <c r="AB36" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:28">
@@ -7000,14 +6934,14 @@
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
-        <v>101</v>
+      <c r="D37" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
+        <v>126</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7031,19 +6965,19 @@
         <v>100</v>
       </c>
       <c r="N37" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O37" s="9">
+        <v>2259.4</v>
       </c>
       <c r="P37">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R37" s="4">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="9">
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -7063,8 +6997,8 @@
       <c r="AA37">
         <v>0</v>
       </c>
-      <c r="AB37" s="11" t="s">
-        <v>145</v>
+      <c r="AB37" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:28">
@@ -7074,14 +7008,14 @@
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>101</v>
+      <c r="D38" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" t="s">
-        <v>103</v>
+        <v>127</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7105,19 +7039,19 @@
         <v>100</v>
       </c>
       <c r="N38" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O38" s="9">
+        <v>2395</v>
       </c>
       <c r="P38">
         <v>33</v>
       </c>
-      <c r="Q38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R38" s="4">
-        <v>15</v>
+      <c r="Q38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="9">
+        <v>40</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -7137,8 +7071,8 @@
       <c r="AA38">
         <v>0</v>
       </c>
-      <c r="AB38" s="11" t="s">
-        <v>146</v>
+      <c r="AB38" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:28">
@@ -7148,14 +7082,14 @@
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
-        <v>105</v>
+      <c r="D39" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>71</v>
+        <v>130</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7179,19 +7113,19 @@
         <v>100</v>
       </c>
       <c r="N39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O39" s="9">
+        <v>2538.6999999999998</v>
       </c>
       <c r="P39">
         <v>33</v>
       </c>
-      <c r="Q39" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R39" s="4">
-        <v>15</v>
+      <c r="Q39" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" s="9">
+        <v>50</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -7211,8 +7145,8 @@
       <c r="AA39">
         <v>0</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>146</v>
+      <c r="AB39" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:28">
@@ -7222,14 +7156,14 @@
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
-        <v>105</v>
+      <c r="D40" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>44</v>
+        <v>131</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7253,19 +7187,19 @@
         <v>100</v>
       </c>
       <c r="N40" t="s">
-        <v>7</v>
-      </c>
-      <c r="O40" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O40" s="9">
+        <v>2691</v>
       </c>
       <c r="P40">
         <v>33</v>
       </c>
-      <c r="Q40" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R40" s="4">
-        <v>20</v>
+      <c r="Q40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" s="9">
+        <v>50</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -7285,8 +7219,8 @@
       <c r="AA40">
         <v>0</v>
       </c>
-      <c r="AB40" s="11" t="s">
-        <v>146</v>
+      <c r="AB40" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:28">
@@ -7296,14 +7230,14 @@
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
-        <v>105</v>
+      <c r="D41" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -7327,19 +7261,19 @@
         <v>100</v>
       </c>
       <c r="N41" t="s">
-        <v>7</v>
-      </c>
-      <c r="O41" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O41" s="9">
+        <v>2852.4</v>
       </c>
       <c r="P41">
         <v>33</v>
       </c>
-      <c r="Q41" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R41" s="7">
-        <v>20</v>
+      <c r="Q41" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="9">
+        <v>50</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -7359,8 +7293,8 @@
       <c r="AA41">
         <v>0</v>
       </c>
-      <c r="AB41" s="11" t="s">
-        <v>146</v>
+      <c r="AB41" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:28">
@@ -7370,14 +7304,14 @@
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
-        <v>105</v>
+      <c r="D42" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>44</v>
+        <v>134</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7401,19 +7335,19 @@
         <v>100</v>
       </c>
       <c r="N42" t="s">
-        <v>7</v>
-      </c>
-      <c r="O42" s="7">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O42" s="9">
+        <v>3023.6</v>
       </c>
       <c r="P42">
         <v>33</v>
       </c>
-      <c r="Q42" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R42" s="4">
-        <v>20</v>
+      <c r="Q42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" s="9">
+        <v>60</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -7433,8 +7367,8 @@
       <c r="AA42">
         <v>0</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>146</v>
+      <c r="AB42" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:28">
@@ -7444,14 +7378,14 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
-        <v>105</v>
+      <c r="D43" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
+        <v>135</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7475,19 +7409,19 @@
         <v>100</v>
       </c>
       <c r="N43" t="s">
-        <v>7</v>
-      </c>
-      <c r="O43" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O43" s="9">
+        <v>3235.2</v>
       </c>
       <c r="P43">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R43" s="4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R43" s="9">
+        <v>60</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -7507,8 +7441,8 @@
       <c r="AA43">
         <v>0</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>146</v>
+      <c r="AB43" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:28">
@@ -7518,14 +7452,14 @@
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>112</v>
+      <c r="D44" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="G44">
         <v>17</v>
@@ -7549,19 +7483,19 @@
         <v>100</v>
       </c>
       <c r="N44" t="s">
-        <v>7</v>
-      </c>
-      <c r="O44" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O44" s="9">
+        <v>3461.7</v>
       </c>
       <c r="P44">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R44" s="4">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="9">
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -7581,8 +7515,8 @@
       <c r="AA44">
         <v>0</v>
       </c>
-      <c r="AB44" s="11" t="s">
-        <v>146</v>
+      <c r="AB44" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:28">
@@ -7592,14 +7526,14 @@
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
-        <v>105</v>
+      <c r="D45" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
+        <v>140</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7623,19 +7557,19 @@
         <v>100</v>
       </c>
       <c r="N45" t="s">
-        <v>7</v>
-      </c>
-      <c r="O45" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O45" s="9">
+        <v>3704</v>
       </c>
       <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R45" s="4">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R45" s="9">
+        <v>60</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -7655,8 +7589,8 @@
       <c r="AA45">
         <v>0</v>
       </c>
-      <c r="AB45" s="11" t="s">
-        <v>146</v>
+      <c r="AB45" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:28">
@@ -7666,14 +7600,14 @@
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
-        <v>105</v>
+      <c r="D46" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -7697,19 +7631,19 @@
         <v>100</v>
       </c>
       <c r="N46" t="s">
-        <v>7</v>
-      </c>
-      <c r="O46" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O46" s="9">
+        <v>3963.3</v>
       </c>
       <c r="P46">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R46" s="4">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="9">
+        <v>3</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -7729,8 +7663,8 @@
       <c r="AA46">
         <v>0</v>
       </c>
-      <c r="AB46" s="11" t="s">
-        <v>146</v>
+      <c r="AB46" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:28">
@@ -7740,14 +7674,14 @@
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
-        <v>105</v>
+      <c r="D47" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
+        <v>142</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7771,19 +7705,19 @@
         <v>100</v>
       </c>
       <c r="N47" t="s">
-        <v>7</v>
-      </c>
-      <c r="O47" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O47" s="9">
+        <v>4240.7</v>
       </c>
       <c r="P47">
         <v>33</v>
       </c>
-      <c r="Q47" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R47" s="4">
-        <v>20</v>
+      <c r="Q47" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" s="9">
+        <v>70</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -7803,8 +7737,8 @@
       <c r="AA47">
         <v>0</v>
       </c>
-      <c r="AB47" s="11" t="s">
-        <v>146</v>
+      <c r="AB47" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:28">
@@ -7814,14 +7748,14 @@
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
-        <v>119</v>
+      <c r="D48" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" t="s">
-        <v>44</v>
+        <v>144</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7845,19 +7779,19 @@
         <v>100</v>
       </c>
       <c r="N48" t="s">
-        <v>7</v>
-      </c>
-      <c r="O48" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O48" s="9">
+        <v>4580</v>
       </c>
       <c r="P48">
-        <v>7</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="R48" s="4">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R48" s="9">
+        <v>70</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -7877,8 +7811,8 @@
       <c r="AA48">
         <v>0</v>
       </c>
-      <c r="AB48" s="11" t="s">
-        <v>146</v>
+      <c r="AB48" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:28">
@@ -7888,14 +7822,14 @@
       <c r="C49">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
-        <v>118</v>
+      <c r="D49" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" t="s">
-        <v>122</v>
+        <v>146</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -7919,19 +7853,19 @@
         <v>100</v>
       </c>
       <c r="N49" t="s">
+        <v>34</v>
+      </c>
+      <c r="O49" s="9">
+        <v>4946.3999999999996</v>
+      </c>
+      <c r="P49">
         <v>7</v>
       </c>
-      <c r="O49" s="4">
-        <v>400</v>
-      </c>
-      <c r="P49">
-        <v>33</v>
-      </c>
-      <c r="Q49" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R49" s="4">
-        <v>20</v>
+      <c r="Q49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="9">
+        <v>2</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -7951,8 +7885,8 @@
       <c r="AA49">
         <v>0</v>
       </c>
-      <c r="AB49" s="11" t="s">
-        <v>146</v>
+      <c r="AB49" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="2:28">
@@ -7962,14 +7896,14 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
-        <v>118</v>
+      <c r="D50" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" t="s">
-        <v>124</v>
+        <v>148</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -7993,19 +7927,19 @@
         <v>100</v>
       </c>
       <c r="N50" t="s">
-        <v>7</v>
-      </c>
-      <c r="O50" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O50" s="9">
+        <v>5342.1</v>
       </c>
       <c r="P50">
         <v>33</v>
       </c>
-      <c r="Q50" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R50" s="4">
-        <v>20</v>
+      <c r="Q50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R50" s="9">
+        <v>70</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -8025,8 +7959,8 @@
       <c r="AA50">
         <v>0</v>
       </c>
-      <c r="AB50" s="11" t="s">
-        <v>146</v>
+      <c r="AB50" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:28">
@@ -8036,14 +7970,14 @@
       <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
-        <v>118</v>
+      <c r="D51" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" t="s">
-        <v>125</v>
+        <v>148</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G51">
         <v>32</v>
@@ -8067,19 +8001,19 @@
         <v>100</v>
       </c>
       <c r="N51" t="s">
-        <v>7</v>
-      </c>
-      <c r="O51" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O51" s="9">
+        <v>5769.5</v>
       </c>
       <c r="P51">
-        <v>2</v>
-      </c>
-      <c r="Q51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R51" s="4">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R51" s="9">
+        <v>80</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -8099,8 +8033,8 @@
       <c r="AA51">
         <v>0</v>
       </c>
-      <c r="AB51" s="11" t="s">
-        <v>146</v>
+      <c r="AB51" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="2:28">
@@ -8110,14 +8044,14 @@
       <c r="C52">
         <v>0</v>
       </c>
-      <c r="D52" t="s">
-        <v>105</v>
+      <c r="D52" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" t="s">
-        <v>38</v>
+        <v>151</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -8141,19 +8075,19 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>7</v>
-      </c>
-      <c r="O52" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O52" s="9">
+        <v>6231</v>
       </c>
       <c r="P52">
-        <v>33</v>
-      </c>
-      <c r="Q52" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R52" s="4">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" s="9">
+        <v>5</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -8173,8 +8107,8 @@
       <c r="AA52">
         <v>0</v>
       </c>
-      <c r="AB52" s="11" t="s">
-        <v>146</v>
+      <c r="AB52" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:28">
@@ -8184,14 +8118,14 @@
       <c r="C53">
         <v>0</v>
       </c>
-      <c r="D53" t="s">
-        <v>105</v>
+      <c r="D53" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" t="s">
-        <v>38</v>
+        <v>151</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -8215,19 +8149,19 @@
         <v>100</v>
       </c>
       <c r="N53" t="s">
-        <v>7</v>
-      </c>
-      <c r="O53" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O53" s="9">
+        <v>6729.5</v>
       </c>
       <c r="P53">
         <v>33</v>
       </c>
-      <c r="Q53" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R53" s="4">
-        <v>25</v>
+      <c r="Q53" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R53" s="9">
+        <v>80</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -8247,8 +8181,8 @@
       <c r="AA53">
         <v>0</v>
       </c>
-      <c r="AB53" s="11" t="s">
-        <v>146</v>
+      <c r="AB53" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:28">
@@ -8258,14 +8192,14 @@
       <c r="C54">
         <v>0</v>
       </c>
-      <c r="D54" t="s">
-        <v>127</v>
+      <c r="D54" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -8289,19 +8223,19 @@
         <v>100</v>
       </c>
       <c r="N54" t="s">
-        <v>7</v>
-      </c>
-      <c r="O54" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O54" s="11">
+        <v>7335.2</v>
       </c>
       <c r="P54">
         <v>33</v>
       </c>
-      <c r="Q54" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R54" s="4">
-        <v>100</v>
+      <c r="Q54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R54" s="11">
+        <v>80</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -8321,8 +8255,8 @@
       <c r="AA54">
         <v>0</v>
       </c>
-      <c r="AB54" s="11" t="s">
-        <v>146</v>
+      <c r="AB54" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:28">
@@ -8332,14 +8266,14 @@
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
-        <v>138</v>
+      <c r="D55" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -8363,19 +8297,19 @@
         <v>100</v>
       </c>
       <c r="N55" t="s">
-        <v>141</v>
-      </c>
-      <c r="O55">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O55" s="9">
+        <v>7995.3</v>
       </c>
       <c r="P55">
         <v>33</v>
       </c>
-      <c r="Q55" t="s">
-        <v>132</v>
-      </c>
-      <c r="R55">
-        <v>25</v>
+      <c r="Q55" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R55" s="9">
+        <v>90</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -8395,8 +8329,8 @@
       <c r="AA55">
         <v>0</v>
       </c>
-      <c r="AB55" s="11" t="s">
-        <v>146</v>
+      <c r="AB55" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:28">
@@ -8406,14 +8340,14 @@
       <c r="C56">
         <v>0</v>
       </c>
-      <c r="D56" t="s">
-        <v>105</v>
+      <c r="D56" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" t="s">
-        <v>44</v>
+        <v>155</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -8437,19 +8371,19 @@
         <v>100</v>
       </c>
       <c r="N56" t="s">
-        <v>7</v>
-      </c>
-      <c r="O56" s="4">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="O56" s="9">
+        <v>8714.9</v>
       </c>
       <c r="P56">
         <v>33</v>
       </c>
-      <c r="Q56" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R56" s="4">
-        <v>25</v>
+      <c r="Q56" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R56" s="9">
+        <v>90</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -8469,1005 +8403,972 @@
       <c r="AA56">
         <v>0</v>
       </c>
-      <c r="AB56" s="11" t="s">
-        <v>146</v>
+      <c r="AB56" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="2:28">
-      <c r="B57" s="12">
+      <c r="B57">
         <v>1056</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57">
         <v>5</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="12">
-        <v>0</v>
-      </c>
-      <c r="H57" s="12">
-        <v>0</v>
-      </c>
-      <c r="I57" s="12">
-        <v>0</v>
-      </c>
-      <c r="J57" s="12">
-        <v>0</v>
-      </c>
-      <c r="K57" s="12">
-        <v>0</v>
-      </c>
-      <c r="L57" s="12">
-        <v>0</v>
-      </c>
-      <c r="M57" s="12">
+      <c r="D57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>100</v>
       </c>
-      <c r="N57" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O57" s="18">
+      <c r="N57" t="s">
+        <v>34</v>
+      </c>
+      <c r="O57" s="9">
         <v>9499.2999999999993</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57">
         <v>33</v>
       </c>
-      <c r="Q57" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R57" s="18">
+      <c r="Q57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R57" s="9">
         <v>90</v>
       </c>
-      <c r="S57" s="12">
-        <v>0</v>
-      </c>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22">
-        <v>0</v>
-      </c>
-      <c r="V57" s="22">
-        <v>0</v>
-      </c>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="11" t="s">
-        <v>147</v>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:28">
-      <c r="B58" s="12">
+      <c r="B58">
         <v>1057</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58">
         <v>5</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-      <c r="H58" s="12">
-        <v>0</v>
-      </c>
-      <c r="I58" s="12">
-        <v>0</v>
-      </c>
-      <c r="J58" s="12">
-        <v>0</v>
-      </c>
-      <c r="K58" s="12">
-        <v>0</v>
-      </c>
-      <c r="L58" s="12">
-        <v>0</v>
-      </c>
-      <c r="M58" s="12">
+      <c r="D58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>100</v>
       </c>
-      <c r="N58" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O58" s="18">
+      <c r="N58" t="s">
+        <v>34</v>
+      </c>
+      <c r="O58" s="9">
         <v>10354.200000000001</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58">
         <v>2</v>
       </c>
-      <c r="Q58" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R58" s="18">
+      <c r="Q58" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" s="9">
         <v>5</v>
       </c>
-      <c r="S58" s="12">
-        <v>0</v>
-      </c>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22">
-        <v>0</v>
-      </c>
-      <c r="V58" s="22">
-        <v>0</v>
-      </c>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="11" t="s">
-        <v>147</v>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="2:28">
-      <c r="B59" s="12">
+      <c r="B59">
         <v>1058</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G59" s="12">
+      <c r="D59" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59">
         <v>5</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59">
         <v>10</v>
       </c>
-      <c r="I59" s="12">
-        <v>0</v>
-      </c>
-      <c r="J59" s="12">
-        <v>0</v>
-      </c>
-      <c r="K59" s="12">
-        <v>0</v>
-      </c>
-      <c r="L59" s="12">
-        <v>0</v>
-      </c>
-      <c r="M59" s="12">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>100</v>
       </c>
-      <c r="N59" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O59" s="18">
+      <c r="N59" t="s">
+        <v>34</v>
+      </c>
+      <c r="O59" s="9">
         <v>11079</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59">
         <v>33</v>
       </c>
-      <c r="Q59" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R59" s="18">
+      <c r="Q59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R59" s="9">
         <v>100</v>
       </c>
-      <c r="S59" s="12">
-        <v>0</v>
-      </c>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22">
-        <v>0</v>
-      </c>
-      <c r="V59" s="22">
-        <v>0</v>
-      </c>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="11" t="s">
-        <v>147</v>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:28">
-      <c r="B60" s="12">
+      <c r="B60">
         <v>1059</v>
       </c>
-      <c r="C60" s="12">
-        <v>0</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0</v>
-      </c>
-      <c r="I60" s="12">
-        <v>0</v>
-      </c>
-      <c r="J60" s="12">
-        <v>0</v>
-      </c>
-      <c r="K60" s="12">
-        <v>0</v>
-      </c>
-      <c r="L60" s="12">
-        <v>0</v>
-      </c>
-      <c r="M60" s="12">
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>100</v>
       </c>
-      <c r="N60" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O60" s="18">
+      <c r="N60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="9">
         <v>12186.9</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P60">
         <v>33</v>
       </c>
-      <c r="Q60" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R60" s="18">
+      <c r="Q60" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R60" s="9">
         <v>100</v>
       </c>
-      <c r="S60" s="12">
-        <v>0</v>
-      </c>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22">
-        <v>0</v>
-      </c>
-      <c r="V60" s="22">
-        <v>0</v>
-      </c>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="11" t="s">
-        <v>147</v>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="2:28">
-      <c r="B61" s="12">
+      <c r="B61">
         <v>1060</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0</v>
-      </c>
-      <c r="H61" s="12">
-        <v>0</v>
-      </c>
-      <c r="I61" s="12">
-        <v>0</v>
-      </c>
-      <c r="J61" s="12">
-        <v>0</v>
-      </c>
-      <c r="K61" s="12">
-        <v>0</v>
-      </c>
-      <c r="L61" s="12">
-        <v>0</v>
-      </c>
-      <c r="M61" s="12">
+      <c r="D61" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>100</v>
       </c>
-      <c r="N61" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O61" s="18">
+      <c r="N61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61" s="9">
         <v>13405.6</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P61">
         <v>2</v>
       </c>
-      <c r="Q61" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R61" s="18">
+      <c r="Q61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" s="9">
         <v>5</v>
       </c>
-      <c r="S61" s="12">
-        <v>0</v>
-      </c>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22">
-        <v>0</v>
-      </c>
-      <c r="V61" s="22">
-        <v>0</v>
-      </c>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="11" t="s">
-        <v>147</v>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:28">
-      <c r="B62" s="12">
+      <c r="B62">
         <v>1061</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G62" s="12">
+      <c r="G62">
         <v>26</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62">
         <v>10</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62">
         <v>19</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62">
         <v>1</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62">
         <v>20</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62">
         <v>5</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62">
         <v>100</v>
       </c>
-      <c r="N62" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O62" s="18">
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" s="9">
         <v>14746.1</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62">
         <v>2</v>
       </c>
-      <c r="Q62" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R62" s="18">
+      <c r="Q62" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" s="9">
         <v>5</v>
       </c>
-      <c r="S62" s="12">
-        <v>0</v>
-      </c>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22">
-        <v>0</v>
-      </c>
-      <c r="V62" s="22">
-        <v>0</v>
-      </c>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="11" t="s">
-        <v>147</v>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:28">
-      <c r="B63" s="12">
+      <c r="B63">
         <v>1062</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63">
         <v>5</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0</v>
-      </c>
-      <c r="I63" s="12">
-        <v>0</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12">
-        <v>0</v>
-      </c>
-      <c r="L63" s="12">
-        <v>0</v>
-      </c>
-      <c r="M63" s="12">
+      <c r="D63" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>100</v>
       </c>
-      <c r="N63" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O63" s="18">
+      <c r="N63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" s="9">
         <v>16220.8</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P63">
         <v>2</v>
       </c>
-      <c r="Q63" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R63" s="18">
+      <c r="Q63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" s="9">
         <v>7</v>
       </c>
-      <c r="S63" s="12">
-        <v>0</v>
-      </c>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22">
-        <v>0</v>
-      </c>
-      <c r="V63" s="22">
-        <v>0</v>
-      </c>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="11" t="s">
-        <v>147</v>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:28">
-      <c r="B64" s="12">
+      <c r="B64">
         <v>1063</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G64" s="12">
+      <c r="D64" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64">
         <v>13</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64">
         <v>10</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64">
         <v>12</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64">
         <v>7</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64">
         <v>16</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64">
         <v>7</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64">
         <v>100</v>
       </c>
-      <c r="N64" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O64" s="18">
+      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64" s="9">
         <v>17842.8</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P64">
         <v>33</v>
       </c>
-      <c r="Q64" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R64" s="18">
+      <c r="Q64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R64" s="9">
         <v>100</v>
       </c>
-      <c r="S64" s="12">
-        <v>0</v>
-      </c>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22">
-        <v>0</v>
-      </c>
-      <c r="V64" s="22">
-        <v>0</v>
-      </c>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="11" t="s">
-        <v>147</v>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="2:28">
-      <c r="B65" s="12">
+      <c r="B65">
         <v>1064</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="12">
+      <c r="D65" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65">
         <v>14</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65">
         <v>10</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65">
         <v>15</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65">
         <v>10</v>
       </c>
-      <c r="K65" s="12">
-        <v>0</v>
-      </c>
-      <c r="L65" s="12">
-        <v>0</v>
-      </c>
-      <c r="M65" s="12">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>100</v>
       </c>
-      <c r="N65" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O65" s="18">
+      <c r="N65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" s="9">
         <v>19805.5</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65">
         <v>33</v>
       </c>
-      <c r="Q65" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R65" s="18">
+      <c r="Q65" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R65" s="9">
         <v>200</v>
       </c>
-      <c r="S65" s="12">
-        <v>0</v>
-      </c>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22">
-        <v>0</v>
-      </c>
-      <c r="V65" s="22">
-        <v>0</v>
-      </c>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="11" t="s">
-        <v>147</v>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="2:28">
-      <c r="B66" s="12">
+      <c r="B66">
         <v>1065</v>
       </c>
-      <c r="C66" s="12">
-        <v>0</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-      <c r="H66" s="12">
-        <v>0</v>
-      </c>
-      <c r="I66" s="12">
-        <v>0</v>
-      </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
-      <c r="K66" s="12">
-        <v>0</v>
-      </c>
-      <c r="L66" s="12">
-        <v>0</v>
-      </c>
-      <c r="M66" s="12">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
         <v>100</v>
       </c>
-      <c r="N66" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O66" s="18">
+      <c r="N66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O66" s="9">
         <v>21984.2</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P66">
         <v>33</v>
       </c>
-      <c r="Q66" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="R66" s="18">
+      <c r="Q66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R66" s="9">
         <v>200</v>
       </c>
-      <c r="S66" s="12">
-        <v>0</v>
-      </c>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22">
-        <v>0</v>
-      </c>
-      <c r="V66" s="22">
-        <v>0</v>
-      </c>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="11" t="s">
-        <v>147</v>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:28">
-      <c r="B67" s="12">
+      <c r="B67">
         <v>1066</v>
       </c>
-      <c r="C67" s="12">
-        <v>0</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G67" s="12">
-        <v>0</v>
-      </c>
-      <c r="H67" s="12">
-        <v>0</v>
-      </c>
-      <c r="I67" s="12">
-        <v>0</v>
-      </c>
-      <c r="J67" s="12">
-        <v>0</v>
-      </c>
-      <c r="K67" s="12">
-        <v>0</v>
-      </c>
-      <c r="L67" s="12">
-        <v>0</v>
-      </c>
-      <c r="M67" s="12">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>100</v>
       </c>
-      <c r="N67" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="O67" s="18">
+      <c r="N67" t="s">
+        <v>34</v>
+      </c>
+      <c r="O67" s="9">
         <v>24402.400000000001</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67">
         <v>2</v>
       </c>
-      <c r="Q67" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R67" s="18">
+      <c r="Q67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" s="9">
         <v>5</v>
       </c>
-      <c r="S67" s="12">
-        <v>0</v>
-      </c>
-      <c r="T67" s="22"/>
-      <c r="U67" s="22">
-        <v>0</v>
-      </c>
-      <c r="V67" s="22">
-        <v>0</v>
-      </c>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="11" t="s">
-        <v>147</v>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="2:28">
-      <c r="B68" s="13">
+      <c r="B68" s="14">
         <v>1067</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="14">
         <v>0</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="13">
-        <v>0</v>
-      </c>
-      <c r="H68" s="13">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13">
-        <v>0</v>
-      </c>
-      <c r="J68" s="13">
-        <v>0</v>
-      </c>
-      <c r="K68" s="13">
-        <v>0</v>
-      </c>
-      <c r="L68" s="13">
-        <v>0</v>
-      </c>
-      <c r="M68" s="13">
+        <v>164</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0</v>
+      </c>
+      <c r="I68" s="14">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14">
+        <v>0</v>
+      </c>
+      <c r="L68" s="14">
+        <v>0</v>
+      </c>
+      <c r="M68" s="14">
         <v>100</v>
       </c>
-      <c r="N68" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="O68" s="20">
+      <c r="N68" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O68" s="17">
         <v>27086.7</v>
       </c>
-      <c r="P68" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="13">
-        <v>0</v>
-      </c>
-      <c r="S68" s="13">
-        <v>0</v>
-      </c>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23">
-        <v>0</v>
-      </c>
-      <c r="V68" s="23">
-        <v>0</v>
-      </c>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="11" t="s">
-        <v>147</v>
+      <c r="P68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="14">
+        <v>0</v>
+      </c>
+      <c r="S68" s="14">
+        <v>0</v>
+      </c>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14">
+        <v>0</v>
+      </c>
+      <c r="V68" s="14">
+        <v>0</v>
+      </c>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:28">
-      <c r="B69" s="13">
+      <c r="B69" s="14">
         <v>1068</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="14">
         <v>0</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0</v>
-      </c>
-      <c r="H69" s="13">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13">
-        <v>0</v>
-      </c>
-      <c r="J69" s="13">
-        <v>0</v>
-      </c>
-      <c r="K69" s="13">
-        <v>0</v>
-      </c>
-      <c r="L69" s="13">
-        <v>0</v>
-      </c>
-      <c r="M69" s="13">
+        <v>168</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
+        <v>0</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="14">
+        <v>0</v>
+      </c>
+      <c r="L69" s="14">
+        <v>0</v>
+      </c>
+      <c r="M69" s="14">
         <v>100</v>
       </c>
-      <c r="N69" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="O69" s="20">
+      <c r="N69" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O69" s="17">
         <v>30066.2</v>
       </c>
-      <c r="P69" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="13">
-        <v>0</v>
-      </c>
-      <c r="S69" s="13">
-        <v>0</v>
-      </c>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23">
-        <v>0</v>
-      </c>
-      <c r="V69" s="23">
-        <v>0</v>
-      </c>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="11" t="s">
-        <v>147</v>
+      <c r="P69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="14">
+        <v>0</v>
+      </c>
+      <c r="S69" s="14">
+        <v>0</v>
+      </c>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14">
+        <v>0</v>
+      </c>
+      <c r="V69" s="14">
+        <v>0</v>
+      </c>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA309B-6187-4A98-B09D-FEBAEA6F5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E7FFA-A3A2-4A1B-97C7-BBA2E407C441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D886221-0E62-48B6-9303-9CD9E684FF2F}"/>
   </bookViews>
@@ -4245,8 +4245,8 @@
   <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5053,7 +5053,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>28</v>
       </c>
       <c r="R14" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>28</v>
       </c>
       <c r="R18" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>28</v>
       </c>
       <c r="R19" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -6459,7 +6459,7 @@
         <v>28</v>
       </c>
       <c r="R30" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -6607,7 +6607,7 @@
         <v>28</v>
       </c>
       <c r="R32" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>28</v>
       </c>
       <c r="R34" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -6829,7 +6829,7 @@
         <v>28</v>
       </c>
       <c r="R35" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>28</v>
       </c>
       <c r="R36" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>28</v>
       </c>
       <c r="R38" s="9">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>28</v>
       </c>
       <c r="R39" s="9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>28</v>
       </c>
       <c r="R40" s="9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>28</v>
       </c>
       <c r="R41" s="9">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -7347,7 +7347,7 @@
         <v>28</v>
       </c>
       <c r="R42" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>28</v>
       </c>
       <c r="R43" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>28</v>
       </c>
       <c r="R45" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -7717,7 +7717,7 @@
         <v>28</v>
       </c>
       <c r="R47" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -7791,7 +7791,7 @@
         <v>28</v>
       </c>
       <c r="R48" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>28</v>
       </c>
       <c r="R50" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>28</v>
       </c>
       <c r="R51" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -8161,7 +8161,7 @@
         <v>28</v>
       </c>
       <c r="R53" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -8235,7 +8235,7 @@
         <v>28</v>
       </c>
       <c r="R54" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>28</v>
       </c>
       <c r="R55" s="9">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>28</v>
       </c>
       <c r="R56" s="9">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>28</v>
       </c>
       <c r="R57" s="9">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>28</v>
       </c>
       <c r="R59" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>28</v>
       </c>
       <c r="R60" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>28</v>
       </c>
       <c r="R64" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>28</v>
       </c>
       <c r="R65" s="9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -9123,7 +9123,7 @@
         <v>28</v>
       </c>
       <c r="R66" s="9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66">
         <v>0</v>

--- a/excel2json-master/Quest_Data.xlsx
+++ b/excel2json-master/Quest_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50399502-958B-4A58-A336-45DB2BBD3678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FEAEEE-AC38-42AD-8936-755ACE1D6AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3029,7 +3029,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
   <si>
     <t>서리서리 제압</t>
   </si>
@@ -3475,10 +3475,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;카멜레온 5마리 처치&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;쓰러진 부꾸부꾸 획득&gt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3487,18 +3483,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;미어캣 10마리 처치&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;늑대 5마리 처치&gt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;황소 3마리 처치&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;게로게로의 주머니 획득&gt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3515,14 +3503,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;음료수 10개 획득 , 나무 5개 획득&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;생선 5개 획득&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;하이하이의 주방 그릇 획득&gt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3535,18 +3515,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;음료수 10개 획득, 맥주컵 1개 획득, 나무 5개 획득&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;포이즌머쉬 10마리 처치, 크랩스피어 7마리 처치, 글루멀쳐 7마리 처치&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;가이스트우드 10마리 처치, 트롤릭우드 10마리 처치&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>- 비밀스러운 포탈 -</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3555,15 +3523,51 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;스컹크 10마리 처치&gt;</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>불꽃의 아티펙트 획득하기</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>QuestType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;가이스트우드 5마리 처치, 트롤릭우드 5마리 처치&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;포이즌머쉬 10마리 처치, 크랩스피어 5마리 처치, 글루멀쳐 3마리 처치&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;음료수 5개 획득, 맥주컵 1개 획득, 나무 5개 획득&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;스컹크 5마리 처치&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;생선 2개 획득&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;음료수 5개 획득 , 나무 5개 획득&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;황소 1마리 처치&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;늑대 3마리 처치&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;미어캣 5마리 처치&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;카멜레온 3마리 처치&gt;</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4254,35 +4258,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="12" width="12.3984375" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="17.19921875" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" customWidth="1"/>
-    <col min="16" max="16" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.09765625" customWidth="1"/>
-    <col min="18" max="18" width="14.3984375" customWidth="1"/>
-    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -4293,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -4455,7 +4459,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -5063,7 +5067,7 @@
         <v>109</v>
       </c>
       <c r="R11" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -5285,7 +5289,7 @@
         <v>109</v>
       </c>
       <c r="R14" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -5359,7 +5363,7 @@
         <v>109</v>
       </c>
       <c r="R15" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -5545,13 +5549,13 @@
         <v>132</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5581,7 +5585,7 @@
         <v>109</v>
       </c>
       <c r="R18" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -5619,7 +5623,7 @@
         <v>135</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19">
         <v>30</v>
@@ -5655,7 +5659,7 @@
         <v>109</v>
       </c>
       <c r="R19" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -5693,7 +5697,7 @@
         <v>135</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -5915,13 +5919,13 @@
         <v>102</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5989,13 +5993,13 @@
         <v>107</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6063,13 +6067,13 @@
         <v>106</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -6137,13 +6141,13 @@
         <v>105</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G26">
         <v>7</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6321,7 +6325,7 @@
         <v>109</v>
       </c>
       <c r="R28" s="10">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -6433,7 +6437,7 @@
         <v>114</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>28</v>
@@ -6469,7 +6473,7 @@
         <v>109</v>
       </c>
       <c r="R30" s="10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -6581,13 +6585,13 @@
         <v>65</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -6617,7 +6621,7 @@
         <v>109</v>
       </c>
       <c r="R32" s="10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -6655,7 +6659,7 @@
         <v>133</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G33">
         <v>31</v>
@@ -6729,7 +6733,7 @@
         <v>133</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G34">
         <v>31</v>
@@ -6765,7 +6769,7 @@
         <v>109</v>
       </c>
       <c r="R34" s="8">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -6839,7 +6843,7 @@
         <v>109</v>
       </c>
       <c r="R35" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -6913,7 +6917,7 @@
         <v>109</v>
       </c>
       <c r="R36" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -7061,7 +7065,7 @@
         <v>109</v>
       </c>
       <c r="R38" s="8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -7135,7 +7139,7 @@
         <v>109</v>
       </c>
       <c r="R39" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -7209,7 +7213,7 @@
         <v>109</v>
       </c>
       <c r="R40" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -7247,13 +7251,13 @@
         <v>125</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G41">
         <v>26</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <v>20</v>
@@ -7283,7 +7287,7 @@
         <v>109</v>
       </c>
       <c r="R41" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -7357,7 +7361,7 @@
         <v>109</v>
       </c>
       <c r="R42" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -7431,7 +7435,7 @@
         <v>109</v>
       </c>
       <c r="R43" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -7469,13 +7473,13 @@
         <v>108</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G44">
         <v>17</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -7579,7 +7583,7 @@
         <v>109</v>
       </c>
       <c r="R45" s="8">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -7727,7 +7731,7 @@
         <v>109</v>
       </c>
       <c r="R47" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -7801,7 +7805,7 @@
         <v>109</v>
       </c>
       <c r="R48" s="8">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -7839,7 +7843,7 @@
         <v>115</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -7913,7 +7917,7 @@
         <v>140</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -7987,7 +7991,7 @@
         <v>140</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G51">
         <v>32</v>
@@ -8023,7 +8027,7 @@
         <v>109</v>
       </c>
       <c r="R51" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -8171,7 +8175,7 @@
         <v>109</v>
       </c>
       <c r="R53" s="8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -8245,7 +8249,7 @@
         <v>109</v>
       </c>
       <c r="R54" s="10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -8319,7 +8323,7 @@
         <v>109</v>
       </c>
       <c r="R55" s="8">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -8393,7 +8397,7 @@
         <v>109</v>
       </c>
       <c r="R56" s="8">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -8467,7 +8471,7 @@
         <v>109</v>
       </c>
       <c r="R57" s="8">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -8579,13 +8583,13 @@
         <v>81</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -8615,7 +8619,7 @@
         <v>109</v>
       </c>
       <c r="R59" s="8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -8689,7 +8693,7 @@
         <v>109</v>
       </c>
       <c r="R60" s="8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -8801,13 +8805,13 @@
         <v>112</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G62">
         <v>26</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>19</v>
@@ -8949,25 +8953,25 @@
         <v>128</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G64">
         <v>13</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I64">
         <v>12</v>
       </c>
       <c r="J64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K64">
         <v>16</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <v>100</v>
@@ -8985,7 +8989,7 @@
         <v>109</v>
       </c>
       <c r="R64" s="8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S64">
         <v>0</v>
@@ -9023,19 +9027,19 @@
         <v>130</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G65">
         <v>14</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I65">
         <v>15</v>
       </c>
       <c r="J65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -9059,7 +9063,7 @@
         <v>109</v>
       </c>
       <c r="R65" s="8">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -9133,7 +9137,7 @@
         <v>109</v>
       </c>
       <c r="R66" s="8">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -9171,7 +9175,7 @@
         <v>32</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G67">
         <v>35</v>
@@ -9314,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F69" s="12" t="s">
         <v>1</v>
